--- a/s60_signal/position-2319-151-800.xlsx
+++ b/s60_signal/position-2319-151-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="796">
   <si>
     <t>trade_time</t>
   </si>
@@ -685,9 +685,6 @@
     <t>2021-07-06</t>
   </si>
   <si>
-    <t>2021-03-18</t>
-  </si>
-  <si>
     <t>2021-07-08</t>
   </si>
   <si>
@@ -1408,10 +1405,13 @@
     <t>2021-03-26</t>
   </si>
   <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2021-03-23</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
   </si>
   <si>
     <t>2010-03-04</t>
@@ -2759,7 +2759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P973"/>
+  <dimension ref="A1:P978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2823,7 +2823,7 @@
         <v>4.668769830298571</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>4.054837073375817</v>
@@ -2873,7 +2873,7 @@
         <v>4.765382653350956</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <v>4.128571316704835</v>
@@ -2923,7 +2923,7 @@
         <v>4.850291097493995</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>4.274111660351666</v>
@@ -2973,7 +2973,7 @@
         <v>4.820428609195286</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5">
         <v>4.189585278438695</v>
@@ -3023,7 +3023,7 @@
         <v>4.609455769431058</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6">
         <v>3.880558527509777</v>
@@ -3073,7 +3073,7 @@
         <v>4.262202377888721</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7">
         <v>3.526059155557842</v>
@@ -3123,7 +3123,7 @@
         <v>4.052972532468646</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8">
         <v>3.526059155557842</v>
@@ -3173,7 +3173,7 @@
         <v>3.987967763999397</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9">
         <v>3.392900699052088</v>
@@ -3223,7 +3223,7 @@
         <v>3.781143485367824</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10">
         <v>3.392900699052088</v>
@@ -3273,7 +3273,7 @@
         <v>3.646044546547531</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11">
         <v>2.99683878687988</v>
@@ -3323,7 +3323,7 @@
         <v>3.613613452018764</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12">
         <v>2.99683878687988</v>
@@ -3373,7 +3373,7 @@
         <v>3.274669971776248</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13">
         <v>2.639848087915739</v>
@@ -3423,7 +3423,7 @@
         <v>3.252826310300172</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14">
         <v>2.639848087915739</v>
@@ -3473,7 +3473,7 @@
         <v>0.1323936504863763</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15">
         <v>1.741370807723951</v>
@@ -3523,7 +3523,7 @@
         <v>2.946337414702608</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16">
         <v>2.364840052267337</v>
@@ -3573,7 +3573,7 @@
         <v>2.933854111213281</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>2.364840052267337</v>
@@ -3623,7 +3623,7 @@
         <v>-1.013346055796106</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18">
         <v>0.5516941209444584</v>
@@ -3673,7 +3673,7 @@
         <v>1.964274809317624</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19">
         <v>1.492621534897812</v>
@@ -3723,7 +3723,7 @@
         <v>1.979788904666026</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20">
         <v>1.492621534897812</v>
@@ -3773,7 +3773,7 @@
         <v>-1.525210877269594</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21">
         <v>0.06112971765456976</v>
@@ -3823,7 +3823,7 @@
         <v>1.525533533768919</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22">
         <v>1.052211733879775</v>
@@ -3873,7 +3873,7 @@
         <v>1.55355560407814</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23">
         <v>1.052211733879775</v>
@@ -3923,7 +3923,7 @@
         <v>-1.881573114050767</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24">
         <v>-0.2215485979876393</v>
@@ -3973,7 +3973,7 @@
         <v>1.220080187956485</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>0.7333622759078615</v>
@@ -4023,7 +4023,7 @@
         <v>1.256810358036674</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>0.7333622759078615</v>
@@ -4073,7 +4073,7 @@
         <v>-1.732165616662956</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27">
         <v>-0.1030336282552016</v>
@@ -4123,7 +4123,7 @@
         <v>1.348143757146038</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28">
         <v>1.028059183887497</v>
@@ -4173,7 +4173,7 @@
         <v>1.381222992139683</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E29">
         <v>1.028059183887497</v>
@@ -4223,7 +4223,7 @@
         <v>-2.138597671192569</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30">
         <v>-0.4254289797805715</v>
@@ -4273,7 +4273,7 @@
         <v>1.042784270040776</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31">
         <v>0.6562254823657989</v>
@@ -4323,7 +4323,7 @@
         <v>-2.180687935013482</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E32">
         <v>-0.4588163695031762</v>
@@ -4373,7 +4373,7 @@
         <v>-2.23669363245903</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33">
         <v>-0.5032419415370502</v>
@@ -4423,7 +4423,7 @@
         <v>-2.243544668587898</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34">
         <v>-0.5086764100452879</v>
@@ -4473,7 +4473,7 @@
         <v>-2.244292237442924</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35">
         <v>-0.5092694063926952</v>
@@ -4523,7 +4523,7 @@
         <v>-2.511849529780562</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36">
         <v>-0.7215047021943564</v>
@@ -4573,7 +4573,7 @@
         <v>-3.036242796835047</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37">
         <v>-1.137470789970658</v>
@@ -4623,7 +4623,7 @@
         <v>-2.611544639564025</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38">
         <v>-1.040980532367853</v>
@@ -4673,7 +4673,7 @@
         <v>-1.50765857964949</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39">
         <v>-0.0669487313628041</v>
@@ -4723,7 +4723,7 @@
         <v>-1.512298366315171</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40">
         <v>0.1840837212346287</v>
@@ -4773,7 +4773,7 @@
         <v>1.441136177839264</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E41">
         <v>0.410352785813104</v>
@@ -4823,7 +4823,7 @@
         <v>4.39856098484354</v>
       </c>
       <c r="D42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E42">
         <v>3.182546703045652</v>
@@ -4873,7 +4873,7 @@
         <v>4.188135011292282</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43">
         <v>3.182546703045652</v>
@@ -4923,7 +4923,7 @@
         <v>1.799700659675887</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E44">
         <v>2.911216439716206</v>
@@ -4973,7 +4973,7 @@
         <v>3.901195698385664</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45">
         <v>2.721174957055123</v>
@@ -5023,7 +5023,7 @@
         <v>3.861490557861512</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46">
         <v>2.721174957055123</v>
@@ -5073,7 +5073,7 @@
         <v>1.2879908258097</v>
       </c>
       <c r="D47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E47">
         <v>2.398458020124885</v>
@@ -5123,7 +5123,7 @@
         <v>3.423040607723818</v>
       </c>
       <c r="D48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E48">
         <v>2.277623195322753</v>
@@ -5173,7 +5173,7 @@
         <v>3.396967081626429</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E49">
         <v>2.277623195322753</v>
@@ -5223,7 +5223,7 @@
         <v>0.9805772803144999</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E50">
         <v>2.090414528839735</v>
@@ -5273,7 +5273,7 @@
         <v>3.135785327506991</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E51">
         <v>1.867412842254645</v>
@@ -5323,7 +5323,7 @@
         <v>3.117901096678942</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E52">
         <v>1.867412842254645</v>
@@ -5373,7 +5373,7 @@
         <v>0.9353775122960366</v>
       </c>
       <c r="D53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E53">
         <v>2.045122138345823</v>
@@ -5423,7 +5423,7 @@
         <v>3.093549478702854</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E54">
         <v>1.826103218204985</v>
@@ -5473,7 +5473,7 @@
         <v>3.076869340055624</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E55">
         <v>1.826103218204985</v>
@@ -5523,7 +5523,7 @@
         <v>0.8948152036903272</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56">
         <v>2.004476710255267</v>
@@ -5573,7 +5573,7 @@
         <v>3.055646993612273</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E57">
         <v>1.789031927962881</v>
@@ -5623,7 +5623,7 @@
         <v>3.040047408268064</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E58">
         <v>1.789031927962881</v>
@@ -5673,7 +5673,7 @@
         <v>0.8975781135703382</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59">
         <v>2.007245281835852</v>
@@ -5723,7 +5723,7 @@
         <v>3.058228729073923</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E60">
         <v>1.791557046418793</v>
@@ -5773,7 +5773,7 @@
         <v>3.042555541622255</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E61">
         <v>1.791557046418793</v>
@@ -5823,7 +5823,7 @@
         <v>0.9150173296051971</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E62">
         <v>2.024720233969142</v>
@@ -5873,7 +5873,7 @@
         <v>3.074524389958954</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E63">
         <v>1.807495346319504</v>
@@ -5923,7 +5923,7 @@
         <v>3.058386633227669</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64">
         <v>1.807495346319504</v>
@@ -5973,7 +5973,7 @@
         <v>1.022654943991288</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E65">
         <v>2.132578417237172</v>
@@ -6023,7 +6023,7 @@
         <v>3.175103800123007</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66">
         <v>2.054950746614775</v>
@@ -6073,7 +6073,7 @@
         <v>3.156098647926519</v>
       </c>
       <c r="D67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E67">
         <v>2.054950746614775</v>
@@ -6123,7 +6123,7 @@
         <v>1.000253752671635</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E68">
         <v>2.110131321836946</v>
@@ -6173,7 +6173,7 @@
         <v>3.154171539381691</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69">
         <v>2.033926677712314</v>
@@ -6223,7 +6223,7 @@
         <v>3.135763140232653</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E70">
         <v>2.033926677712314</v>
@@ -6273,7 +6273,7 @@
         <v>1.063565417399539</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E71">
         <v>2.173572723582734</v>
@@ -6323,7 +6323,7 @@
         <v>3.213331619537273</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72">
         <v>2.093346231903666</v>
@@ -6373,7 +6373,7 @@
         <v>3.193236639155729</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73">
         <v>2.093346231903666</v>
@@ -6423,7 +6423,7 @@
         <v>1.166135256217004</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E74">
         <v>2.18630194274817</v>
@@ -6473,7 +6473,7 @@
         <v>3.225201811642465</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E75">
         <v>2.105268486254933</v>
@@ -6523,7 +6523,7 @@
         <v>3.204768426661431</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E76">
         <v>2.105268486254933</v>
@@ -6573,7 +6573,7 @@
         <v>1.2182470356636</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E77">
         <v>2.238952067023761</v>
@@ -6623,7 +6623,7 @@
         <v>3.274298860046697</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78">
         <v>2.154580872590762</v>
@@ -6673,7 +6673,7 @@
         <v>3.252465778510279</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E79">
         <v>2.154580872590762</v>
@@ -6723,7 +6723,7 @@
         <v>1.291198730826802</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E80">
         <v>2.312657395401459</v>
@@ -6773,7 +6773,7 @@
         <v>3.343030209208722</v>
       </c>
       <c r="D81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E81">
         <v>2.223613675038585</v>
@@ -6823,7 +6823,7 @@
         <v>3.319237681314615</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82">
         <v>2.223613675038585</v>
@@ -6873,7 +6873,7 @@
         <v>1.34510329737462</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E83">
         <v>2.367118827306175</v>
@@ -6923,7 +6923,7 @@
         <v>3.393816329757906</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E84">
         <v>2.274622541730529</v>
@@ -6973,7 +6973,7 @@
         <v>3.368575951935861</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E85">
         <v>2.274622541730529</v>
@@ -7023,7 +7023,7 @@
         <v>1.513904386538148</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E86">
         <v>2.537663729374286</v>
@@ -7073,7 +7073,7 @@
         <v>3.552852066655775</v>
       </c>
       <c r="D87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E87">
         <v>2.434355803790231</v>
@@ -7123,7 +7123,7 @@
         <v>3.523077775281817</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88">
         <v>2.434355803790231</v>
@@ -7173,7 +7173,7 @@
         <v>1.9431846543612</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E89">
         <v>2.794461672095546</v>
@@ -7223,7 +7223,7 @@
         <v>3.792320086862104</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90">
         <v>2.705502714440824</v>
@@ -7273,7 +7273,7 @@
         <v>3.587212015924718</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E91">
         <v>2.705502714440824</v>
@@ -7323,7 +7323,7 @@
         <v>1.503733694731492</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E92">
         <v>2.523733694731492</v>
@@ -7373,7 +7373,7 @@
         <v>3.381685583601557</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93">
         <v>2.31377901067254</v>
@@ -7423,7 +7423,7 @@
         <v>3.180179569710317</v>
       </c>
       <c r="D94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94">
         <v>2.31377901067254</v>
@@ -7473,7 +7473,7 @@
         <v>1.139186355876611</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E95">
         <v>2.159186355876611</v>
@@ -7523,7 +7523,7 @@
         <v>3.041042988278145</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E96">
         <v>1.988823903291651</v>
@@ -7573,7 +7573,7 @@
         <v>2.842525067328337</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E97">
         <v>1.988823903291651</v>
@@ -7623,7 +7623,7 @@
         <v>1.22762069597662</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E98">
         <v>2.131643248178461</v>
@@ -7673,7 +7673,7 @@
         <v>3.015305986002824</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E99">
         <v>1.964272157700063</v>
@@ -7723,7 +7723,7 @@
         <v>2.81701382823087</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E100">
         <v>1.964272157700063</v>
@@ -7773,7 +7773,7 @@
         <v>1.366173159410812</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E101">
         <v>2.274287978465139</v>
@@ -7823,7 +7823,7 @@
         <v>3.148596963483818</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E102">
         <v>2.091424734902326</v>
@@ -7873,7 +7873,7 @@
         <v>2.949135586611153</v>
       </c>
       <c r="D103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E103">
         <v>2.091424734902326</v>
@@ -7923,7 +7923,7 @@
         <v>3.948262414572877</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E104">
         <v>3.094822308437806</v>
@@ -7973,7 +7973,7 @@
         <v>2.468043024849538</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E105">
         <v>3.212882865646931</v>
@@ -8023,7 +8023,7 @@
         <v>1.892954030836931</v>
       </c>
       <c r="D106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E106">
         <v>3.248486714060406</v>
@@ -8073,7 +8073,7 @@
         <v>4.721549662472612</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E107">
         <v>4.000254264689513</v>
@@ -8123,7 +8123,7 @@
         <v>4.487941914160249</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E108">
         <v>4.000254264689513</v>
@@ -8173,7 +8173,7 @@
         <v>4.348607774815335</v>
       </c>
       <c r="D109" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E109">
         <v>4.000254264689513</v>
@@ -8223,7 +8223,7 @@
         <v>1.521597457334015</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E110">
         <v>2.923215758492204</v>
@@ -8360,7 +8360,7 @@
         <v>1.120883109513808</v>
       </c>
       <c r="D114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114">
         <v>2.572230349520187</v>
@@ -8860,7 +8860,7 @@
         <v>2.818480527182627</v>
       </c>
       <c r="D124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E124">
         <v>2.951429316362824</v>
@@ -8910,7 +8910,7 @@
         <v>2.866431069843621</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E125">
         <v>2.951429316362824</v>
@@ -8960,7 +8960,7 @@
         <v>2.741987015061575</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E126">
         <v>2.951429316362824</v>
@@ -9010,7 +9010,7 @@
         <v>2.018342340686977</v>
       </c>
       <c r="D127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E127">
         <v>2.007632555094914</v>
@@ -9060,7 +9060,7 @@
         <v>1.931064345349516</v>
       </c>
       <c r="D128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E128">
         <v>2.007632555094914</v>
@@ -9110,7 +9110,7 @@
         <v>2.127234057213728</v>
       </c>
       <c r="D129" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E129">
         <v>2.007632555094914</v>
@@ -9160,7 +9160,7 @@
         <v>2.852113884007034</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E130">
         <v>2.654627416520215</v>
@@ -9210,7 +9210,7 @@
         <v>2.905748681898071</v>
       </c>
       <c r="D131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E131">
         <v>2.654627416520215</v>
@@ -9260,7 +9260,7 @@
         <v>2.781667838312833</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E132">
         <v>2.654627416520215</v>
@@ -9310,7 +9310,7 @@
         <v>3.578286567164187</v>
       </c>
       <c r="D133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E133">
         <v>3.086298507462695</v>
@@ -9360,7 +9360,7 @@
         <v>3.754649253731352</v>
       </c>
       <c r="D134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E134">
         <v>3.086298507462695</v>
@@ -9410,7 +9410,7 @@
         <v>3.638410447761202</v>
       </c>
       <c r="D135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E135">
         <v>3.086298507462695</v>
@@ -9460,7 +9460,7 @@
         <v>4.384998257269309</v>
       </c>
       <c r="D136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E136">
         <v>3.811776423494133</v>
@@ -9510,7 +9510,7 @@
         <v>4.274582536782189</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E137">
         <v>3.811776423494133</v>
@@ -9560,7 +9560,7 @@
         <v>4.173438031585078</v>
       </c>
       <c r="D138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E138">
         <v>3.860402550510878</v>
@@ -9610,7 +9610,7 @@
         <v>4.061067944117041</v>
       </c>
       <c r="D139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E139">
         <v>3.860402550510878</v>
@@ -9660,7 +9660,7 @@
         <v>4.184272654440902</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E140">
         <v>3.718382664427843</v>
@@ -9710,7 +9710,7 @@
         <v>4.072002655867608</v>
       </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E141">
         <v>3.718382664427843</v>
@@ -9760,7 +9760,7 @@
         <v>4.058813656136041</v>
       </c>
       <c r="D142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E142">
         <v>3.843666681312896</v>
@@ -9810,7 +9810,7 @@
         <v>3.945384682982563</v>
       </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E143">
         <v>3.843666681312896</v>
@@ -9860,7 +9860,7 @@
         <v>3.617337992100363</v>
       </c>
       <c r="D144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E144">
         <v>3.276663917704773</v>
@@ -9910,7 +9910,7 @@
         <v>3.782352532662019</v>
       </c>
       <c r="D145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E145">
         <v>3.276663917704773</v>
@@ -9960,7 +9960,7 @@
         <v>3.685056743035124</v>
       </c>
       <c r="D146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E146">
         <v>3.268605315926459</v>
@@ -10010,7 +10010,7 @@
         <v>3.848820128845098</v>
       </c>
       <c r="D147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E147">
         <v>3.268605315926459</v>
@@ -10060,7 +10060,7 @@
         <v>3.818686689272846</v>
       </c>
       <c r="D148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E148">
         <v>3.254920609290071</v>
@@ -10110,7 +10110,7 @@
         <v>3.979981161526466</v>
       </c>
       <c r="D149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E149">
         <v>3.254920609290071</v>
@@ -10160,7 +10160,7 @@
         <v>3.538412067376893</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E150">
         <v>2.98458013686577</v>
@@ -10210,7 +10210,7 @@
         <v>3.704884823637828</v>
       </c>
       <c r="D151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E151">
         <v>2.98458013686577</v>
@@ -10260,7 +10260,7 @@
         <v>4.405651110005389</v>
       </c>
       <c r="D152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E152">
         <v>4.152951925895131</v>
@@ -10310,7 +10310,7 @@
         <v>4.556100974023765</v>
       </c>
       <c r="D153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E153">
         <v>4.152951925895131</v>
@@ -10360,7 +10360,7 @@
         <v>4.274983331110816</v>
       </c>
       <c r="D154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E154">
         <v>3.6709267902387</v>
@@ -10410,7 +10410,7 @@
         <v>4.394108547806375</v>
       </c>
       <c r="D155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E155">
         <v>3.6709267902387</v>
@@ -10460,7 +10460,7 @@
         <v>4.373680718844473</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E156">
         <v>3.921844978165938</v>
@@ -10510,7 +10510,7 @@
         <v>4.442864460866644</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E157">
         <v>3.921844978165938</v>
@@ -10560,7 +10560,7 @@
         <v>4.493272589855558</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E158">
         <v>3.921844978165938</v>
@@ -10610,7 +10610,7 @@
         <v>4.76606170653381</v>
       </c>
       <c r="D159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E159">
         <v>4.481492241663915</v>
@@ -10660,7 +10660,7 @@
         <v>4.81495603109337</v>
       </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E160">
         <v>4.481492241663915</v>
@@ -10797,7 +10797,7 @@
         <v>5.966343148199831</v>
       </c>
       <c r="D164" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E164">
         <v>6.093984789282723</v>
@@ -10847,7 +10847,7 @@
         <v>6.009615545632151</v>
       </c>
       <c r="D165" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E165">
         <v>6.093984789282723</v>
@@ -10897,7 +10897,7 @@
         <v>6.223984789282722</v>
       </c>
       <c r="D166" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E166">
         <v>6.093984789282723</v>
@@ -11147,7 +11147,7 @@
         <v>11.24789843619279</v>
       </c>
       <c r="D171" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E171">
         <v>10.6698505676716</v>
@@ -11197,7 +11197,7 @@
         <v>11.28692133835249</v>
       </c>
       <c r="D172" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E172">
         <v>10.6698505676716</v>
@@ -11247,7 +11247,7 @@
         <v>11.13929791099633</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E173">
         <v>10.6698505676716</v>
@@ -11297,7 +11297,7 @@
         <v>11.29506382035501</v>
       </c>
       <c r="D174" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E174">
         <v>10.6698505676716</v>
@@ -11347,7 +11347,7 @@
         <v>11.31636661747542</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E175">
         <v>10.6698505676716</v>
@@ -11397,7 +11397,7 @@
         <v>11.26711469371875</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E176">
         <v>10.6698505676716</v>
@@ -11447,7 +11447,7 @@
         <v>11.63088741344865</v>
       </c>
       <c r="D177" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E177">
         <v>10.86221188886616</v>
@@ -11497,7 +11497,7 @@
         <v>11.6723706302374</v>
       </c>
       <c r="D178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E178">
         <v>10.86221188886616</v>
@@ -11547,7 +11547,7 @@
         <v>11.4935832175799</v>
       </c>
       <c r="D179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E179">
         <v>10.86221188886616</v>
@@ -11597,7 +11597,7 @@
         <v>11.66001049033115</v>
       </c>
       <c r="D180" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E180">
         <v>10.86221188886616</v>
@@ -11647,7 +11647,7 @@
         <v>11.67803286794615</v>
       </c>
       <c r="D181" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E181">
         <v>10.86221188886616</v>
@@ -11697,7 +11697,7 @@
         <v>11.60171748326991</v>
       </c>
       <c r="D182" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E182">
         <v>10.86221188886616</v>
@@ -11747,7 +11747,7 @@
         <v>12.73183416889339</v>
       </c>
       <c r="D183" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E183">
         <v>12.02927625106271</v>
@@ -11797,7 +11797,7 @@
         <v>12.70909251639734</v>
       </c>
       <c r="D184" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E184">
         <v>12.02927625106271</v>
@@ -11847,7 +11847,7 @@
         <v>12.71768494321624</v>
       </c>
       <c r="D185" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E185">
         <v>12.02927625106271</v>
@@ -11897,7 +11897,7 @@
         <v>12.56357246447217</v>
       </c>
       <c r="D186" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E186">
         <v>12.02927625106271</v>
@@ -11947,7 +11947,7 @@
         <v>15.06479784705732</v>
       </c>
       <c r="D187" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E187">
         <v>14.17394587527265</v>
@@ -11997,7 +11997,7 @@
         <v>14.93215212406961</v>
       </c>
       <c r="D188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E188">
         <v>14.17394587527265</v>
@@ -12047,7 +12047,7 @@
         <v>14.9207619926173</v>
       </c>
       <c r="D189" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E189">
         <v>14.17394587527265</v>
@@ -12097,7 +12097,7 @@
         <v>14.8058114356608</v>
       </c>
       <c r="D190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E190">
         <v>13.81552690738673</v>
@@ -12147,7 +12147,7 @@
         <v>14.68536635732132</v>
       </c>
       <c r="D191" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E191">
         <v>13.81552690738673</v>
@@ -12197,7 +12197,7 @@
         <v>14.67619452489596</v>
       </c>
       <c r="D192" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E192">
         <v>13.81552690738673</v>
@@ -12247,7 +12247,7 @@
         <v>14.53950719519452</v>
       </c>
       <c r="D193" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E193">
         <v>13.81552690738673</v>
@@ -12297,7 +12297,7 @@
         <v>14.61784505273931</v>
       </c>
       <c r="D194" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E194">
         <v>13.71180261928329</v>
@@ -12347,7 +12347,7 @@
         <v>14.50625492177515</v>
       </c>
       <c r="D195" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E195">
         <v>13.71180261928329</v>
@@ -12397,7 +12397,7 @@
         <v>14.49869307978166</v>
       </c>
       <c r="D196" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E196">
         <v>13.71180261928329</v>
@@ -12447,7 +12447,7 @@
         <v>15.03673353162227</v>
       </c>
       <c r="D197" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E197">
         <v>14.28098477223802</v>
@@ -12497,7 +12497,7 @@
         <v>14.9054098962996</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E198">
         <v>14.28098477223802</v>
@@ -12547,7 +12547,7 @@
         <v>14.89426014442275</v>
       </c>
       <c r="D199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199">
         <v>14.28098477223802</v>
@@ -12597,7 +12597,7 @@
         <v>14.74966113691534</v>
       </c>
       <c r="D200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E200">
         <v>14.28098477223802</v>
@@ -12647,7 +12647,7 @@
         <v>14.09698907604816</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E201">
         <v>13.19571119468411</v>
@@ -12697,7 +12697,7 @@
         <v>14.0099360574763</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E202">
         <v>13.19571119468411</v>
@@ -12747,7 +12747,7 @@
         <v>14.00683550864505</v>
       </c>
       <c r="D203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E203">
         <v>13.19571119468411</v>
@@ -12797,7 +12797,7 @@
         <v>12.93721411028043</v>
       </c>
       <c r="D204" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E204">
         <v>11.88175541820734</v>
@@ -12847,7 +12847,7 @@
         <v>12.90479717146636</v>
       </c>
       <c r="D205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E205">
         <v>11.88175541820734</v>
@@ -12897,7 +12897,7 @@
         <v>12.91163045531835</v>
       </c>
       <c r="D206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E206">
         <v>11.88175541820734</v>
@@ -12947,7 +12947,7 @@
         <v>12.74300504709725</v>
       </c>
       <c r="D207" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E207">
         <v>11.88175541820734</v>
@@ -12997,7 +12997,7 @@
         <v>13.330278162405</v>
       </c>
       <c r="D208" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E208">
         <v>12.36401181574818</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="P208" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -13047,7 +13047,7 @@
         <v>13.27934428751654</v>
       </c>
       <c r="D209" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E209">
         <v>12.36401181574818</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="P209" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -13097,7 +13097,7 @@
         <v>13.28281085571864</v>
       </c>
       <c r="D210" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E210">
         <v>12.36401181574818</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="P210" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -13147,7 +13147,7 @@
         <v>13.19667712852703</v>
       </c>
       <c r="D211" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E211">
         <v>12.36401181574818</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="P211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -13197,7 +13197,7 @@
         <v>17.63280217717718</v>
       </c>
       <c r="D212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E212">
         <v>16.43284159159159</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="P212" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -13247,7 +13247,7 @@
         <v>17.37917980480481</v>
       </c>
       <c r="D213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E213">
         <v>16.43284159159159</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="P213" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -13297,7 +13297,7 @@
         <v>17.34579391891892</v>
       </c>
       <c r="D214" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E214">
         <v>16.43284159159159</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="P214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -13347,7 +13347,7 @@
         <v>15.46700391885661</v>
       </c>
       <c r="D215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E215">
         <v>17.33614107883817</v>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -13397,7 +13397,7 @@
         <v>18.85485621254034</v>
       </c>
       <c r="D216" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E216">
         <v>17.87467266021208</v>
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="P216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -13447,7 +13447,7 @@
         <v>18.54366384278469</v>
       </c>
       <c r="D217" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E217">
         <v>17.87467266021208</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="P217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -13497,7 +13497,7 @@
         <v>18.4998106846473</v>
       </c>
       <c r="D218" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E218">
         <v>17.87467266021208</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="P218" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -13547,7 +13547,7 @@
         <v>15.78407619699433</v>
       </c>
       <c r="D219" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E219">
         <v>15.04489234893205</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="P219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13597,7 +13597,7 @@
         <v>15.61754584081901</v>
       </c>
       <c r="D220" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E220">
         <v>15.04489234893205</v>
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="P220" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13647,7 +13647,7 @@
         <v>15.59999486696895</v>
       </c>
       <c r="D221" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E221">
         <v>15.04489234893205</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="P221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13697,7 +13697,7 @@
         <v>12.94859499529489</v>
       </c>
       <c r="D222" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E222">
         <v>12.01512338921857</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="P222" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13747,7 +13747,7 @@
         <v>12.91564191200477</v>
       </c>
       <c r="D223" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E223">
         <v>12.01512338921857</v>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="P223" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13797,7 +13797,7 @@
         <v>12.92237771504293</v>
       </c>
       <c r="D224" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E224">
         <v>12.01512338921857</v>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="P224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -13847,7 +13847,7 @@
         <v>11.11574513874256</v>
       </c>
       <c r="D225" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E225">
         <v>9.928440945305535</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="P225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13897,7 +13897,7 @@
         <v>11.1539190903833</v>
       </c>
       <c r="D226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E226">
         <v>9.928440945305535</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="P226" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13947,7 +13947,7 @@
         <v>11.16913616004376</v>
       </c>
       <c r="D227" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E227">
         <v>9.928440945305535</v>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13997,7 +13997,7 @@
         <v>11.19157089118944</v>
       </c>
       <c r="D228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E228">
         <v>9.928440945305535</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="P228" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -14047,7 +14047,7 @@
         <v>11.15165742314125</v>
       </c>
       <c r="D229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E229">
         <v>9.928440945305535</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -14097,7 +14097,7 @@
         <v>10.90089426371135</v>
       </c>
       <c r="D230" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E230">
         <v>10.5662390863889</v>
@@ -14197,7 +14197,7 @@
         <v>8.192551765611574</v>
       </c>
       <c r="D232" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E232">
         <v>8.033210203328023</v>
@@ -14247,7 +14247,7 @@
         <v>8.073868641044474</v>
       </c>
       <c r="D233" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E233">
         <v>8.033210203328023</v>
@@ -14297,7 +14297,7 @@
         <v>10.37598861795001</v>
       </c>
       <c r="D234" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E234">
         <v>12.09872019119768</v>
@@ -14347,7 +14347,7 @@
         <v>13.56347119758373</v>
       </c>
       <c r="D235" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E235">
         <v>11.82104838866629</v>
@@ -14397,7 +14397,7 @@
         <v>11.39798119951976</v>
       </c>
       <c r="D236" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E236">
         <v>13.11423079022048</v>
@@ -14447,7 +14447,7 @@
         <v>14.57965714363676</v>
       </c>
       <c r="D237" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E237">
         <v>12.92132326457106</v>
@@ -14597,7 +14597,7 @@
         <v>28.86812872345841</v>
       </c>
       <c r="D240" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E240">
         <v>28.72214369367074</v>
@@ -14647,7 +14647,7 @@
         <v>29.10009878303374</v>
       </c>
       <c r="D241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E241">
         <v>28.72214369367074</v>
@@ -14697,7 +14697,7 @@
         <v>29.24287183665155</v>
       </c>
       <c r="D242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E242">
         <v>28.72214369367074</v>
@@ -14747,7 +14747,7 @@
         <v>30.32995796973306</v>
       </c>
       <c r="D243" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E243">
         <v>29.90295108855826</v>
@@ -14797,7 +14797,7 @@
         <v>30.49016209843793</v>
       </c>
       <c r="D244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E244">
         <v>29.90295108855826</v>
@@ -15163,7 +15163,7 @@
         <v>30.87702829185278</v>
       </c>
       <c r="D253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E253">
         <v>30.23709848968304</v>
@@ -15213,7 +15213,7 @@
         <v>31.04498617315463</v>
       </c>
       <c r="D254" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E254">
         <v>30.23709848968304</v>
@@ -15263,7 +15263,7 @@
         <v>31.11296745373323</v>
       </c>
       <c r="D255" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E255">
         <v>30.23709848968304</v>
@@ -15313,7 +15313,7 @@
         <v>31.02503297170814</v>
       </c>
       <c r="D256" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E256">
         <v>30.23709848968304</v>
@@ -15363,7 +15363,7 @@
         <v>30.92248579373715</v>
       </c>
       <c r="D257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E257">
         <v>30.02735823963244</v>
@@ -15413,7 +15413,7 @@
         <v>30.9897062023939</v>
       </c>
       <c r="D258" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E258">
         <v>30.02735823963244</v>
@@ -15463,7 +15463,7 @@
         <v>30.93790110022971</v>
       </c>
       <c r="D259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E259">
         <v>30.02735823963244</v>
@@ -15513,7 +15513,7 @@
         <v>30.90443477209526</v>
       </c>
       <c r="D260" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E260">
         <v>30.02735823963244</v>
@@ -15563,7 +15563,7 @@
         <v>31.43882616910724</v>
       </c>
       <c r="D261" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E261">
         <v>30.7992955833727</v>
@@ -15613,7 +15613,7 @@
         <v>31.50925366084082</v>
       </c>
       <c r="D262" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E262">
         <v>30.7992955833727</v>
@@ -15663,7 +15663,7 @@
         <v>31.45664678790742</v>
       </c>
       <c r="D263" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E263">
         <v>30.7992955833727</v>
@@ -15713,7 +15713,7 @@
         <v>31.54015056683987</v>
       </c>
       <c r="D264" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E264">
         <v>30.7992955833727</v>
@@ -15763,7 +15763,7 @@
         <v>12.30926352437064</v>
       </c>
       <c r="D265" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E265">
         <v>10.82949651847883</v>
@@ -15813,7 +15813,7 @@
         <v>12.1282833422603</v>
       </c>
       <c r="D266" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E266">
         <v>10.82949651847883</v>
@@ -15863,7 +15863,7 @@
         <v>12.17211033743973</v>
       </c>
       <c r="D267" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E267">
         <v>10.82949651847883</v>
@@ -15913,7 +15913,7 @@
         <v>3.672849857201112</v>
       </c>
       <c r="D268" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E268">
         <v>4.851646266829833</v>
@@ -15963,7 +15963,7 @@
         <v>3.641766625866962</v>
       </c>
       <c r="D269" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E269">
         <v>4.851646266829833</v>
@@ -16129,7 +16129,7 @@
         <v>17.93475158525539</v>
       </c>
       <c r="D274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E274">
         <v>18.49883283394886</v>
@@ -16179,7 +16179,7 @@
         <v>17.81169674587137</v>
       </c>
       <c r="D275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E275">
         <v>18.49883283394886</v>
@@ -16229,7 +16229,7 @@
         <v>17.97959654379486</v>
       </c>
       <c r="D276" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E276">
         <v>18.49883283394886</v>
@@ -16279,7 +16279,7 @@
         <v>18.82619492224793</v>
       </c>
       <c r="D277" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E277">
         <v>19.31656240392239</v>
@@ -16329,7 +16329,7 @@
         <v>18.72488260327837</v>
       </c>
       <c r="D278" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E278">
         <v>19.31656240392239</v>
@@ -16379,7 +16379,7 @@
         <v>18.9077303839868</v>
       </c>
       <c r="D279" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E279">
         <v>19.31656240392239</v>
@@ -16429,7 +16429,7 @@
         <v>19.55016259454382</v>
       </c>
       <c r="D280" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E280">
         <v>20.17240914892569</v>
@@ -16479,7 +16479,7 @@
         <v>19.46650802367904</v>
       </c>
       <c r="D281" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E281">
         <v>20.17240914892569</v>
@@ -16529,7 +16529,7 @@
         <v>19.6614955062095</v>
       </c>
       <c r="D282" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E282">
         <v>20.17240914892569</v>
@@ -16679,7 +16679,7 @@
         <v>19.87047574572412</v>
       </c>
       <c r="D285" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E285">
         <v>21.42190137761951</v>
@@ -16729,7 +16729,7 @@
         <v>19.9325227657463</v>
       </c>
       <c r="D286" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E286">
         <v>21.42190137761951</v>
@@ -16779,7 +16779,7 @@
         <v>16.82653059723147</v>
       </c>
       <c r="D287" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E287">
         <v>19.65939561629726</v>
@@ -16829,7 +16829,7 @@
         <v>12.98048146507161</v>
       </c>
       <c r="D288" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E288">
         <v>14.64383695170578</v>
@@ -16879,7 +16879,7 @@
         <v>16.25193324472011</v>
       </c>
       <c r="D289" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E289">
         <v>14.50145621030865</v>
@@ -16929,7 +16929,7 @@
         <v>16.21470388421206</v>
       </c>
       <c r="D290" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E290">
         <v>14.50145621030865</v>
@@ -16979,7 +16979,7 @@
         <v>11.11248726262157</v>
       </c>
       <c r="D291" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E291">
         <v>12.59583603520146</v>
@@ -17029,7 +17029,7 @@
         <v>13.83033348772577</v>
       </c>
       <c r="D292" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E292">
         <v>12.37873552570633</v>
@@ -17079,7 +17079,7 @@
         <v>13.76593330245482</v>
       </c>
       <c r="D293" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E293">
         <v>12.37873552570633</v>
@@ -17129,7 +17129,7 @@
         <v>11.09986659730954</v>
       </c>
       <c r="D294" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E294">
         <v>12.58199919668665</v>
@@ -17179,7 +17179,7 @@
         <v>13.81397251614855</v>
       </c>
       <c r="D295" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E295">
         <v>12.36439386057903</v>
@@ -17229,7 +17229,7 @@
         <v>13.74938875756397</v>
       </c>
       <c r="D296" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E296">
         <v>12.36439386057903</v>
@@ -17279,7 +17279,7 @@
         <v>12.34030324400563</v>
       </c>
       <c r="D297" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E297">
         <v>11.08728490832157</v>
@@ -17329,7 +17329,7 @@
         <v>12.37463328631875</v>
       </c>
       <c r="D298" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E298">
         <v>11.07426657263751</v>
@@ -17379,7 +17379,7 @@
         <v>12.29389985895626</v>
       </c>
       <c r="D299" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E299">
         <v>11.07426657263751</v>
@@ -17429,7 +17429,7 @@
         <v>11.05047915370254</v>
       </c>
       <c r="D300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E300">
         <v>9.674103298070932</v>
@@ -17479,7 +17479,7 @@
         <v>11.40622153080273</v>
       </c>
       <c r="D301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E301">
         <v>9.674103298070932</v>
@@ -17529,7 +17529,7 @@
         <v>11.05008587429993</v>
       </c>
       <c r="D302" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E302">
         <v>9.674103298070932</v>
@@ -17579,7 +17579,7 @@
         <v>10.3338731496912</v>
       </c>
       <c r="D303" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E303">
         <v>8.437749730418576</v>
@@ -17629,7 +17629,7 @@
         <v>10.17387216939515</v>
       </c>
       <c r="D304" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E304">
         <v>8.437749730418576</v>
@@ -17679,7 +17679,7 @@
         <v>11.00487534095804</v>
       </c>
       <c r="D305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E305">
         <v>12.47785423745036</v>
@@ -17729,7 +17729,7 @@
         <v>10.9487371393023</v>
       </c>
       <c r="D306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E306">
         <v>12.47785423745036</v>
@@ -17779,7 +17779,7 @@
         <v>13.69082930564197</v>
       </c>
       <c r="D307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E307">
         <v>12.18557017753745</v>
@@ -17829,7 +17829,7 @@
         <v>13.6248638560559</v>
       </c>
       <c r="D308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E308">
         <v>12.18557017753745</v>
@@ -17879,7 +17879,7 @@
         <v>10.64653563584566</v>
       </c>
       <c r="D309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E309">
         <v>12.08498361529988</v>
@@ -17929,7 +17929,7 @@
         <v>10.61124628976009</v>
       </c>
       <c r="D310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E310">
         <v>12.08498361529988</v>
@@ -17979,7 +17979,7 @@
         <v>13.22629074246901</v>
       </c>
       <c r="D311" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E311">
         <v>11.76012321855857</v>
@@ -18029,7 +18029,7 @@
         <v>13.1551130789904</v>
       </c>
       <c r="D312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E312">
         <v>11.76012321855857</v>
@@ -18079,7 +18079,7 @@
         <v>22.77333546940084</v>
       </c>
       <c r="D313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E313">
         <v>21.42331944889459</v>
@@ -18129,7 +18129,7 @@
         <v>22.75230374879847</v>
       </c>
       <c r="D314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E314">
         <v>21.42331944889459</v>
@@ -18179,7 +18179,7 @@
         <v>24.39117803776208</v>
       </c>
       <c r="D315" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E315">
         <v>23.48707575582069</v>
@@ -18229,7 +18229,7 @@
         <v>24.38940634773544</v>
       </c>
       <c r="D316" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E316">
         <v>23.48707575582069</v>
@@ -18279,7 +18279,7 @@
         <v>24.81922596333553</v>
       </c>
       <c r="D317" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E317">
         <v>23.34859984144653</v>
@@ -18329,7 +18329,7 @@
         <v>24.82255008194667</v>
       </c>
       <c r="D318" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E318">
         <v>23.34859984144653</v>
@@ -18379,7 +18379,7 @@
         <v>24.92570212430536</v>
       </c>
       <c r="D319" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E319">
         <v>23.37720283372088</v>
@@ -18429,7 +18429,7 @@
         <v>24.93029381626138</v>
       </c>
       <c r="D320" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E320">
         <v>23.37720283372088</v>
@@ -18479,7 +18479,7 @@
         <v>24.12654815952769</v>
       </c>
       <c r="D321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E321">
         <v>22.84958822927515</v>
@@ -18529,7 +18529,7 @@
         <v>24.12162611380778</v>
       </c>
       <c r="D322" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E322">
         <v>22.84958822927515</v>
@@ -18579,7 +18579,7 @@
         <v>14.28107572919454</v>
       </c>
       <c r="D323" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E323">
         <v>12.56883810543216</v>
@@ -18615,7 +18615,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18629,7 +18629,7 @@
         <v>14.56464971902596</v>
       </c>
       <c r="D324" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E324">
         <v>12.56883810543216</v>
@@ -18665,7 +18665,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18679,7 +18679,7 @@
         <v>14.15894567835162</v>
       </c>
       <c r="D325" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E325">
         <v>12.56883810543216</v>
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -18729,7 +18729,7 @@
         <v>12.14012893514471</v>
       </c>
       <c r="D326" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E326">
         <v>10.61649852895339</v>
@@ -18779,7 +18779,7 @@
         <v>12.41860543260935</v>
       </c>
       <c r="D327" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E327">
         <v>10.61649852895339</v>
@@ -18829,7 +18829,7 @@
         <v>11.99251142246787</v>
       </c>
       <c r="D328" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E328">
         <v>10.61649852895339</v>
@@ -18879,7 +18879,7 @@
         <v>10.82186471285375</v>
       </c>
       <c r="D329" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E329">
         <v>9.535056289485677</v>
@@ -18929,7 +18929,7 @@
         <v>8.454205749277214</v>
       </c>
       <c r="D330" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E330">
         <v>9.665696245492217</v>
@@ -18979,7 +18979,7 @@
         <v>10.8736414569385</v>
       </c>
       <c r="D331" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E331">
         <v>9.461582566684397</v>
@@ -19029,7 +19029,7 @@
         <v>11.14910250802645</v>
       </c>
       <c r="D332" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E332">
         <v>9.461582566684397</v>
@@ -19079,7 +19079,7 @@
         <v>9.039431752408143</v>
       </c>
       <c r="D333" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E333">
         <v>7.745123611113929</v>
@@ -19129,7 +19129,7 @@
         <v>8.921276708956903</v>
       </c>
       <c r="D334" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E334">
         <v>7.745123611113929</v>
@@ -19179,7 +19179,7 @@
         <v>6.669736002485826</v>
       </c>
       <c r="D335" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E335">
         <v>7.905575122209786</v>
@@ -19229,7 +19229,7 @@
         <v>9.044181676756882</v>
       </c>
       <c r="D336" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E336">
         <v>7.546654589543672</v>
@@ -19279,7 +19279,7 @@
         <v>7.347418374490837</v>
       </c>
       <c r="D337" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E337">
         <v>6.018848491598781</v>
@@ -19329,7 +19329,7 @@
         <v>7.210278608706723</v>
       </c>
       <c r="D338" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E338">
         <v>6.018848491598781</v>
@@ -19379,7 +19379,7 @@
         <v>7.185974732688392</v>
       </c>
       <c r="D339" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E339">
         <v>5.983130728105908</v>
@@ -19429,7 +19429,7 @@
         <v>4.877426489307537</v>
       </c>
       <c r="D340" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E340">
         <v>6.04744542387984</v>
@@ -19479,7 +19479,7 @@
         <v>11.19324701084231</v>
       </c>
       <c r="D341" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E341">
         <v>9.422808526760342</v>
@@ -19529,7 +19529,7 @@
         <v>11.46946902753479</v>
       </c>
       <c r="D342" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E342">
         <v>9.422808526760342</v>
@@ -19579,7 +19579,7 @@
         <v>11.03435709430472</v>
       </c>
       <c r="D343" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E343">
         <v>9.422808526760342</v>
@@ -19629,7 +19629,7 @@
         <v>10.69112659191192</v>
       </c>
       <c r="D344" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E344">
         <v>8.985305343461279</v>
@@ -19679,7 +19679,7 @@
         <v>10.96615308379743</v>
       </c>
       <c r="D345" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E345">
         <v>8.985305343461279</v>
@@ -19729,7 +19729,7 @@
         <v>10.52625905133944</v>
       </c>
       <c r="D346" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E346">
         <v>8.985305343461279</v>
@@ -19779,7 +19779,7 @@
         <v>10.24112719682176</v>
       </c>
       <c r="D347" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E347">
         <v>8.568520189437294</v>
@@ -19829,7 +19829,7 @@
         <v>10.5150822615761</v>
       </c>
       <c r="D348" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E348">
         <v>8.568520189437294</v>
@@ -19879,7 +19879,7 @@
         <v>10.07090252059345</v>
       </c>
       <c r="D349" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E349">
         <v>8.568520189437294</v>
@@ -19929,7 +19929,7 @@
         <v>10.77354288321771</v>
       </c>
       <c r="D350" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E350">
         <v>9.06163852755164</v>
@@ -19979,7 +19979,7 @@
         <v>11.04876560436823</v>
       </c>
       <c r="D351" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E351">
         <v>9.06163852755164</v>
@@ -20029,7 +20029,7 @@
         <v>10.6096564889703</v>
       </c>
       <c r="D352" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E352">
         <v>9.06163852755164</v>
@@ -20079,7 +20079,7 @@
         <v>1.481289391936341</v>
       </c>
       <c r="D353" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E353">
         <v>2.665716810048217</v>
@@ -20129,7 +20129,7 @@
         <v>1.472186818078193</v>
       </c>
       <c r="D354" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E354">
         <v>2.6575601176841</v>
@@ -20179,7 +20179,7 @@
         <v>1.619645102105073</v>
       </c>
       <c r="D355" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E355">
         <v>2.789695476110346</v>
@@ -20229,7 +20229,7 @@
         <v>1.685839922107469</v>
       </c>
       <c r="D356" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E356">
         <v>2.849011752063911</v>
@@ -20279,7 +20279,7 @@
         <v>4.451109702443889</v>
       </c>
       <c r="D357" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E357">
         <v>3.216166029086173</v>
@@ -20329,7 +20329,7 @@
         <v>2.199071451922413</v>
       </c>
       <c r="D358" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E358">
         <v>3.519518698980326</v>
@@ -20379,7 +20379,7 @@
         <v>2.162311468532003</v>
       </c>
       <c r="D359" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E359">
         <v>3.519518698980326</v>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="P360" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -20515,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="P361" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -20529,7 +20529,7 @@
         <v>0.8686647591253642</v>
       </c>
       <c r="D362" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E362">
         <v>0.860103968608299</v>
@@ -20579,7 +20579,7 @@
         <v>0.7543843638668317</v>
       </c>
       <c r="D363" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E363">
         <v>0.860103968608299</v>
@@ -20729,7 +20729,7 @@
         <v>0.9286942312192004</v>
       </c>
       <c r="D366" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E366">
         <v>0.8409608344843775</v>
@@ -20779,7 +20779,7 @@
         <v>0.8139958034251951</v>
       </c>
       <c r="D367" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E367">
         <v>0.8409608344843775</v>
@@ -20929,7 +20929,7 @@
         <v>1.013101108451544</v>
       </c>
       <c r="D370" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E370">
         <v>0.7517873212748158</v>
@@ -20979,7 +20979,7 @@
         <v>0.9355585836670581</v>
       </c>
       <c r="D371" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E371">
         <v>0.7517873212748158</v>
@@ -21065,7 +21065,7 @@
         <v>0</v>
       </c>
       <c r="P372" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="P373" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="P374" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -21179,7 +21179,7 @@
         <v>0.8673578527436003</v>
       </c>
       <c r="D375" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E375">
         <v>0.3023966570576064</v>
@@ -21215,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="P375" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -21229,7 +21229,7 @@
         <v>0.8514665048228167</v>
       </c>
       <c r="D376" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E376">
         <v>0.3023966570576064</v>
@@ -21265,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="P376" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -21279,7 +21279,7 @@
         <v>0.8445673960392321</v>
       </c>
       <c r="D377" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E377">
         <v>0.3023966570576064</v>
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="P377" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -21329,7 +21329,7 @@
         <v>0.6525985963056158</v>
       </c>
       <c r="D378" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E378">
         <v>0.1174276255749707</v>
@@ -21365,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="P378" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -21379,7 +21379,7 @@
         <v>0.6242685737907268</v>
       </c>
       <c r="D379" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E379">
         <v>0.1174276255749707</v>
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="P379" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -21429,7 +21429,7 @@
         <v>-0.9102225257458549</v>
       </c>
       <c r="D380" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E380">
         <v>-1.075571335009769</v>
@@ -21479,7 +21479,7 @@
         <v>-1.563685062784286</v>
       </c>
       <c r="D381" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E381">
         <v>-1.740100543198235</v>
@@ -21529,7 +21529,7 @@
         <v>-8.992942294419821</v>
       </c>
       <c r="D382" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E382">
         <v>-9.892615569253142</v>
@@ -21579,7 +21579,7 @@
         <v>-9.303087300356635</v>
       </c>
       <c r="D383" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E383">
         <v>-9.641671576988671</v>
@@ -21629,7 +21629,7 @@
         <v>2.704349965887713</v>
       </c>
       <c r="D384" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E384">
         <v>3.248883265764413</v>
@@ -21679,7 +21679,7 @@
         <v>2.566429466669923</v>
       </c>
       <c r="D385" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E385">
         <v>3.043097976387332</v>
@@ -21729,7 +21729,7 @@
         <v>2.442351727418357</v>
       </c>
       <c r="D386" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E386">
         <v>2.666099189187711</v>
@@ -21779,7 +21779,7 @@
         <v>2.325614388860632</v>
       </c>
       <c r="D387" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E387">
         <v>2.532703168903722</v>
@@ -21829,7 +21829,7 @@
         <v>2.286408240149923</v>
       </c>
       <c r="D388" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E388">
         <v>2.505597337274736</v>
@@ -21879,7 +21879,7 @@
         <v>4.037351120112633</v>
       </c>
       <c r="D389" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E389">
         <v>2.967474873478931</v>
@@ -21929,7 +21929,7 @@
         <v>2.221099676849858</v>
       </c>
       <c r="D390" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E390">
         <v>2.608388959048743</v>
@@ -21979,7 +21979,7 @@
         <v>3.983288677825529</v>
       </c>
       <c r="D391" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E391">
         <v>2.92605218898195</v>
@@ -22029,7 +22029,7 @@
         <v>2.191313812840089</v>
       </c>
       <c r="D392" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E392">
         <v>2.469805205493745</v>
@@ -22079,7 +22079,7 @@
         <v>4.021364287116111</v>
       </c>
       <c r="D393" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E393">
         <v>2.955225749848812</v>
@@ -22129,7 +22129,7 @@
         <v>2.212291683473375</v>
       </c>
       <c r="D394" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E394">
         <v>2.655220650635147</v>
@@ -22179,7 +22179,7 @@
         <v>3.994112457367366</v>
       </c>
       <c r="D395" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E395">
         <v>2.934345377118833</v>
@@ -22229,7 +22229,7 @@
         <v>3.945278974396114</v>
       </c>
       <c r="D396" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E396">
         <v>2.896929125236159</v>
@@ -22279,7 +22279,7 @@
         <v>3.929007440665544</v>
       </c>
       <c r="D397" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E397">
         <v>2.884461863686562</v>
@@ -22329,7 +22329,7 @@
         <v>3.883709223208057</v>
       </c>
       <c r="D398" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E398">
         <v>2.84975433493578</v>
@@ -22379,7 +22379,7 @@
         <v>3.864961919342797</v>
       </c>
       <c r="D399" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E399">
         <v>2.84975433493578</v>
@@ -22429,7 +22429,7 @@
         <v>4.054344032072001</v>
       </c>
       <c r="D400" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E400">
         <v>2.980494855577405</v>
@@ -22479,7 +22479,7 @@
         <v>4.794072439251951</v>
       </c>
       <c r="D401" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E401">
         <v>3.547275325119348</v>
@@ -22529,7 +22529,7 @@
         <v>4.730459228894799</v>
       </c>
       <c r="D402" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E402">
         <v>3.498534834845698</v>
@@ -22579,7 +22579,7 @@
         <v>3.762123829211648</v>
       </c>
       <c r="D403" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E403">
         <v>2.756595513360387</v>
@@ -22629,7 +22629,7 @@
         <v>3.765623408110661</v>
       </c>
       <c r="D404" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E404">
         <v>2.756595513360387</v>
@@ -22679,7 +22679,7 @@
         <v>3.754379833414272</v>
       </c>
       <c r="D405" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E405">
         <v>2.750662057876502</v>
@@ -22729,7 +22729,7 @@
         <v>3.759296356906451</v>
       </c>
       <c r="D406" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E406">
         <v>2.750662057876502</v>
@@ -22779,7 +22779,7 @@
         <v>3.914022793524269</v>
       </c>
       <c r="D407" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E407">
         <v>2.872980615622788</v>
@@ -22829,7 +22829,7 @@
         <v>3.889728915166589</v>
       </c>
       <c r="D408" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E408">
         <v>2.872980615622788</v>
@@ -22879,7 +22879,7 @@
         <v>4.041334290579259</v>
       </c>
       <c r="D409" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E409">
         <v>3.015154863482572</v>
@@ -22929,7 +22929,7 @@
         <v>4.990500106306643</v>
       </c>
       <c r="D410" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E410">
         <v>3.864084334387541</v>
@@ -22979,7 +22979,7 @@
         <v>5.009619289340102</v>
       </c>
       <c r="D411" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E411">
         <v>3.864084334387541</v>
@@ -23029,7 +23029,7 @@
         <v>4.966306276078347</v>
       </c>
       <c r="D412" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E412">
         <v>3.864084334387541</v>
@@ -23079,7 +23079,7 @@
         <v>2.934917714582456</v>
       </c>
       <c r="D413" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E413">
         <v>3.779619171631928</v>
@@ -23129,7 +23129,7 @@
         <v>4.377639931347183</v>
       </c>
       <c r="D414" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E414">
         <v>3.587239729828965</v>
@@ -23179,7 +23179,7 @@
         <v>2.849469528908471</v>
       </c>
       <c r="D415" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E415">
         <v>3.649469528908471</v>
@@ -23229,7 +23229,7 @@
         <v>4.116035322310459</v>
       </c>
       <c r="D416" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E416">
         <v>3.352948111510939</v>
@@ -23279,7 +23279,7 @@
         <v>2.663484071288532</v>
       </c>
       <c r="D417" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E417">
         <v>3.463484071288532</v>
@@ -23329,7 +23329,7 @@
         <v>3.991386899127343</v>
       </c>
       <c r="D418" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E418">
         <v>3.206693961642748</v>
@@ -23379,7 +23379,7 @@
         <v>2.556357655021442</v>
       </c>
       <c r="D419" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E419">
         <v>3.268954525898531</v>
@@ -23429,7 +23429,7 @@
         <v>3.950853926460577</v>
       </c>
       <c r="D420" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E420">
         <v>3.22991080613321</v>
@@ -23479,7 +23479,7 @@
         <v>3.677962479860341</v>
       </c>
       <c r="D421" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E421">
         <v>2.929636476637995</v>
@@ -23529,7 +23529,7 @@
         <v>3.613082051058744</v>
       </c>
       <c r="D422" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E422">
         <v>2.929636476637995</v>
@@ -23579,7 +23579,7 @@
         <v>2.269307678604655</v>
       </c>
       <c r="D423" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E423">
         <v>3.006752611723165</v>
@@ -23629,7 +23629,7 @@
         <v>3.644235294583373</v>
       </c>
       <c r="D424" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E424">
         <v>2.915172989299756</v>
@@ -23679,7 +23679,7 @@
         <v>3.406419516932325</v>
       </c>
       <c r="D425" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E425">
         <v>2.614646639641496</v>
@@ -23729,7 +23729,7 @@
         <v>3.338435739982979</v>
       </c>
       <c r="D426" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E426">
         <v>2.614646639641496</v>
@@ -23779,7 +23779,7 @@
         <v>3.378588693136079</v>
       </c>
       <c r="D427" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E427">
         <v>2.642492132050898</v>
@@ -23858,7 +23858,7 @@
         <v>3.054951482972472</v>
       </c>
       <c r="D429" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E429">
         <v>2.206943720248067</v>
@@ -23908,7 +23908,7 @@
         <v>2.982950928492157</v>
       </c>
       <c r="D430" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E430">
         <v>2.206943720248067</v>
@@ -23958,7 +23958,7 @@
         <v>3.034752536485069</v>
       </c>
       <c r="D431" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E431">
         <v>2.289551279663024</v>
@@ -24008,7 +24008,7 @@
         <v>1.564348174573261</v>
       </c>
       <c r="D432" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E432">
         <v>1.598351131801605</v>
@@ -24058,7 +24058,7 @@
         <v>2.782749178532314</v>
       </c>
       <c r="D433" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E433">
         <v>1.891189047097483</v>
@@ -24108,7 +24108,7 @@
         <v>2.707637740572683</v>
       </c>
       <c r="D434" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E434">
         <v>1.891189047097483</v>
@@ -24158,7 +24158,7 @@
         <v>2.768460910655612</v>
       </c>
       <c r="D435" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E435">
         <v>2.016208317947116</v>
@@ -24208,7 +24208,7 @@
         <v>1.393658557346271</v>
       </c>
       <c r="D436" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E436">
         <v>1.352223176341732</v>
@@ -24258,7 +24258,7 @@
         <v>2.719299833422411</v>
       </c>
       <c r="D437" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E437">
         <v>1.817587806769996</v>
@@ -24308,7 +24308,7 @@
         <v>2.643463260090095</v>
       </c>
       <c r="D438" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E438">
         <v>1.817587806769996</v>
@@ -24358,7 +24358,7 @@
         <v>2.706389322753809</v>
       </c>
       <c r="D439" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E439">
         <v>1.952493089867229</v>
@@ -24408,7 +24408,7 @@
         <v>1.326365994761139</v>
       </c>
       <c r="D440" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E440">
         <v>1.293600744979425</v>
@@ -24458,7 +24458,7 @@
         <v>2.499644372622322</v>
       </c>
       <c r="D441" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E441">
         <v>1.749770416366503</v>
@@ -24508,7 +24508,7 @@
         <v>2.491503523388237</v>
       </c>
       <c r="D442" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E442">
         <v>1.731917168088549</v>
@@ -24558,7 +24558,7 @@
         <v>1.093405688906874</v>
       </c>
       <c r="D443" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E443">
         <v>0.9905947052531445</v>
@@ -24608,7 +24608,7 @@
         <v>2.016221307481498</v>
       </c>
       <c r="D444" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E444">
         <v>1.204653360055326</v>
@@ -24658,7 +24658,7 @@
         <v>2.018577644804756</v>
       </c>
       <c r="D445" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E445">
         <v>1.246468330103325</v>
@@ -24708,7 +24708,7 @@
         <v>0.5807009981060913</v>
       </c>
       <c r="D446" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E446">
         <v>0.5667486361568557</v>
@@ -24758,7 +24758,7 @@
         <v>2.533883297051707</v>
       </c>
       <c r="D447" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E447">
         <v>0.6798981712543331</v>
@@ -24808,7 +24808,7 @@
         <v>3.008391295071473</v>
       </c>
       <c r="D448" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E448">
         <v>1.346850864092169</v>
@@ -24858,7 +24858,7 @@
         <v>3.000541416717553</v>
       </c>
       <c r="D449" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E449">
         <v>1.543531736053737</v>
@@ -24908,7 +24908,7 @@
         <v>3.517725890529973</v>
       </c>
       <c r="D450" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E450">
         <v>2.089678540399653</v>
@@ -24958,7 +24958,7 @@
         <v>3.468397046046916</v>
       </c>
       <c r="D451" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E451">
         <v>2.089678540399653</v>
@@ -25008,7 +25008,7 @@
         <v>3.493240660295394</v>
       </c>
       <c r="D452" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E452">
         <v>2.089678540399653</v>
@@ -25058,7 +25058,7 @@
         <v>3.488725021720243</v>
       </c>
       <c r="D453" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E453">
         <v>2.089678540399653</v>
@@ -25108,7 +25108,7 @@
         <v>3.676730701556901</v>
       </c>
       <c r="D454" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E454">
         <v>2.257587620844088</v>
@@ -25158,7 +25158,7 @@
         <v>3.668273156273836</v>
       </c>
       <c r="D455" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E455">
         <v>2.257587620844088</v>
@@ -25208,7 +25208,7 @@
         <v>3.664011925396327</v>
       </c>
       <c r="D456" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E456">
         <v>2.257587620844088</v>
@@ -25258,7 +25258,7 @@
         <v>1.496750001895624</v>
       </c>
       <c r="D457" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E457">
         <v>0.2556426326855359</v>
@@ -25308,7 +25308,7 @@
         <v>1.383150860552977</v>
       </c>
       <c r="D458" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E458">
         <v>0.2644370194725871</v>
@@ -25358,7 +25358,7 @@
         <v>1.363150860552977</v>
       </c>
       <c r="D459" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E459">
         <v>0.2644370194725871</v>
@@ -25408,7 +25408,7 @@
         <v>5.388024245189438</v>
       </c>
       <c r="D460" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E460">
         <v>4.806045804811206</v>
@@ -25458,7 +25458,7 @@
         <v>5.621523655375248</v>
       </c>
       <c r="D461" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E461">
         <v>5.18689370783045</v>
@@ -25508,7 +25508,7 @@
         <v>5.404349998772723</v>
       </c>
       <c r="D462" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E462">
         <v>5.18689370783045</v>
@@ -25558,7 +25558,7 @@
         <v>5.381981125945902</v>
       </c>
       <c r="D463" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E463">
         <v>5.18689370783045</v>
@@ -25608,7 +25608,7 @@
         <v>5.378872148208681</v>
       </c>
       <c r="D464" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E464">
         <v>5.18689370783045</v>
@@ -25658,7 +25658,7 @@
         <v>5.312092827120892</v>
       </c>
       <c r="D465" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E465">
         <v>4.729405693507354</v>
@@ -25694,7 +25694,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25708,7 +25708,7 @@
         <v>5.543263673819266</v>
       </c>
       <c r="D466" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E466">
         <v>5.091325074659881</v>
@@ -25744,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="P466" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25758,7 +25758,7 @@
         <v>5.327102436124321</v>
       </c>
       <c r="D467" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E467">
         <v>5.091325074659881</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="P467" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25808,7 +25808,7 @@
         <v>5.307467094347968</v>
       </c>
       <c r="D468" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E468">
         <v>5.091325074659881</v>
@@ -25844,7 +25844,7 @@
         <v>0</v>
       </c>
       <c r="P468" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25858,7 +25858,7 @@
         <v>5.303244455812409</v>
       </c>
       <c r="D469" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E469">
         <v>5.091325074659881</v>
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="P469" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25908,7 +25908,7 @@
         <v>5.095526192581801</v>
       </c>
       <c r="D470" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E470">
         <v>4.510817770379231</v>
@@ -25958,7 +25958,7 @@
         <v>5.320055662487643</v>
       </c>
       <c r="D471" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E471">
         <v>4.863418821203765</v>
@@ -26008,7 +26008,7 @@
         <v>5.106781979919886</v>
       </c>
       <c r="D472" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E472">
         <v>4.863418821203765</v>
@@ -26058,7 +26058,7 @@
         <v>5.094943036986941</v>
       </c>
       <c r="D473" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E473">
         <v>4.863418821203765</v>
@@ -26108,7 +26108,7 @@
         <v>5.087544087811474</v>
       </c>
       <c r="D474" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E474">
         <v>4.863418821203765</v>
@@ -26158,7 +26158,7 @@
         <v>3.567645196753011</v>
       </c>
       <c r="D475" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E475">
         <v>2.985592320301533</v>
@@ -26208,7 +26208,7 @@
         <v>3.550252260033961</v>
       </c>
       <c r="D476" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E476">
         <v>2.985592320301533</v>
@@ -26258,7 +26258,7 @@
         <v>3.727393329341669</v>
       </c>
       <c r="D477" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E477">
         <v>3.179194338381805</v>
@@ -26308,7 +26308,7 @@
         <v>3.57851421784666</v>
       </c>
       <c r="D478" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E478">
         <v>3.179194338381805</v>
@@ -26358,7 +26358,7 @@
         <v>3.548451250993825</v>
       </c>
       <c r="D479" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E479">
         <v>3.179194338381805</v>
@@ -26408,7 +26408,7 @@
         <v>2.630599906016932</v>
       </c>
       <c r="D480" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E480">
         <v>1.995846265614591</v>
@@ -26444,7 +26444,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -26458,7 +26458,7 @@
         <v>2.733791121194908</v>
       </c>
       <c r="D481" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E481">
         <v>2.181735976775225</v>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="P481" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -26508,7 +26508,7 @@
         <v>2.632471235704337</v>
       </c>
       <c r="D482" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E482">
         <v>2.181735976775225</v>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="P482" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -26558,7 +26558,7 @@
         <v>2.634158750659465</v>
       </c>
       <c r="D483" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E483">
         <v>2.181735976775225</v>
@@ -26594,7 +26594,7 @@
         <v>0</v>
       </c>
       <c r="P483" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -26608,7 +26608,7 @@
         <v>2.06899384761864</v>
       </c>
       <c r="D484" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E484">
         <v>1.402654681298151</v>
@@ -26658,7 +26658,7 @@
         <v>2.138288400835676</v>
       </c>
       <c r="D485" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E485">
         <v>1.577724437598353</v>
@@ -26708,7 +26708,7 @@
         <v>2.065472526539532</v>
       </c>
       <c r="D486" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E486">
         <v>1.577724437598353</v>
@@ -26758,7 +26758,7 @@
         <v>2.054063603918842</v>
       </c>
       <c r="D487" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E487">
         <v>1.577724437598353</v>
@@ -26808,7 +26808,7 @@
         <v>0.06496435172959636</v>
       </c>
       <c r="D488" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E488">
         <v>-0.8657795465690947</v>
@@ -26858,7 +26858,7 @@
         <v>0.5671574830323216</v>
       </c>
       <c r="D489" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E489">
         <v>-0.2710162528142552</v>
@@ -26908,7 +26908,7 @@
         <v>0.5288445547320473</v>
       </c>
       <c r="D490" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E490">
         <v>-0.2241148050155335</v>
@@ -26958,7 +26958,7 @@
         <v>0.9789352125023152</v>
       </c>
       <c r="D491" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E491">
         <v>0.2166652055902993</v>
@@ -27008,7 +27008,7 @@
         <v>0.9899597080095059</v>
       </c>
       <c r="D492" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E492">
         <v>0.262934122314566</v>
@@ -27058,7 +27058,7 @@
         <v>0.9941273721417661</v>
       </c>
       <c r="D493" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E493">
         <v>0.6336733707593636</v>
@@ -27108,7 +27108,7 @@
         <v>2.068847402597394</v>
       </c>
       <c r="D494" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E494">
         <v>1.40249999999999</v>
@@ -27158,7 +27158,7 @@
         <v>2.138133116883107</v>
       </c>
       <c r="D495" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E495">
         <v>1.596444805194795</v>
@@ -27208,7 +27208,7 @@
         <v>0.9629771161349145</v>
       </c>
       <c r="D496" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E496">
         <v>0.2344339909792641</v>
@@ -27258,7 +27258,7 @@
         <v>0.9655162013337284</v>
       </c>
       <c r="D497" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E497">
         <v>0.4718221312155739</v>
@@ -27308,7 +27308,7 @@
         <v>0.9488356069619979</v>
       </c>
       <c r="D498" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E498">
         <v>0.4718221312155739</v>
@@ -27358,7 +27358,7 @@
         <v>-0.1177224783374848</v>
       </c>
       <c r="D499" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E499">
         <v>-0.9070456904250532</v>
@@ -27408,7 +27408,7 @@
         <v>-0.1422410755231684</v>
       </c>
       <c r="D500" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E500">
         <v>-0.803966595061679</v>
@@ -27458,7 +27458,7 @@
         <v>1.932797034325053</v>
       </c>
       <c r="D501" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E501">
         <v>1.258797964924952</v>
@@ -27508,7 +27508,7 @@
         <v>1.993871203749335</v>
       </c>
       <c r="D502" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E502">
         <v>1.348846790807875</v>
@@ -27558,7 +27558,7 @@
         <v>1.927967924915279</v>
       </c>
       <c r="D503" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E503">
         <v>1.348846790807875</v>
@@ -27608,7 +27608,7 @@
         <v>4.410681517252122</v>
       </c>
       <c r="D504" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E504">
         <v>3.762530570916739</v>
@@ -27658,7 +27658,7 @@
         <v>4.205764449089497</v>
       </c>
       <c r="D505" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E505">
         <v>3.55787859598589</v>
@@ -27708,7 +27708,7 @@
         <v>3.971739268886699</v>
       </c>
       <c r="D506" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E506">
         <v>3.324156165045967</v>
@@ -27758,7 +27758,7 @@
         <v>3.595870934024084</v>
       </c>
       <c r="D507" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E507">
         <v>2.948774076412152</v>
@@ -27808,7 +27808,7 @@
         <v>5.108132243857208</v>
       </c>
       <c r="D508" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E508">
         <v>5.74446859063514</v>
@@ -27858,7 +27858,7 @@
         <v>6.189856861381546</v>
       </c>
       <c r="D509" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E509">
         <v>5.539404265183124</v>
@@ -27908,7 +27908,7 @@
         <v>6.068456189151598</v>
       </c>
       <c r="D510" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E510">
         <v>5.539404265183124</v>
@@ -27958,7 +27958,7 @@
         <v>6.090266573945293</v>
       </c>
       <c r="D511" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E511">
         <v>5.539404265183124</v>
@@ -28008,7 +28008,7 @@
         <v>5.195838164944683</v>
       </c>
       <c r="D512" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E512">
         <v>5.807992386250505</v>
@@ -28058,7 +28058,7 @@
         <v>5.170452611680131</v>
       </c>
       <c r="D513" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E513">
         <v>5.807992386250505</v>
@@ -28108,7 +28108,7 @@
         <v>6.256303267349987</v>
       </c>
       <c r="D514" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E514">
         <v>5.605764712023531</v>
@@ -28158,7 +28158,7 @@
         <v>6.136535818552638</v>
       </c>
       <c r="D515" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E515">
         <v>5.605764712023531</v>
@@ -28208,7 +28208,7 @@
         <v>6.158690039858461</v>
       </c>
       <c r="D516" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E516">
         <v>5.605764712023531</v>
@@ -28258,7 +28258,7 @@
         <v>1.943224092116917</v>
       </c>
       <c r="D517" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E517">
         <v>1.872847652790079</v>
@@ -28366,7 +28366,7 @@
         <v>1.418290545698782</v>
       </c>
       <c r="D520" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E520">
         <v>1.673299212384915</v>
@@ -28416,7 +28416,7 @@
         <v>1.400115555815129</v>
       </c>
       <c r="D521" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E521">
         <v>1.673299212384915</v>
@@ -28553,7 +28553,7 @@
         <v>1.124156993720298</v>
       </c>
       <c r="D525" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E525">
         <v>1.146487210656552</v>
@@ -28603,7 +28603,7 @@
         <v>1.087509848398384</v>
       </c>
       <c r="D526" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E526">
         <v>1.146487210656552</v>
@@ -28653,7 +28653,7 @@
         <v>1.144697594608344</v>
       </c>
       <c r="D527" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E527">
         <v>1.146487210656552</v>
@@ -28703,7 +28703,7 @@
         <v>1.137404141523599</v>
       </c>
       <c r="D528" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E528">
         <v>1.372036265669894</v>
@@ -28753,7 +28753,7 @@
         <v>1.101588942682085</v>
       </c>
       <c r="D529" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E529">
         <v>1.372036265669894</v>
@@ -28803,7 +28803,7 @@
         <v>1.159128666249137</v>
       </c>
       <c r="D530" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E530">
         <v>1.372036265669894</v>
@@ -28853,7 +28853,7 @@
         <v>1.230508676039324</v>
       </c>
       <c r="D531" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E531">
         <v>1.50053324976103</v>
@@ -28903,7 +28903,7 @@
         <v>1.200540621877542</v>
       </c>
       <c r="D532" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E532">
         <v>1.50053324976103</v>
@@ -28953,7 +28953,7 @@
         <v>1.26055413742448</v>
       </c>
       <c r="D533" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E533">
         <v>1.50053324976103</v>
@@ -29003,7 +29003,7 @@
         <v>7.627122149092287</v>
       </c>
       <c r="D534" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E534">
         <v>7.400788411445393</v>
@@ -29053,7 +29053,7 @@
         <v>7.648314410133031</v>
       </c>
       <c r="D535" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E535">
         <v>7.400788411445393</v>
@@ -29103,7 +29103,7 @@
         <v>7.830698932214516</v>
       </c>
       <c r="D536" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E536">
         <v>7.400788411445393</v>
@@ -29153,7 +29153,7 @@
         <v>7.579596150404649</v>
       </c>
       <c r="D537" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E537">
         <v>7.400788411445393</v>
@@ -29353,7 +29353,7 @@
         <v>3.230138044355237</v>
       </c>
       <c r="D541" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E541">
         <v>3.885523906041943</v>
@@ -29403,7 +29403,7 @@
         <v>3.162623826672178</v>
       </c>
       <c r="D542" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E542">
         <v>3.885523906041943</v>
@@ -29453,7 +29453,7 @@
         <v>4.538245272251412</v>
       </c>
       <c r="D543" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E543">
         <v>4.228480856143943</v>
@@ -29503,7 +29503,7 @@
         <v>4.829902460462707</v>
       </c>
       <c r="D544" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E544">
         <v>4.228480856143943</v>
@@ -29553,7 +29553,7 @@
         <v>4.512209529619354</v>
       </c>
       <c r="D545" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E545">
         <v>4.228480856143943</v>
@@ -29853,7 +29853,7 @@
         <v>11.69582631740779</v>
       </c>
       <c r="D551" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E551">
         <v>11.39824384672826</v>
@@ -30061,7 +30061,7 @@
         <v>11.82362338545207</v>
       </c>
       <c r="D556" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E556">
         <v>12.08667573079537</v>
@@ -30211,7 +30211,7 @@
         <v>8.450414997761346</v>
       </c>
       <c r="D559" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E559">
         <v>8.789851069107804</v>
@@ -30411,7 +30411,7 @@
         <v>5.614915814792543</v>
       </c>
       <c r="D563" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E563">
         <v>4.596852074564039</v>
@@ -30461,7 +30461,7 @@
         <v>5.634573060733612</v>
       </c>
       <c r="D564" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E564">
         <v>5.601270294648224</v>
@@ -30511,7 +30511,7 @@
         <v>3.405943101787696</v>
       </c>
       <c r="D565" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E565">
         <v>4.298641062945247</v>
@@ -30561,7 +30561,7 @@
         <v>3.343561878482228</v>
       </c>
       <c r="D566" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E566">
         <v>4.298641062945247</v>
@@ -30611,7 +30611,7 @@
         <v>5.015545757118881</v>
       </c>
       <c r="D567" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E567">
         <v>4.111022286250716</v>
@@ -30661,7 +30661,7 @@
         <v>4.891575155138152</v>
       </c>
       <c r="D568" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E568">
         <v>4.79562351922819</v>
@@ -30711,7 +30711,7 @@
         <v>4.891972499806966</v>
       </c>
       <c r="D569" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E569">
         <v>4.79562351922819</v>
@@ -30761,7 +30761,7 @@
         <v>5.905121663219273</v>
       </c>
       <c r="D570" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E570">
         <v>4.88438321471034</v>
@@ -30811,7 +30811,7 @@
         <v>5.994321324451541</v>
       </c>
       <c r="D571" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E571">
         <v>5.744621451489441</v>
@@ -30861,7 +30861,7 @@
         <v>6.911692377283152</v>
       </c>
       <c r="D572" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E572">
         <v>6.911992637768873</v>
@@ -30911,7 +30911,7 @@
         <v>6.922055029558113</v>
       </c>
       <c r="D573" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E573">
         <v>6.911992637768873</v>
@@ -30961,7 +30961,7 @@
         <v>7.619595717434034</v>
       </c>
       <c r="D574" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E574">
         <v>7.342425546488773</v>
@@ -31011,7 +31011,7 @@
         <v>7.352127956277902</v>
       </c>
       <c r="D575" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E575">
         <v>6.99424873329223</v>
@@ -31061,7 +31061,7 @@
         <v>2.271539049565446</v>
       </c>
       <c r="D576" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E576">
         <v>3.098596484121309</v>
@@ -31111,7 +31111,7 @@
         <v>2.261585046343058</v>
       </c>
       <c r="D577" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E577">
         <v>3.098596484121309</v>
@@ -31161,7 +31161,7 @@
         <v>2.16579190901001</v>
       </c>
       <c r="D578" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E578">
         <v>3.098596484121309</v>
@@ -31211,7 +31211,7 @@
         <v>3.807148199788047</v>
       </c>
       <c r="D579" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E579">
         <v>2.944389621454358</v>
@@ -31261,7 +31261,7 @@
         <v>2.243653673012564</v>
       </c>
       <c r="D580" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E580">
         <v>2.519308820012777</v>
@@ -31311,7 +31311,7 @@
         <v>2.23496396701299</v>
       </c>
       <c r="D581" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E581">
         <v>2.519308820012777</v>
@@ -31361,7 +31361,7 @@
         <v>3.069322055978581</v>
       </c>
       <c r="D582" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E582">
         <v>2.074720009379699</v>
@@ -31411,7 +31411,7 @@
         <v>3.066311822984176</v>
       </c>
       <c r="D583" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E583">
         <v>2.074720009379699</v>
@@ -31561,7 +31561,7 @@
         <v>0.4825025928230637</v>
       </c>
       <c r="D586" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E586">
         <v>1.208963101246858</v>
@@ -31611,7 +31611,7 @@
         <v>0.4166557768097885</v>
       </c>
       <c r="D587" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E587">
         <v>1.208963101246858</v>
@@ -31661,7 +31661,7 @@
         <v>-0.2665594660194195</v>
       </c>
       <c r="D588" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E588">
         <v>0.2554018338727051</v>
@@ -31711,7 +31711,7 @@
         <v>-0.3203246359223328</v>
       </c>
       <c r="D589" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E589">
         <v>0.2554018338727051</v>
@@ -31761,7 +31761,7 @@
         <v>-1.554469905761025</v>
       </c>
       <c r="D590" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E590">
         <v>-0.8079252978307263</v>
@@ -31811,7 +31811,7 @@
         <v>-1.587462326635847</v>
       </c>
       <c r="D591" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E591">
         <v>-0.8079252978307263</v>
@@ -31861,7 +31861,7 @@
         <v>0.1543914789672014</v>
       </c>
       <c r="D592" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E592">
         <v>-1.720922562540774</v>
@@ -31911,7 +31911,7 @@
         <v>-3.595012157100893</v>
       </c>
       <c r="D593" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E593">
         <v>-2.092107885522323</v>
@@ -31961,7 +31961,7 @@
         <v>-3.595092606179911</v>
       </c>
       <c r="D594" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E594">
         <v>-2.092107885522323</v>
@@ -32011,7 +32011,7 @@
         <v>2.530695827209048</v>
       </c>
       <c r="D595" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E595">
         <v>1.541058077649517</v>
@@ -32061,7 +32061,7 @@
         <v>0.8612773157568379</v>
       </c>
       <c r="D596" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E596">
         <v>1.702092379247894</v>
@@ -32111,7 +32111,7 @@
         <v>0.909828313994959</v>
       </c>
       <c r="D597" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E597">
         <v>1.702092379247894</v>
@@ -32161,7 +32161,7 @@
         <v>0.8593755009443722</v>
       </c>
       <c r="D598" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E598">
         <v>1.702092379247894</v>
@@ -32361,7 +32361,7 @@
         <v>-4.506994988394435</v>
       </c>
       <c r="D602" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E602">
         <v>-2.925640580790614</v>
@@ -32411,7 +32411,7 @@
         <v>-4.49236603696872</v>
       </c>
       <c r="D603" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E603">
         <v>-2.925640580790614</v>
@@ -32461,7 +32461,7 @@
         <v>-4.346398205219517</v>
       </c>
       <c r="D604" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E604">
         <v>-2.925640580790614</v>
@@ -32511,7 +32511,7 @@
         <v>6.806801528630419</v>
       </c>
       <c r="D605" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E605">
         <v>5.912915720755086</v>
@@ -32561,7 +32561,7 @@
         <v>6.983482136028456</v>
       </c>
       <c r="D606" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E606">
         <v>5.912915720755086</v>
@@ -32611,7 +32611,7 @@
         <v>7.095097737460335</v>
       </c>
       <c r="D607" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E607">
         <v>5.912915720755086</v>
@@ -32661,7 +32661,7 @@
         <v>10.68826570612589</v>
       </c>
       <c r="D608" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E608">
         <v>8.915190283697919</v>
@@ -32711,7 +32711,7 @@
         <v>10.70275460344058</v>
       </c>
       <c r="D609" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E609">
         <v>8.915190283697919</v>
@@ -32761,7 +32761,7 @@
         <v>10.83887902934827</v>
       </c>
       <c r="D610" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E610">
         <v>8.915190283697919</v>
@@ -32811,7 +32811,7 @@
         <v>14.0506743566992</v>
       </c>
       <c r="D611" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E611">
         <v>11.81158089322686</v>
@@ -32861,7 +32861,7 @@
         <v>14.03566844128956</v>
       </c>
       <c r="D612" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E612">
         <v>11.81158089322686</v>
@@ -32911,7 +32911,7 @@
         <v>14.23668145519077</v>
       </c>
       <c r="D613" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E613">
         <v>11.81158089322686</v>
@@ -32961,7 +32961,7 @@
         <v>14.72883397376441</v>
       </c>
       <c r="D614" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E614">
         <v>12.39574996687426</v>
@@ -33011,7 +33011,7 @@
         <v>14.70787928978402</v>
       </c>
       <c r="D615" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E615">
         <v>12.39574996687426</v>
@@ -33061,7 +33061,7 @@
         <v>14.92197959454088</v>
       </c>
       <c r="D616" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E616">
         <v>12.39574996687426</v>
@@ -33111,7 +33111,7 @@
         <v>3.097406370928056</v>
       </c>
       <c r="D617" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E617">
         <v>2.224313823342986</v>
@@ -33147,7 +33147,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -33161,7 +33161,7 @@
         <v>1.336115270566497</v>
       </c>
       <c r="D618" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E618">
         <v>1.589888280634169</v>
@@ -33197,7 +33197,7 @@
         <v>0</v>
       </c>
       <c r="P618" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -33211,7 +33211,7 @@
         <v>1.352838642440047</v>
       </c>
       <c r="D619" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E619">
         <v>1.589888280634169</v>
@@ -33247,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="P619" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -33261,7 +33261,7 @@
         <v>1.390214546954741</v>
       </c>
       <c r="D620" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E620">
         <v>1.589888280634169</v>
@@ -33297,7 +33297,7 @@
         <v>0</v>
       </c>
       <c r="P620" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -33311,7 +33311,7 @@
         <v>2.917358315784302</v>
       </c>
       <c r="D621" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E621">
         <v>2.025009154309881</v>
@@ -33347,7 +33347,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -33361,7 +33361,7 @@
         <v>1.183319387034638</v>
       </c>
       <c r="D622" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E622">
         <v>1.435784736121773</v>
@@ -33397,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="P622" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -33411,7 +33411,7 @@
         <v>1.202798596486919</v>
       </c>
       <c r="D623" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E623">
         <v>1.435784736121773</v>
@@ -33447,7 +33447,7 @@
         <v>0</v>
       </c>
       <c r="P623" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -33461,7 +33461,7 @@
         <v>1.238643480124541</v>
       </c>
       <c r="D624" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E624">
         <v>1.435784736121773</v>
@@ -33497,7 +33497,7 @@
         <v>0</v>
       </c>
       <c r="P624" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -33511,7 +33511,7 @@
         <v>2.792237236086098</v>
       </c>
       <c r="D625" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E625">
         <v>1.916698559809224</v>
@@ -33547,7 +33547,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -33561,7 +33561,7 @@
         <v>1.077136702052658</v>
       </c>
       <c r="D626" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E626">
         <v>1.478531030071749</v>
@@ -33597,7 +33597,7 @@
         <v>0</v>
       </c>
       <c r="P626" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33611,7 +33611,7 @@
         <v>1.098531030071749</v>
       </c>
       <c r="D627" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E627">
         <v>1.478531030071749</v>
@@ -33647,7 +33647,7 @@
         <v>0</v>
       </c>
       <c r="P627" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33661,7 +33661,7 @@
         <v>1.133311958950032</v>
       </c>
       <c r="D628" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E628">
         <v>1.478531030071749</v>
@@ -33697,7 +33697,7 @@
         <v>0</v>
       </c>
       <c r="P628" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33711,7 +33711,7 @@
         <v>2.644902850492054</v>
       </c>
       <c r="D629" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E629">
         <v>1.789159100170842</v>
@@ -33761,7 +33761,7 @@
         <v>0.9521029292441074</v>
       </c>
       <c r="D630" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E630">
         <v>1.357990587390637</v>
@@ -33811,7 +33811,7 @@
         <v>0.9757523754100452</v>
       </c>
       <c r="D631" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E631">
         <v>1.357990587390637</v>
@@ -33861,7 +33861,7 @@
         <v>1.009280460873414</v>
       </c>
       <c r="D632" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E632">
         <v>1.357990587390637</v>
@@ -33911,7 +33911,7 @@
         <v>0.7948874530266652</v>
       </c>
       <c r="D633" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E633">
         <v>1.149029112755323</v>
@@ -33961,7 +33961,7 @@
         <v>0.8213724488638601</v>
       </c>
       <c r="D634" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E634">
         <v>1.149029112755323</v>
@@ -34011,7 +34011,7 @@
         <v>0.8533252289543078</v>
       </c>
       <c r="D635" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E635">
         <v>1.149029112755323</v>
@@ -34061,7 +34061,7 @@
         <v>0.5824955105140877</v>
       </c>
       <c r="D636" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E636">
         <v>0.9029515392982903</v>
@@ -34111,7 +34111,7 @@
         <v>0.612811222749305</v>
       </c>
       <c r="D637" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E637">
         <v>0.9029515392982903</v>
@@ -34161,7 +34161,7 @@
         <v>0.5924604313768418</v>
       </c>
       <c r="D638" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E638">
         <v>0.9029515392982903</v>
@@ -34211,7 +34211,7 @@
         <v>0.4277812081771764</v>
       </c>
       <c r="D639" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E639">
         <v>1.288074808504859</v>
@@ -34261,7 +34261,7 @@
         <v>0.3798412074324427</v>
       </c>
       <c r="D640" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E640">
         <v>0.7164592072090219</v>
@@ -34311,7 +34311,7 @@
         <v>0.4138120072983904</v>
       </c>
       <c r="D641" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E641">
         <v>0.7164592072090219</v>
@@ -34361,7 +34361,7 @@
         <v>0.3894000074473372</v>
       </c>
       <c r="D642" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E642">
         <v>0.7164592072090219</v>
@@ -34411,7 +34411,7 @@
         <v>0.3591525411699568</v>
       </c>
       <c r="D643" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E643">
         <v>0.5591525411699569</v>
@@ -34461,7 +34461,7 @@
         <v>0.3934964833131849</v>
       </c>
       <c r="D644" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E644">
         <v>0.5591525411699569</v>
@@ -34511,7 +34511,7 @@
         <v>0.3686698809318214</v>
       </c>
       <c r="D645" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E645">
         <v>0.5591525411699569</v>
@@ -34561,7 +34561,7 @@
         <v>0.3106000805867941</v>
       </c>
       <c r="D646" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E646">
         <v>0.531180040345137</v>
@@ -34611,7 +34611,7 @@
         <v>0.3458197184118825</v>
       </c>
       <c r="D647" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E647">
         <v>0.531180040345137</v>
@@ -34661,7 +34661,7 @@
         <v>0.3200201208284517</v>
       </c>
       <c r="D648" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E648">
         <v>0.531180040345137</v>
@@ -34711,7 +34711,7 @@
         <v>6.479136159579005</v>
       </c>
       <c r="D649" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E649">
         <v>5.209308927663203</v>
@@ -34761,7 +34761,7 @@
         <v>6.530547245898488</v>
       </c>
       <c r="D650" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E650">
         <v>5.209308927663203</v>
@@ -34811,7 +34811,7 @@
         <v>6.585442855995626</v>
       </c>
       <c r="D651" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E651">
         <v>5.209308927663203</v>
@@ -34861,7 +34861,7 @@
         <v>6.55699925426021</v>
       </c>
       <c r="D652" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E652">
         <v>5.271599403408167</v>
@@ -34911,7 +34911,7 @@
         <v>6.607727330977226</v>
       </c>
       <c r="D653" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E653">
         <v>5.271599403408167</v>
@@ -34961,7 +34961,7 @@
         <v>6.664125562199791</v>
       </c>
       <c r="D654" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E654">
         <v>5.271599403408167</v>
@@ -35011,7 +35011,7 @@
         <v>4.826272992282671</v>
       </c>
       <c r="D655" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E655">
         <v>3.677236520372723</v>
@@ -35061,7 +35061,7 @@
         <v>4.889045650465904</v>
       </c>
       <c r="D656" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E656">
         <v>3.677236520372723</v>
@@ -35111,7 +35111,7 @@
         <v>4.978614552049756</v>
       </c>
       <c r="D657" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E657">
         <v>3.677236520372723</v>
@@ -35161,7 +35161,7 @@
         <v>5.497460142566075</v>
       </c>
       <c r="D658" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E658">
         <v>4.16396811405286</v>
@@ -35211,7 +35211,7 @@
         <v>5.593433407224666</v>
       </c>
       <c r="D659" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E659">
         <v>4.16396811405286</v>
@@ -35261,7 +35261,7 @@
         <v>6.507785526476989</v>
       </c>
       <c r="D660" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E660">
         <v>5.175444958581107</v>
@@ -35311,7 +35311,7 @@
         <v>6.614393795176747</v>
       </c>
       <c r="D661" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E661">
         <v>5.175444958581107</v>
@@ -35361,7 +35361,7 @@
         <v>8.205550779844607</v>
       </c>
       <c r="D662" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E662">
         <v>6.491894367376981</v>
@@ -35411,7 +35411,7 @@
         <v>6.930558178001144</v>
       </c>
       <c r="D663" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E663">
         <v>5.432328519625929</v>
@@ -35461,7 +35461,7 @@
         <v>5.744479674279537</v>
       </c>
       <c r="D664" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E664">
         <v>4.283546408804634</v>
@@ -35511,7 +35511,7 @@
         <v>5.430394614383861</v>
       </c>
       <c r="D665" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E665">
         <v>4.034895736387224</v>
@@ -35561,7 +35561,7 @@
         <v>1.40316194545078</v>
       </c>
       <c r="D666" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E666">
         <v>0.4321414572962814</v>
@@ -35640,7 +35640,7 @@
         <v>1.194555368742519</v>
       </c>
       <c r="D668" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E668">
         <v>0.2108920577572162</v>
@@ -35690,7 +35690,7 @@
         <v>-0.6466399936585523</v>
       </c>
       <c r="D669" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E669">
         <v>-0.567744364666467</v>
@@ -35740,7 +35740,7 @@
         <v>0.7942908088602918</v>
       </c>
       <c r="D670" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E670">
         <v>-0.1320636367093497</v>
@@ -35790,7 +35790,7 @@
         <v>-1.101904256203182</v>
       </c>
       <c r="D671" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E671">
         <v>-0.8673725878487186</v>
@@ -35840,7 +35840,7 @@
         <v>0.8471452009150369</v>
       </c>
       <c r="D672" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E672">
         <v>-0.0767791576635819</v>
@@ -35948,7 +35948,7 @@
         <v>0.5796651344902477</v>
       </c>
       <c r="D675" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E675">
         <v>-0.5032460435435118</v>
@@ -35998,7 +35998,7 @@
         <v>-1.399913238546875</v>
       </c>
       <c r="D676" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E676">
         <v>-1.270713111746067</v>
@@ -36048,7 +36048,7 @@
         <v>-1.313824258079625</v>
       </c>
       <c r="D677" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E677">
         <v>-1.270713111746067</v>
@@ -36098,7 +36098,7 @@
         <v>0.3782631451630634</v>
       </c>
       <c r="D678" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E678">
         <v>-0.7134449013700443</v>
@@ -36148,7 +36148,7 @@
         <v>-1.679561058210369</v>
       </c>
       <c r="D679" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E679">
         <v>-1.501241395993229</v>
@@ -36198,7 +36198,7 @@
         <v>-1.581434257691378</v>
       </c>
       <c r="D680" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E680">
         <v>-1.501241395993229</v>
@@ -36248,7 +36248,7 @@
         <v>0.2327199249799081</v>
       </c>
       <c r="D681" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E681">
         <v>-0.8653451817451074</v>
@@ -36298,7 +36298,7 @@
         <v>-1.881648655889967</v>
       </c>
       <c r="D682" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E682">
         <v>-1.715518442439937</v>
@@ -36348,7 +36348,7 @@
         <v>-1.774822720371524</v>
       </c>
       <c r="D683" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E683">
         <v>-1.715518442439937</v>
@@ -36398,7 +36398,7 @@
         <v>0.1786388401716703</v>
       </c>
       <c r="D684" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E684">
         <v>-0.921788428878302</v>
@@ -36535,7 +36535,7 @@
         <v>0.01472259810554899</v>
       </c>
       <c r="D688" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E688">
         <v>-1.092864230942714</v>
@@ -36735,7 +36735,7 @@
         <v>-0.04791798561819771</v>
       </c>
       <c r="D692" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E692">
         <v>-1.158240840162441</v>
@@ -36935,7 +36935,7 @@
         <v>-0.1660502190864985</v>
       </c>
       <c r="D696" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E696">
         <v>-1.281532872333955</v>
@@ -36985,7 +36985,7 @@
         <v>-2.43534329270861</v>
       </c>
       <c r="D697" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E697">
         <v>-2.344428791818692</v>
@@ -37035,7 +37035,7 @@
         <v>-2.304682819843669</v>
       </c>
       <c r="D698" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E698">
         <v>-2.344428791818692</v>
@@ -37085,7 +37085,7 @@
         <v>-2.309403389016196</v>
       </c>
       <c r="D699" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E699">
         <v>-2.344428791818692</v>
@@ -37135,7 +37135,7 @@
         <v>-0.3548802027145648</v>
       </c>
       <c r="D700" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E700">
         <v>-1.478610602373362</v>
@@ -37335,7 +37335,7 @@
         <v>-0.3297557183421791</v>
       </c>
       <c r="D704" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E704">
         <v>-1.452388726729538</v>
@@ -37485,7 +37485,7 @@
         <v>-0.3183966832425478</v>
       </c>
       <c r="D707" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E707">
         <v>-1.741685405911602</v>
@@ -37535,7 +37535,7 @@
         <v>-2.646877233743676</v>
       </c>
       <c r="D708" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E708">
         <v>-2.697862244323399</v>
@@ -37585,7 +37585,7 @@
         <v>-2.564105998731615</v>
       </c>
       <c r="D709" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E709">
         <v>-2.697862244323399</v>
@@ -37635,7 +37635,7 @@
         <v>-2.563354749613259</v>
       </c>
       <c r="D710" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E710">
         <v>-2.697862244323399</v>
@@ -37685,7 +37685,7 @@
         <v>-0.3839500539576761</v>
       </c>
       <c r="D711" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E711">
         <v>-1.816582015671185</v>
@@ -37885,7 +37885,7 @@
         <v>-0.1385788380032</v>
       </c>
       <c r="D715" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E715">
         <v>-1.640241684120258</v>
@@ -37935,7 +37935,7 @@
         <v>-2.523593515510334</v>
       </c>
       <c r="D716" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E716">
         <v>-3.055651664825109</v>
@@ -37985,7 +37985,7 @@
         <v>-2.620163266652375</v>
       </c>
       <c r="D717" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E717">
         <v>-3.055651664825109</v>
@@ -38035,7 +38035,7 @@
         <v>0.1709520228336512</v>
       </c>
       <c r="D718" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E718">
         <v>-1.0202978592856</v>
@@ -38085,7 +38085,7 @@
         <v>-2.198797246305705</v>
       </c>
       <c r="D719" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E719">
         <v>-2.324397208583866</v>
@@ -38135,7 +38135,7 @@
         <v>0.3009619664171579</v>
       </c>
       <c r="D720" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E720">
         <v>-0.8827115786634279</v>
@@ -38185,7 +38185,7 @@
         <v>-2.021814013082471</v>
       </c>
       <c r="D721" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E721">
         <v>-2.059136489311481</v>
@@ -38235,7 +38235,7 @@
         <v>0.2917572008311087</v>
       </c>
       <c r="D722" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E722">
         <v>-1.141693872230628</v>
@@ -38385,7 +38385,7 @@
         <v>0.2731734036471174</v>
       </c>
       <c r="D725" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E725">
         <v>-1.163223352884342</v>
@@ -38435,7 +38435,7 @@
         <v>-2.059642732564297</v>
       </c>
       <c r="D726" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E726">
         <v>-1.955948996501773</v>
@@ -38485,7 +38485,7 @@
         <v>-2.411782525790948</v>
       </c>
       <c r="D727" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E727">
         <v>-1.955948996501773</v>
@@ -38535,7 +38535,7 @@
         <v>0.2515785387733969</v>
       </c>
       <c r="D728" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E728">
         <v>-1.188241180022429</v>
@@ -38643,7 +38643,7 @@
         <v>0.2047287633651109</v>
       </c>
       <c r="D731" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E731">
         <v>-1.242517027057203</v>
@@ -38679,7 +38679,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -38693,7 +38693,7 @@
         <v>-2.509583375424678</v>
       </c>
       <c r="D732" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E732">
         <v>-2.342816788332809</v>
@@ -38729,7 +38729,7 @@
         <v>0</v>
       </c>
       <c r="P732" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -38743,7 +38743,7 @@
         <v>-2.352158142947527</v>
       </c>
       <c r="D733" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E733">
         <v>-2.342816788332809</v>
@@ -38779,7 +38779,7 @@
         <v>0</v>
       </c>
       <c r="P733" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -38793,7 +38793,7 @@
         <v>0.1276359260034488</v>
       </c>
       <c r="D734" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E734">
         <v>-1.331829708103231</v>
@@ -38993,7 +38993,7 @@
         <v>0.08451775677301665</v>
       </c>
       <c r="D738" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E738">
         <v>-1.381782458936622</v>
@@ -39029,7 +39029,7 @@
         <v>1</v>
       </c>
       <c r="P738" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -39079,7 +39079,7 @@
         <v>0</v>
       </c>
       <c r="P739" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -39129,7 +39129,7 @@
         <v>0</v>
       </c>
       <c r="P740" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -39179,7 +39179,7 @@
         <v>0</v>
       </c>
       <c r="P741" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -39193,7 +39193,7 @@
         <v>-0.01264291271609963</v>
       </c>
       <c r="D742" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E742">
         <v>-1.494343887225878</v>
@@ -39229,7 +39229,7 @@
         <v>1</v>
       </c>
       <c r="P742" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -39243,7 +39243,7 @@
         <v>-2.820186726095499</v>
       </c>
       <c r="D743" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E743">
         <v>-2.901407171020532</v>
@@ -39279,7 +39279,7 @@
         <v>0</v>
       </c>
       <c r="P743" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="744" spans="1:16">
@@ -39293,7 +39293,7 @@
         <v>-2.652627615945566</v>
       </c>
       <c r="D744" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E744">
         <v>-2.901407171020532</v>
@@ -39329,7 +39329,7 @@
         <v>0</v>
       </c>
       <c r="P744" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -39343,7 +39343,7 @@
         <v>-0.1626759624798382</v>
       </c>
       <c r="D745" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E745">
         <v>-1.66815839942303</v>
@@ -39393,7 +39393,7 @@
         <v>-3.034569615384943</v>
       </c>
       <c r="D746" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E746">
         <v>-2.969105225875582</v>
@@ -39443,7 +39443,7 @@
         <v>-2.860015957460476</v>
       </c>
       <c r="D747" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E747">
         <v>-2.969105225875582</v>
@@ -39493,7 +39493,7 @@
         <v>-0.2567324811534997</v>
       </c>
       <c r="D748" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E748">
         <v>-1.777123643667341</v>
@@ -39543,7 +39543,7 @@
         <v>-3.168967391485071</v>
       </c>
       <c r="D749" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E749">
         <v>-3.043771810228149</v>
@@ -39593,7 +39593,7 @@
         <v>-2.990028814275117</v>
       </c>
       <c r="D750" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E750">
         <v>-3.043771810228149</v>
@@ -39643,7 +39643,7 @@
         <v>-0.2221360820297491</v>
       </c>
       <c r="D751" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E751">
         <v>-1.737043433027472</v>
@@ -39693,7 +39693,7 @@
         <v>-3.119532443552999</v>
       </c>
       <c r="D752" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E752">
         <v>-3.117811337201129</v>
@@ -39743,7 +39743,7 @@
         <v>-2.942206752083081</v>
       </c>
       <c r="D753" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E753">
         <v>-3.117811337201129</v>
@@ -39793,7 +39793,7 @@
         <v>-0.1307561100271197</v>
       </c>
       <c r="D754" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E754">
         <v>-1.631178989938179</v>
@@ -39843,7 +39843,7 @@
         <v>-2.988959196845278</v>
       </c>
       <c r="D755" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E755">
         <v>-3.029514145118503</v>
@@ -39893,7 +39893,7 @@
         <v>-2.815893643930261</v>
       </c>
       <c r="D756" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E756">
         <v>-3.029514145118503</v>
@@ -39943,7 +39943,7 @@
         <v>-2.859820700410006</v>
       </c>
       <c r="D757" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E757">
         <v>-3.029514145118503</v>
@@ -39993,7 +39993,7 @@
         <v>0.03446589711696202</v>
       </c>
       <c r="D758" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E758">
         <v>-1.439767946696667</v>
@@ -40043,7 +40043,7 @@
         <v>-2.75287273908462</v>
       </c>
       <c r="D759" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E759">
         <v>-2.760292106701737</v>
@@ -40093,7 +40093,7 @@
         <v>-2.634132830511563</v>
       </c>
       <c r="D760" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E760">
         <v>-2.760292106701737</v>
@@ -40143,7 +40143,7 @@
         <v>0.1362319905698604</v>
       </c>
       <c r="D761" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E761">
         <v>-1.32187109717198</v>
@@ -40293,7 +40293,7 @@
         <v>1.493800784277204</v>
       </c>
       <c r="D764" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E764">
         <v>0.2508834260740569</v>
@@ -40543,7 +40543,7 @@
         <v>1.676306260024773</v>
       </c>
       <c r="D769" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E769">
         <v>0.4623175087000284</v>
@@ -40793,7 +40793,7 @@
         <v>1.638274062835363</v>
       </c>
       <c r="D774" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E774">
         <v>0.4182568979701049</v>
@@ -40843,7 +40843,7 @@
         <v>-0.7492645581114674</v>
       </c>
       <c r="D775" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E775">
         <v>-0.8319171702737558</v>
@@ -40893,7 +40893,7 @@
         <v>-0.7299975804087122</v>
       </c>
       <c r="D776" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E776">
         <v>-0.8319171702737558</v>
@@ -40943,7 +40943,7 @@
         <v>-0.707798513516976</v>
       </c>
       <c r="D777" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E777">
         <v>-0.8319171702737558</v>
@@ -40993,7 +40993,7 @@
         <v>1.658463026559823</v>
       </c>
       <c r="D778" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E778">
         <v>0.4110319552041446</v>
@@ -41043,7 +41043,7 @@
         <v>-0.757725155072813</v>
       </c>
       <c r="D779" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E779">
         <v>-0.8486091810203318</v>
@@ -41093,7 +41093,7 @@
         <v>-0.7383273433964286</v>
       </c>
       <c r="D780" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E780">
         <v>-0.8486091810203318</v>
@@ -41143,7 +41143,7 @@
         <v>-0.9021837978862193</v>
       </c>
       <c r="D781" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E781">
         <v>-0.8486091810203318</v>
@@ -41193,7 +41193,7 @@
         <v>1.939181818181815</v>
       </c>
       <c r="D782" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E782">
         <v>0.7266818181818149</v>
@@ -41243,7 +41243,7 @@
         <v>-0.5115909090909128</v>
       </c>
       <c r="D783" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E783">
         <v>-0.4442272727272769</v>
@@ -41293,7 +41293,7 @@
         <v>1.954851994851993</v>
       </c>
       <c r="D784" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E784">
         <v>0.7850150150150137</v>
@@ -41343,7 +41343,7 @@
         <v>-0.4394079794079815</v>
       </c>
       <c r="D785" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E785">
         <v>-0.2741570141570167</v>
@@ -41693,7 +41693,7 @@
         <v>0.9084254685542748</v>
       </c>
       <c r="D792" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E792">
         <v>1.920207747394294</v>
@@ -41843,7 +41843,7 @@
         <v>0.4244101549212997</v>
       </c>
       <c r="D795" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E795">
         <v>1.483219332694269</v>
@@ -42043,7 +42043,7 @@
         <v>0.4628238341968895</v>
       </c>
       <c r="D799" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E799">
         <v>1.517900741188224</v>
@@ -42693,7 +42693,7 @@
         <v>-3.918784322525775</v>
       </c>
       <c r="D812" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E812">
         <v>-2.523271496685147</v>
@@ -42843,7 +42843,7 @@
         <v>-3.877290805256739</v>
       </c>
       <c r="D815" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E815">
         <v>-2.485413363104335</v>
@@ -42943,7 +42943,7 @@
         <v>-2.338513702179719</v>
       </c>
       <c r="D817" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E817">
         <v>-1.081453589299923</v>
@@ -43043,7 +43043,7 @@
         <v>-0.002236685106849379</v>
       </c>
       <c r="D819" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E819">
         <v>0.9670897060418655</v>
@@ -43093,7 +43093,7 @@
         <v>2.452873400945021</v>
       </c>
       <c r="D820" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E820">
         <v>3.2577961853175</v>
@@ -43243,7 +43243,7 @@
         <v>6.865548610460008</v>
       </c>
       <c r="D823" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E823">
         <v>7.917913878500185</v>
@@ -43279,7 +43279,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -43293,7 +43293,7 @@
         <v>8.653531291706745</v>
       </c>
       <c r="D824" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E824">
         <v>7.73222687543624</v>
@@ -43329,7 +43329,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -43343,7 +43343,7 @@
         <v>8.702470439937079</v>
       </c>
       <c r="D825" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E825">
         <v>7.73222687543624</v>
@@ -43379,7 +43379,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -43393,7 +43393,7 @@
         <v>8.64586176481823</v>
       </c>
       <c r="D826" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E826">
         <v>7.73222687543624</v>
@@ -43429,7 +43429,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -43443,7 +43443,7 @@
         <v>6.663229213042085</v>
       </c>
       <c r="D827" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E827">
         <v>7.702530226798729</v>
@@ -43493,7 +43493,7 @@
         <v>8.432498232747548</v>
       </c>
       <c r="D828" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E828">
         <v>7.528848214157489</v>
@@ -43543,7 +43543,7 @@
         <v>8.476847237580964</v>
       </c>
       <c r="D829" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E829">
         <v>7.528848214157489</v>
@@ -43593,7 +43593,7 @@
         <v>8.414942243157983</v>
       </c>
       <c r="D830" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E830">
         <v>7.528848214157489</v>
@@ -43643,7 +43643,7 @@
         <v>6.860560372066322</v>
       </c>
       <c r="D831" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E831">
         <v>7.883883292699218</v>
@@ -43693,7 +43693,7 @@
         <v>8.618608100376573</v>
       </c>
       <c r="D832" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E832">
         <v>7.700093076384835</v>
@@ -43743,7 +43743,7 @@
         <v>8.666822006614426</v>
       </c>
       <c r="D833" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E833">
         <v>7.700093076384835</v>
@@ -43793,7 +43793,7 @@
         <v>8.609376513811949</v>
       </c>
       <c r="D834" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E834">
         <v>7.700093076384835</v>
@@ -43872,7 +43872,7 @@
         <v>6.483907925607438</v>
       </c>
       <c r="D836" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E836">
         <v>7.511629728831654</v>
@@ -43922,7 +43922,7 @@
         <v>8.236590508604287</v>
       </c>
       <c r="D837" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E837">
         <v>7.291068461701124</v>
@@ -43972,7 +43972,7 @@
         <v>8.276871142169552</v>
       </c>
       <c r="D838" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E838">
         <v>7.291068461701124</v>
@@ -44022,7 +44022,7 @@
         <v>8.210271873206397</v>
       </c>
       <c r="D839" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E839">
         <v>7.291068461701124</v>
@@ -44122,7 +44122,7 @@
         <v>7.200555403395522</v>
       </c>
       <c r="D841" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E841">
         <v>6.324543699014353</v>
@@ -44172,7 +44172,7 @@
         <v>7.219320930942075</v>
       </c>
       <c r="D842" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E842">
         <v>6.324543699014353</v>
@@ -44222,7 +44222,7 @@
         <v>5.362520290252014</v>
       </c>
       <c r="D843" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E843">
         <v>5.351000939540079</v>
@@ -44272,7 +44272,7 @@
         <v>5.199275239989129</v>
       </c>
       <c r="D844" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E844">
         <v>4.268529306570911</v>
@@ -44322,7 +44322,7 @@
         <v>5.176480636346732</v>
       </c>
       <c r="D845" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E845">
         <v>4.268529306570911</v>
@@ -44422,7 +44422,7 @@
         <v>4.953604947356505</v>
       </c>
       <c r="D847" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E847">
         <v>4.029923015962868</v>
@@ -44472,7 +44472,7 @@
         <v>4.925708564474133</v>
       </c>
       <c r="D848" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E848">
         <v>4.029923015962868</v>
@@ -44522,7 +44522,7 @@
         <v>3.252041067587458</v>
       </c>
       <c r="D849" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E849">
         <v>3.146776010415489</v>
@@ -44572,7 +44572,7 @@
         <v>4.166852711423074</v>
       </c>
       <c r="D850" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E850">
         <v>3.265793048794296</v>
@@ -44622,7 +44622,7 @@
         <v>4.122618023321637</v>
       </c>
       <c r="D851" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E851">
         <v>3.265793048794296</v>
@@ -44722,7 +44722,7 @@
         <v>2.073618633529775</v>
       </c>
       <c r="D853" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E853">
         <v>2.911421502371738</v>
@@ -44772,7 +44772,7 @@
         <v>3.614058691464334</v>
       </c>
       <c r="D854" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E854">
         <v>2.728894064553219</v>
@@ -44822,7 +44822,7 @@
         <v>3.628344255344584</v>
       </c>
       <c r="D855" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E855">
         <v>2.728894064553219</v>
@@ -44872,7 +44872,7 @@
         <v>1.936367679572951</v>
       </c>
       <c r="D856" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E856">
         <v>2.459334122487778</v>
@@ -44922,7 +44922,7 @@
         <v>1.222535744372862</v>
       </c>
       <c r="D857" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E857">
         <v>2.097506555606977</v>
@@ -44972,7 +44972,7 @@
         <v>2.780162199361649</v>
       </c>
       <c r="D858" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E858">
         <v>1.918975426856043</v>
@@ -45022,7 +45022,7 @@
         <v>2.777130423949031</v>
       </c>
       <c r="D859" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E859">
         <v>1.918975426856043</v>
@@ -45072,7 +45072,7 @@
         <v>1.25166672599343</v>
       </c>
       <c r="D860" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E860">
         <v>1.813758172261185</v>
@@ -45122,7 +45122,7 @@
         <v>0.3707224146462158</v>
       </c>
       <c r="D861" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E861">
         <v>1.186104651162792</v>
@@ -45158,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="P861" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -45172,7 +45172,7 @@
         <v>1.846385452746167</v>
       </c>
       <c r="D862" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E862">
         <v>1.012048490846118</v>
@@ -45208,7 +45208,7 @@
         <v>1</v>
       </c>
       <c r="P862" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -45222,7 +45222,7 @@
         <v>1.823962147451758</v>
       </c>
       <c r="D863" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E863">
         <v>1.012048490846118</v>
@@ -45258,7 +45258,7 @@
         <v>1</v>
       </c>
       <c r="P863" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -45272,7 +45272,7 @@
         <v>-0.3606145596906476</v>
       </c>
       <c r="D864" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E864">
         <v>0.4527091664565104</v>
@@ -45322,7 +45322,7 @@
         <v>1.094985168906343</v>
       </c>
       <c r="D865" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E865">
         <v>0.282253965966544</v>
@@ -45372,7 +45372,7 @@
         <v>1.075288635899654</v>
       </c>
       <c r="D866" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E866">
         <v>0.282253965966544</v>
@@ -45422,7 +45422,7 @@
         <v>-0.8815274546862035</v>
       </c>
       <c r="D867" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E867">
         <v>-0.0332111065851457</v>
@@ -45472,7 +45472,7 @@
         <v>0.5971355929258566</v>
       </c>
       <c r="D868" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E868">
         <v>-0.2012804464873463</v>
@@ -45522,7 +45522,7 @@
         <v>0.6226307193643263</v>
       </c>
       <c r="D869" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E869">
         <v>-0.2012804464873463</v>
@@ -45572,7 +45572,7 @@
         <v>7.366207869881469</v>
       </c>
       <c r="D870" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E870">
         <v>6.074584546450462</v>
@@ -45622,7 +45622,7 @@
         <v>7.36615714102425</v>
       </c>
       <c r="D871" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E871">
         <v>6.074584546450462</v>
@@ -45672,7 +45672,7 @@
         <v>7.38618250545286</v>
       </c>
       <c r="D872" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E872">
         <v>6.074584546450462</v>
@@ -45722,7 +45722,7 @@
         <v>4.943037316305282</v>
       </c>
       <c r="D873" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E873">
         <v>6.215446937023184</v>
@@ -45772,7 +45772,7 @@
         <v>4.942732943161968</v>
       </c>
       <c r="D874" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E874">
         <v>6.215446937023184</v>
@@ -45972,7 +45972,7 @@
         <v>-5.574025921195013</v>
       </c>
       <c r="D878" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E878">
         <v>-5.73023285141281</v>
@@ -46022,7 +46022,7 @@
         <v>-5.9325317506163</v>
       </c>
       <c r="D879" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E879">
         <v>-5.73023285141281</v>
@@ -46072,7 +46072,7 @@
         <v>-7.250691114097122</v>
       </c>
       <c r="D880" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E880">
         <v>-6.839230471600314</v>
@@ -46122,7 +46122,7 @@
         <v>-8.869504533208115</v>
       </c>
       <c r="D881" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E881">
         <v>-8.195830007490127</v>
@@ -46172,7 +46172,7 @@
         <v>-8.781168822041039</v>
       </c>
       <c r="D882" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E882">
         <v>-8.276663972448686</v>
@@ -46222,7 +46222,7 @@
         <v>-8.78059994222065</v>
       </c>
       <c r="D883" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E883">
         <v>-8.346346098289088</v>
@@ -46351,7 +46351,7 @@
         <v>-4.731712375410146</v>
       </c>
       <c r="D886" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E886">
         <v>-4.732762335169942</v>
@@ -46401,7 +46401,7 @@
         <v>-4.547066775416498</v>
       </c>
       <c r="D887" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E887">
         <v>-4.744968809944567</v>
@@ -46501,7 +46501,7 @@
         <v>-5.889863787679805</v>
       </c>
       <c r="D889" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E889">
         <v>-5.87368670737712</v>
@@ -46537,7 +46537,7 @@
         <v>0</v>
       </c>
       <c r="P889" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -46551,7 +46551,7 @@
         <v>-2.443866936276574</v>
       </c>
       <c r="D890" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E890">
         <v>-0.6034950992782306</v>
@@ -46601,7 +46601,7 @@
         <v>-2.923883947200808</v>
       </c>
       <c r="D891" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E891">
         <v>-0.9819162768223846</v>
@@ -46651,7 +46651,7 @@
         <v>-3.661508219006564</v>
       </c>
       <c r="D892" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E892">
         <v>-1.641639109455125</v>
@@ -46701,7 +46701,7 @@
         <v>-4.333299164176005</v>
       </c>
       <c r="D893" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E893">
         <v>-2.166152808952805</v>
@@ -46751,7 +46751,7 @@
         <v>-4.689586201223027</v>
       </c>
       <c r="D894" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E894">
         <v>-2.444330764801055</v>
@@ -46801,7 +46801,7 @@
         <v>-5.440480952505292</v>
       </c>
       <c r="D895" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E895">
         <v>-3.030606282148362</v>
@@ -46851,7 +46851,7 @@
         <v>-5.793642576493984</v>
       </c>
       <c r="D896" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E896">
         <v>-3.306344011647226</v>
@@ -46901,7 +46901,7 @@
         <v>-5.617403659409184</v>
       </c>
       <c r="D897" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E897">
         <v>-3.168742087923324</v>
@@ -46951,7 +46951,7 @@
         <v>-5.01575718700489</v>
       </c>
       <c r="D898" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E898">
         <v>-2.698995034469203</v>
@@ -47001,7 +47001,7 @@
         <v>6.142885663736195</v>
       </c>
       <c r="D899" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E899">
         <v>6.840214874562395</v>
@@ -47051,7 +47051,7 @@
         <v>6.323901596338089</v>
       </c>
       <c r="D900" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E900">
         <v>7.047303060831229</v>
@@ -47101,7 +47101,7 @@
         <v>7.046483185039962</v>
       </c>
       <c r="D901" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E901">
         <v>7.87396018700045</v>
@@ -47151,7 +47151,7 @@
         <v>7.357376123311906</v>
       </c>
       <c r="D902" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E902">
         <v>8.50894091304391</v>
@@ -47201,7 +47201,7 @@
         <v>9.098899729105645</v>
       </c>
       <c r="D903" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E903">
         <v>8.202599386239363</v>
@@ -47251,7 +47251,7 @@
         <v>7.937836170435078</v>
       </c>
       <c r="D904" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E904">
         <v>9.155738577769293</v>
@@ -47301,7 +47301,7 @@
         <v>7.929603668924532</v>
       </c>
       <c r="D905" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E905">
         <v>9.155738577769293</v>
@@ -47351,7 +47351,7 @@
         <v>9.904257015523415</v>
       </c>
       <c r="D906" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E906">
         <v>8.868235817898494</v>
@@ -47401,7 +47401,7 @@
         <v>8.17989310190703</v>
       </c>
       <c r="D907" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E907">
         <v>9.440674165673419</v>
@@ -47451,7 +47451,7 @@
         <v>8.181688673271751</v>
       </c>
       <c r="D908" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E908">
         <v>9.440674165673419</v>
@@ -47501,7 +47501,7 @@
         <v>10.25904331793802</v>
       </c>
       <c r="D909" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E909">
         <v>9.161470500595945</v>
@@ -47551,7 +47551,7 @@
         <v>8.224261743770271</v>
       </c>
       <c r="D910" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E910">
         <v>9.49290239552386</v>
@@ -47601,7 +47601,7 @@
         <v>8.227895444583609</v>
       </c>
       <c r="D911" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E911">
         <v>9.49290239552386</v>
@@ -47651,7 +47651,7 @@
         <v>10.32407507015471</v>
       </c>
       <c r="D912" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E912">
         <v>9.215219941024554</v>
@@ -47701,7 +47701,7 @@
         <v>8.155428791903482</v>
       </c>
       <c r="D913" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E913">
         <v>9.411876177897813</v>
@@ -47751,7 +47751,7 @@
         <v>8.156210841853769</v>
       </c>
       <c r="D914" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E914">
         <v>9.411876177897813</v>
@@ -47801,7 +47801,7 @@
         <v>10.22318562927567</v>
       </c>
       <c r="D915" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E915">
         <v>9.131833736477359</v>
@@ -47851,7 +47851,7 @@
         <v>8.175999727223129</v>
       </c>
       <c r="D916" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E916">
         <v>9.436091107474084</v>
@@ -47901,7 +47901,7 @@
         <v>8.17763400163666</v>
       </c>
       <c r="D917" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E917">
         <v>9.436091107474084</v>
@@ -47951,7 +47951,7 @@
         <v>10.25333674304419</v>
       </c>
       <c r="D918" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E918">
         <v>9.156753955264591</v>
@@ -48001,7 +48001,7 @@
         <v>8.09035467964155</v>
       </c>
       <c r="D919" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E919">
         <v>9.335274651463767</v>
@@ -48051,7 +48051,7 @@
         <v>8.088440802083841</v>
       </c>
       <c r="D920" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E920">
         <v>9.335274651463767</v>
@@ -48101,7 +48101,7 @@
         <v>10.12780557330318</v>
       </c>
       <c r="D921" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E921">
         <v>9.053001097622904</v>
@@ -48151,7 +48151,7 @@
         <v>7.984581043201469</v>
       </c>
       <c r="D922" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E922">
         <v>9.210763970854302</v>
@@ -48201,7 +48201,7 @@
         <v>7.978285114991245</v>
       </c>
       <c r="D923" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E923">
         <v>9.210763970854302</v>
@@ -48251,7 +48251,7 @@
         <v>9.972771643321011</v>
       </c>
       <c r="D924" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E924">
         <v>8.924863892335493</v>
@@ -48301,7 +48301,7 @@
         <v>7.891891697797908</v>
       </c>
       <c r="D925" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E925">
         <v>9.101655369979252</v>
@@ -48351,7 +48351,7 @@
         <v>7.944929531753866</v>
       </c>
       <c r="D926" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E926">
         <v>9.101655369979252</v>
@@ -48401,7 +48401,7 @@
         <v>7.881755782420964</v>
       </c>
       <c r="D927" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E927">
         <v>9.101655369979252</v>
@@ -48451,7 +48451,7 @@
         <v>9.836915545629505</v>
       </c>
       <c r="D928" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E928">
         <v>8.812577371046608</v>
@@ -48501,7 +48501,7 @@
         <v>7.72685963768321</v>
       </c>
       <c r="D929" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E929">
         <v>8.907389059215665</v>
@@ -48551,7 +48551,7 @@
         <v>7.776596830436874</v>
       </c>
       <c r="D930" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E930">
         <v>8.907389059215665</v>
@@ -48601,7 +48601,7 @@
         <v>7.709886679815801</v>
       </c>
       <c r="D931" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E931">
         <v>8.907389059215665</v>
@@ -48651,7 +48651,7 @@
         <v>9.595025697518533</v>
       </c>
       <c r="D932" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E932">
         <v>8.612652818221946</v>
@@ -48701,7 +48701,7 @@
         <v>7.637229701006091</v>
       </c>
       <c r="D933" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E933">
         <v>8.801881819470028</v>
@@ -48751,7 +48751,7 @@
         <v>7.685174295026213</v>
       </c>
       <c r="D934" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E934">
         <v>8.801881819470028</v>
@@ -48801,7 +48801,7 @@
         <v>7.616543502904915</v>
       </c>
       <c r="D935" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E935">
         <v>8.801881819470028</v>
@@ -48851,7 +48851,7 @@
         <v>9.463653818903213</v>
       </c>
       <c r="D936" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E936">
         <v>8.571192433045201</v>
@@ -48901,7 +48901,7 @@
         <v>7.627055394101849</v>
       </c>
       <c r="D937" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E937">
         <v>8.789905206771319</v>
@@ -48951,7 +48951,7 @@
         <v>7.674796501983886</v>
       </c>
       <c r="D938" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E938">
         <v>8.789905206771319</v>
@@ -49001,7 +49001,7 @@
         <v>7.605947689000354</v>
       </c>
       <c r="D939" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E939">
         <v>8.789905206771319</v>
@@ -49051,7 +49051,7 @@
         <v>9.448741191926425</v>
       </c>
       <c r="D940" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E940">
         <v>8.557733278483305</v>
@@ -49101,7 +49101,7 @@
         <v>7.527318556016271</v>
       </c>
       <c r="D941" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E941">
         <v>8.672500700224868</v>
@@ -49151,7 +49151,7 @@
         <v>7.573064927136597</v>
       </c>
       <c r="D942" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E942">
         <v>8.672500700224868</v>
@@ -49201,7 +49201,7 @@
         <v>7.502078896194089</v>
       </c>
       <c r="D943" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E943">
         <v>8.672500700224868</v>
@@ -49251,7 +49251,7 @@
         <v>9.302555483532419</v>
       </c>
       <c r="D944" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E944">
         <v>8.425795689815811</v>
@@ -49301,7 +49301,7 @@
         <v>7.508368673915395</v>
       </c>
       <c r="D945" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E945">
         <v>8.650193981866124</v>
@@ -49351,7 +49351,7 @@
         <v>7.553736047393704</v>
       </c>
       <c r="D946" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E946">
         <v>8.650193981866124</v>
@@ -49401,7 +49401,7 @@
         <v>7.482343947549033</v>
       </c>
       <c r="D947" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E947">
         <v>8.650193981866124</v>
@@ -49451,7 +49451,7 @@
         <v>9.274780370624566</v>
       </c>
       <c r="D948" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E948">
         <v>8.400727702922367</v>
@@ -49501,7 +49501,7 @@
         <v>7.353005082198991</v>
       </c>
       <c r="D949" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E949">
         <v>8.467308839617099</v>
@@ -49551,7 +49551,7 @@
         <v>7.395265183842971</v>
       </c>
       <c r="D950" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E950">
         <v>8.467308839617099</v>
@@ -49601,7 +49601,7 @@
         <v>7.320543864175806</v>
       </c>
       <c r="D951" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E951">
         <v>8.467308839617099</v>
@@ -49651,7 +49651,7 @@
         <v>9.047061734765949</v>
       </c>
       <c r="D952" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E952">
         <v>8.19520386588038</v>
@@ -49701,7 +49701,7 @@
         <v>7.263168012591104</v>
       </c>
       <c r="D953" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E953">
         <v>8.361557774821529</v>
@@ -49751,7 +49751,7 @@
         <v>7.226984973112736</v>
       </c>
       <c r="D954" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E954">
         <v>8.361557774821529</v>
@@ -49792,96 +49792,96 @@
     </row>
     <row r="955" spans="1:16">
       <c r="A955" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B955" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C955">
-        <v>2.431508980050069</v>
+        <v>8.915386258454962</v>
       </c>
       <c r="D955" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E955">
-        <v>3.11269056272443</v>
+        <v>8.076362256656232</v>
       </c>
       <c r="F955">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G955">
-        <v>0.008748491019949931</v>
+        <v>0.002984613741545039</v>
       </c>
       <c r="H955">
-        <v>0.008767309437275569</v>
+        <v>0.002723637743343768</v>
       </c>
       <c r="I955">
-        <v>0.6811815826743612</v>
+        <v>0.8390240017987303</v>
       </c>
       <c r="J955">
-        <v>0.06132992271747439</v>
+        <v>-0.05780480035974584</v>
       </c>
       <c r="K955">
-        <v>51.5</v>
+        <v>51.3</v>
       </c>
       <c r="L955">
-        <v>5.59</v>
+        <v>5.95</v>
       </c>
       <c r="M955">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="N955">
-        <v>5.94</v>
+        <v>5.4</v>
       </c>
       <c r="O955">
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="956" spans="1:16">
       <c r="A956" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B956" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C956">
-        <v>3.532936083572772</v>
+        <v>2.431508980050069</v>
       </c>
       <c r="D956" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E956">
-        <v>2.949488516354915</v>
+        <v>3.11269056272443</v>
       </c>
       <c r="F956">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G956">
-        <v>0.00842706391642723</v>
+        <v>0.008748491019949931</v>
       </c>
       <c r="H956">
-        <v>0.008530511483645085</v>
+        <v>0.008767309437275569</v>
       </c>
       <c r="I956">
-        <v>0.5834475672178567</v>
+        <v>0.6811815826743612</v>
       </c>
       <c r="J956">
         <v>0.06132992271747439</v>
       </c>
       <c r="K956">
-        <v>39.9</v>
+        <v>51.5</v>
       </c>
       <c r="L956">
-        <v>5.98</v>
+        <v>5.59</v>
       </c>
       <c r="M956">
-        <v>45.5</v>
+        <v>46.1</v>
       </c>
       <c r="N956">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="O956">
         <v>1</v>
@@ -49892,16 +49892,16 @@
     </row>
     <row r="957" spans="1:16">
       <c r="A957" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B957" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C957">
-        <v>3.470017927480011</v>
+        <v>3.532936083572772</v>
       </c>
       <c r="D957" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E957">
         <v>2.949488516354915</v>
@@ -49910,22 +49910,22 @@
         <v>-1</v>
       </c>
       <c r="G957">
-        <v>0.00890998207251999</v>
+        <v>0.00842706391642723</v>
       </c>
       <c r="H957">
         <v>0.008530511483645085</v>
       </c>
       <c r="I957">
-        <v>0.5205294111250955</v>
+        <v>0.5834475672178567</v>
       </c>
       <c r="J957">
         <v>0.06132992271747439</v>
       </c>
       <c r="K957">
-        <v>44.35</v>
+        <v>39.9</v>
       </c>
       <c r="L957">
-        <v>6.19</v>
+        <v>5.98</v>
       </c>
       <c r="M957">
         <v>45.5</v>
@@ -49942,96 +49942,96 @@
     </row>
     <row r="958" spans="1:16">
       <c r="A958" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B958" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C958">
-        <v>2.046214498970668</v>
+        <v>3.470017927480011</v>
       </c>
       <c r="D958" t="s">
         <v>462</v>
       </c>
       <c r="E958">
-        <v>2.767795891311607</v>
+        <v>2.949488516354915</v>
       </c>
       <c r="F958">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G958">
-        <v>0.009133785501029331</v>
+        <v>0.00890998207251999</v>
       </c>
       <c r="H958">
-        <v>0.009112204108688392</v>
+        <v>0.008530511483645085</v>
       </c>
       <c r="I958">
-        <v>0.7215813923409389</v>
+        <v>0.5205294111250955</v>
       </c>
       <c r="J958">
-        <v>0.06881136895202586</v>
+        <v>0.06132992271747439</v>
       </c>
       <c r="K958">
-        <v>51.5</v>
+        <v>44.35</v>
       </c>
       <c r="L958">
-        <v>5.59</v>
+        <v>6.19</v>
       </c>
       <c r="M958">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="N958">
-        <v>5.94</v>
+        <v>5.74</v>
       </c>
       <c r="O958">
         <v>1</v>
       </c>
       <c r="P958" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="959" spans="1:16">
       <c r="A959" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B959" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C959">
-        <v>3.234426378814169</v>
+        <v>2.046214498970668</v>
       </c>
       <c r="D959" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E959">
-        <v>2.609082712682824</v>
+        <v>2.767795891311607</v>
       </c>
       <c r="F959">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G959">
-        <v>0.008725573621185832</v>
+        <v>0.009133785501029331</v>
       </c>
       <c r="H959">
-        <v>0.008870917287317176</v>
+        <v>0.009112204108688392</v>
       </c>
       <c r="I959">
-        <v>0.6253436661313452</v>
+        <v>0.7215813923409389</v>
       </c>
       <c r="J959">
         <v>0.06881136895202586</v>
       </c>
       <c r="K959">
-        <v>39.9</v>
+        <v>51.5</v>
       </c>
       <c r="L959">
-        <v>5.98</v>
+        <v>5.59</v>
       </c>
       <c r="M959">
-        <v>45.5</v>
+        <v>46.1</v>
       </c>
       <c r="N959">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="O959">
         <v>1</v>
@@ -50042,96 +50042,96 @@
     </row>
     <row r="960" spans="1:16">
       <c r="A960" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B960" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C960">
-        <v>2.025162321012973</v>
+        <v>3.234426378814169</v>
       </c>
       <c r="D960" t="s">
         <v>462</v>
       </c>
       <c r="E960">
-        <v>2.748951126188311</v>
+        <v>2.609082712682824</v>
       </c>
       <c r="F960">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G960">
-        <v>0.009154837678987027</v>
+        <v>0.008725573621185832</v>
       </c>
       <c r="H960">
-        <v>0.009131048873811687</v>
+        <v>0.008870917287317176</v>
       </c>
       <c r="I960">
-        <v>0.7237888051753383</v>
+        <v>0.6253436661313452</v>
       </c>
       <c r="J960">
-        <v>0.06922014910654421</v>
+        <v>0.06881136895202586</v>
       </c>
       <c r="K960">
-        <v>51.5</v>
+        <v>39.9</v>
       </c>
       <c r="L960">
-        <v>5.59</v>
+        <v>5.98</v>
       </c>
       <c r="M960">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="N960">
-        <v>5.94</v>
+        <v>5.74</v>
       </c>
       <c r="O960">
         <v>1</v>
       </c>
       <c r="P960" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="961" spans="1:16">
       <c r="A961" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B961" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C961">
-        <v>3.218116050648887</v>
+        <v>2.025162321012973</v>
       </c>
       <c r="D961" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E961">
-        <v>2.590483215652239</v>
+        <v>2.748951126188311</v>
       </c>
       <c r="F961">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G961">
-        <v>0.008741883949351116</v>
+        <v>0.009154837678987027</v>
       </c>
       <c r="H961">
-        <v>0.008889516784347762</v>
+        <v>0.009131048873811687</v>
       </c>
       <c r="I961">
-        <v>0.627632834996648</v>
+        <v>0.7237888051753383</v>
       </c>
       <c r="J961">
         <v>0.06922014910654421</v>
       </c>
       <c r="K961">
-        <v>39.9</v>
+        <v>51.5</v>
       </c>
       <c r="L961">
-        <v>5.98</v>
+        <v>5.59</v>
       </c>
       <c r="M961">
-        <v>45.5</v>
+        <v>46.1</v>
       </c>
       <c r="N961">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="O961">
         <v>1</v>
@@ -50142,96 +50142,96 @@
     </row>
     <row r="962" spans="1:16">
       <c r="A962" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B962" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C962">
-        <v>2.047715219225316</v>
+        <v>3.218116050648887</v>
       </c>
       <c r="D962" t="s">
         <v>462</v>
       </c>
       <c r="E962">
-        <v>2.769139254491011</v>
+        <v>2.590483215652239</v>
       </c>
       <c r="F962">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G962">
-        <v>0.009132284780774682</v>
+        <v>0.008741883949351116</v>
       </c>
       <c r="H962">
-        <v>0.009110860745508988</v>
+        <v>0.008889516784347762</v>
       </c>
       <c r="I962">
-        <v>0.7214240352656947</v>
+        <v>0.627632834996648</v>
       </c>
       <c r="J962">
-        <v>0.06878222875290647</v>
+        <v>0.06922014910654421</v>
       </c>
       <c r="K962">
-        <v>51.5</v>
+        <v>39.9</v>
       </c>
       <c r="L962">
-        <v>5.59</v>
+        <v>5.98</v>
       </c>
       <c r="M962">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="N962">
-        <v>5.94</v>
+        <v>5.74</v>
       </c>
       <c r="O962">
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="963" spans="1:16">
       <c r="A963" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B963" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C963">
-        <v>3.235589072759032</v>
+        <v>2.047715219225316</v>
       </c>
       <c r="D963" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E963">
-        <v>2.610408591742756</v>
+        <v>2.769139254491011</v>
       </c>
       <c r="F963">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G963">
-        <v>0.00872441092724097</v>
+        <v>0.009132284780774682</v>
       </c>
       <c r="H963">
-        <v>0.008869591408257245</v>
+        <v>0.009110860745508988</v>
       </c>
       <c r="I963">
-        <v>0.6251804810162764</v>
+        <v>0.7214240352656947</v>
       </c>
       <c r="J963">
         <v>0.06878222875290647</v>
       </c>
       <c r="K963">
-        <v>39.9</v>
+        <v>51.5</v>
       </c>
       <c r="L963">
-        <v>5.98</v>
+        <v>5.59</v>
       </c>
       <c r="M963">
-        <v>45.5</v>
+        <v>46.1</v>
       </c>
       <c r="N963">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="O963">
         <v>1</v>
@@ -50242,99 +50242,99 @@
     </row>
     <row r="964" spans="1:16">
       <c r="A964" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B964" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C964">
-        <v>6.518598702106193</v>
+        <v>3.235589072759032</v>
       </c>
       <c r="D964" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E964">
-        <v>6.106743957498077</v>
+        <v>2.610408591742756</v>
       </c>
       <c r="F964">
         <v>-1</v>
       </c>
       <c r="G964">
-        <v>0.005861401297893808</v>
+        <v>0.00872441092724097</v>
       </c>
       <c r="H964">
-        <v>0.005473256042501923</v>
+        <v>0.008869591408257245</v>
       </c>
       <c r="I964">
-        <v>0.4118547446081156</v>
+        <v>0.6251804810162764</v>
       </c>
       <c r="J964">
-        <v>-0.007409215380071977</v>
+        <v>0.06878222875290647</v>
       </c>
       <c r="K964">
-        <v>44.35</v>
+        <v>39.9</v>
       </c>
       <c r="L964">
-        <v>6.19</v>
+        <v>5.98</v>
       </c>
       <c r="M964">
-        <v>42.75</v>
+        <v>45.5</v>
       </c>
       <c r="N964">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="O964">
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="965" spans="1:16">
       <c r="A965" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B965" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C965">
-        <v>5.736378378255268</v>
+        <v>6.518598702106193</v>
       </c>
       <c r="D965" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E965">
-        <v>5.720080545182206</v>
+        <v>6.082300869033131</v>
       </c>
       <c r="F965">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G965">
-        <v>0.005063621621744733</v>
+        <v>0.005861401297893808</v>
       </c>
       <c r="H965">
-        <v>0.005059919454817793</v>
+        <v>0.005437699130966869</v>
       </c>
       <c r="I965">
-        <v>-0.01629783307306187</v>
+        <v>0.4362978330730618</v>
       </c>
       <c r="J965">
         <v>-0.007409215380071977</v>
       </c>
       <c r="K965">
-        <v>45.4</v>
+        <v>44.35</v>
       </c>
       <c r="L965">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="M965">
-        <v>44.55</v>
+        <v>43.5</v>
       </c>
       <c r="N965">
-        <v>5.39</v>
+        <v>5.76</v>
       </c>
       <c r="O965">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P965" t="s">
         <v>791</v>
@@ -50342,99 +50342,99 @@
     </row>
     <row r="966" spans="1:16">
       <c r="A966" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B966" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C966">
-        <v>6.991566556621656</v>
+        <v>5.736378378255268</v>
       </c>
       <c r="D966" t="s">
         <v>464</v>
       </c>
       <c r="E966">
-        <v>6.562648710159545</v>
+        <v>5.686375937492171</v>
       </c>
       <c r="F966">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G966">
-        <v>0.005388433443378345</v>
+        <v>0.005063621621744733</v>
       </c>
       <c r="H966">
-        <v>0.005017351289840455</v>
+        <v>0.00503362406250783</v>
       </c>
       <c r="I966">
-        <v>0.4289178464621113</v>
+        <v>-0.05000244076309723</v>
       </c>
       <c r="J966">
-        <v>-0.01807365403881975</v>
+        <v>-0.007409215380071977</v>
       </c>
       <c r="K966">
-        <v>44.35</v>
+        <v>45.4</v>
       </c>
       <c r="L966">
-        <v>6.19</v>
+        <v>5.4</v>
       </c>
       <c r="M966">
-        <v>42.75</v>
+        <v>44.05</v>
       </c>
       <c r="N966">
-        <v>5.79</v>
+        <v>5.36</v>
       </c>
       <c r="O966">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P966" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="967" spans="1:16">
       <c r="A967" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B967" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C967">
-        <v>6.220543893362417</v>
+        <v>6.991566556621656</v>
       </c>
       <c r="D967" t="s">
         <v>465</v>
       </c>
       <c r="E967">
-        <v>6.19518128742942</v>
+        <v>6.562648710159545</v>
       </c>
       <c r="F967">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G967">
-        <v>0.004579456106637583</v>
+        <v>0.005388433443378345</v>
       </c>
       <c r="H967">
-        <v>0.00458481871257058</v>
+        <v>0.005017351289840455</v>
       </c>
       <c r="I967">
-        <v>-0.02536260593299744</v>
+        <v>0.4289178464621113</v>
       </c>
       <c r="J967">
         <v>-0.01807365403881975</v>
       </c>
       <c r="K967">
-        <v>45.4</v>
+        <v>44.35</v>
       </c>
       <c r="L967">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="M967">
-        <v>44.55</v>
+        <v>42.75</v>
       </c>
       <c r="N967">
-        <v>5.39</v>
+        <v>5.79</v>
       </c>
       <c r="O967">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P967" t="s">
         <v>792</v>
@@ -50442,102 +50442,102 @@
     </row>
     <row r="968" spans="1:16">
       <c r="A968" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B968" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C968">
-        <v>7.069183691734053</v>
+        <v>6.220543893362417</v>
       </c>
       <c r="D968" t="s">
         <v>464</v>
       </c>
       <c r="E968">
-        <v>6.72382257189677</v>
+        <v>6.15614446041001</v>
       </c>
       <c r="F968">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G968">
-        <v>0.005050816308265946</v>
+        <v>0.004579456106637583</v>
       </c>
       <c r="H968">
-        <v>0.00485617742810323</v>
+        <v>0.004563855539589991</v>
       </c>
       <c r="I968">
-        <v>0.3453611198372828</v>
+        <v>-0.06439943295240713</v>
       </c>
       <c r="J968">
-        <v>-0.02184380285138643</v>
+        <v>-0.01807365403881975</v>
       </c>
       <c r="K968">
-        <v>46.2</v>
+        <v>45.4</v>
       </c>
       <c r="L968">
-        <v>6.06</v>
+        <v>5.4</v>
       </c>
       <c r="M968">
-        <v>42.75</v>
+        <v>44.05</v>
       </c>
       <c r="N968">
-        <v>5.79</v>
+        <v>5.36</v>
       </c>
       <c r="O968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P968" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="969" spans="1:16">
       <c r="A969" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B969" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C969">
-        <v>6.391708649452944</v>
+        <v>6.217048143111951</v>
       </c>
       <c r="D969" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E969">
-        <v>6.363141417029265</v>
+        <v>6.15614446041001</v>
       </c>
       <c r="F969">
         <v>1</v>
       </c>
       <c r="G969">
-        <v>0.004408291350547057</v>
+        <v>0.004622951856888049</v>
       </c>
       <c r="H969">
-        <v>0.004416858582970734</v>
+        <v>0.004563855539589991</v>
       </c>
       <c r="I969">
-        <v>-0.0285672324236792</v>
+        <v>-0.06090368270194091</v>
       </c>
       <c r="J969">
-        <v>-0.02184380285138643</v>
+        <v>-0.01807365403881975</v>
       </c>
       <c r="K969">
-        <v>45.4</v>
+        <v>44.1</v>
       </c>
       <c r="L969">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="M969">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="N969">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="O969">
         <v>0</v>
       </c>
       <c r="P969" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -50545,49 +50545,49 @@
         <v>0</v>
       </c>
       <c r="B970" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C970">
-        <v>6.413210125506788</v>
+        <v>7.158772656458988</v>
       </c>
       <c r="D970" t="s">
         <v>465</v>
       </c>
       <c r="E970">
-        <v>6.384240332408092</v>
+        <v>6.72382257189677</v>
       </c>
       <c r="F970">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G970">
-        <v>0.004386789874493213</v>
+        <v>0.005221227343541013</v>
       </c>
       <c r="H970">
-        <v>0.004395759667591907</v>
+        <v>0.00485617742810323</v>
       </c>
       <c r="I970">
-        <v>-0.02896979309869607</v>
+        <v>0.4349500845622183</v>
       </c>
       <c r="J970">
-        <v>-0.02231740364552396</v>
+        <v>-0.02184380285138643</v>
       </c>
       <c r="K970">
-        <v>45.4</v>
+        <v>44.35</v>
       </c>
       <c r="L970">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="M970">
-        <v>44.55</v>
+        <v>42.75</v>
       </c>
       <c r="N970">
-        <v>5.39</v>
+        <v>5.79</v>
       </c>
       <c r="O970">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P970" t="s">
-        <v>221</v>
+        <v>793</v>
       </c>
     </row>
     <row r="971" spans="1:16">
@@ -50595,99 +50595,99 @@
         <v>1</v>
       </c>
       <c r="B971" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C971">
-        <v>6.404197500767607</v>
+        <v>6.391708649452944</v>
       </c>
       <c r="D971" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E971">
-        <v>6.384240332408092</v>
+        <v>6.322219515603573</v>
       </c>
       <c r="F971">
         <v>1</v>
       </c>
       <c r="G971">
-        <v>0.004435802499232393</v>
+        <v>0.004408291350547057</v>
       </c>
       <c r="H971">
-        <v>0.004395759667591907</v>
+        <v>0.004397780484396428</v>
       </c>
       <c r="I971">
-        <v>-0.01995716835951455</v>
+        <v>-0.0694891338493715</v>
       </c>
       <c r="J971">
-        <v>-0.02231740364552396</v>
+        <v>-0.02184380285138643</v>
       </c>
       <c r="K971">
-        <v>44.1</v>
+        <v>45.4</v>
       </c>
       <c r="L971">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="M971">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="N971">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="O971">
         <v>0</v>
       </c>
       <c r="P971" t="s">
-        <v>221</v>
+        <v>793</v>
       </c>
     </row>
     <row r="972" spans="1:16">
       <c r="A972" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B972" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C972">
-        <v>6.380716543730243</v>
+        <v>6.383311705746141</v>
       </c>
       <c r="D972" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E972">
-        <v>6.352355110642781</v>
+        <v>6.322219515603573</v>
       </c>
       <c r="F972">
         <v>1</v>
       </c>
       <c r="G972">
-        <v>0.004419283456269758</v>
+        <v>0.004456688294253859</v>
       </c>
       <c r="H972">
-        <v>0.004427644889357218</v>
+        <v>0.004397780484396428</v>
       </c>
       <c r="I972">
-        <v>-0.02836143308746131</v>
+        <v>-0.06109219014256873</v>
       </c>
       <c r="J972">
-        <v>-0.02160168598524764</v>
+        <v>-0.02184380285138643</v>
       </c>
       <c r="K972">
-        <v>45.4</v>
+        <v>44.1</v>
       </c>
       <c r="L972">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="M972">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="N972">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="O972">
         <v>0</v>
       </c>
       <c r="P972" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -50698,28 +50698,28 @@
         <v>222</v>
       </c>
       <c r="C973">
-        <v>5.474534575844489</v>
+        <v>6.413210125506788</v>
       </c>
       <c r="D973" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E973">
-        <v>5.463139104710836</v>
+        <v>6.34308163058533</v>
       </c>
       <c r="F973">
         <v>1</v>
       </c>
       <c r="G973">
-        <v>0.005325465424155512</v>
+        <v>0.004386789874493213</v>
       </c>
       <c r="H973">
-        <v>0.005316860895289163</v>
+        <v>0.00437691836941467</v>
       </c>
       <c r="I973">
-        <v>-0.01139547113365236</v>
+        <v>-0.07012849492145801</v>
       </c>
       <c r="J973">
-        <v>-0.00164173074547332</v>
+        <v>-0.02231740364552396</v>
       </c>
       <c r="K973">
         <v>45.4</v>
@@ -50728,15 +50728,265 @@
         <v>5.4</v>
       </c>
       <c r="M973">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="N973">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="O973">
         <v>0</v>
       </c>
       <c r="P973" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="974" spans="1:16">
+      <c r="A974" s="1">
+        <v>1</v>
+      </c>
+      <c r="B974" t="s">
+        <v>223</v>
+      </c>
+      <c r="C974">
+        <v>6.404197500767607</v>
+      </c>
+      <c r="D974" t="s">
+        <v>464</v>
+      </c>
+      <c r="E974">
+        <v>6.34308163058533</v>
+      </c>
+      <c r="F974">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0.004435802499232393</v>
+      </c>
+      <c r="H974">
+        <v>0.00437691836941467</v>
+      </c>
+      <c r="I974">
+        <v>-0.06111587018227649</v>
+      </c>
+      <c r="J974">
+        <v>-0.02231740364552396</v>
+      </c>
+      <c r="K974">
+        <v>44.1</v>
+      </c>
+      <c r="L974">
+        <v>5.42</v>
+      </c>
+      <c r="M974">
+        <v>44.05</v>
+      </c>
+      <c r="N974">
+        <v>5.36</v>
+      </c>
+      <c r="O974">
+        <v>0</v>
+      </c>
+      <c r="P974" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="975" spans="1:16">
+      <c r="A975" s="1">
+        <v>0</v>
+      </c>
+      <c r="B975" t="s">
+        <v>222</v>
+      </c>
+      <c r="C975">
+        <v>6.380716543730243</v>
+      </c>
+      <c r="D975" t="s">
+        <v>464</v>
+      </c>
+      <c r="E975">
+        <v>6.311554267650159</v>
+      </c>
+      <c r="F975">
+        <v>1</v>
+      </c>
+      <c r="G975">
+        <v>0.004419283456269758</v>
+      </c>
+      <c r="H975">
+        <v>0.004408445732349842</v>
+      </c>
+      <c r="I975">
+        <v>-0.06916227608008363</v>
+      </c>
+      <c r="J975">
+        <v>-0.02160168598524764</v>
+      </c>
+      <c r="K975">
+        <v>45.4</v>
+      </c>
+      <c r="L975">
+        <v>5.4</v>
+      </c>
+      <c r="M975">
+        <v>44.05</v>
+      </c>
+      <c r="N975">
+        <v>5.36</v>
+      </c>
+      <c r="O975">
+        <v>0</v>
+      </c>
+      <c r="P975" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="976" spans="1:16">
+      <c r="A976" s="1">
+        <v>1</v>
+      </c>
+      <c r="B976" t="s">
+        <v>223</v>
+      </c>
+      <c r="C976">
+        <v>6.37263435194942</v>
+      </c>
+      <c r="D976" t="s">
+        <v>464</v>
+      </c>
+      <c r="E976">
+        <v>6.311554267650159</v>
+      </c>
+      <c r="F976">
+        <v>1</v>
+      </c>
+      <c r="G976">
+        <v>0.004467365648050579</v>
+      </c>
+      <c r="H976">
+        <v>0.004408445732349842</v>
+      </c>
+      <c r="I976">
+        <v>-0.06108008429926137</v>
+      </c>
+      <c r="J976">
+        <v>-0.02160168598524764</v>
+      </c>
+      <c r="K976">
+        <v>44.1</v>
+      </c>
+      <c r="L976">
+        <v>5.42</v>
+      </c>
+      <c r="M976">
+        <v>44.05</v>
+      </c>
+      <c r="N976">
+        <v>5.36</v>
+      </c>
+      <c r="O976">
+        <v>0</v>
+      </c>
+      <c r="P976" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="977" spans="1:16">
+      <c r="A977" s="1">
+        <v>0</v>
+      </c>
+      <c r="B977" t="s">
+        <v>222</v>
+      </c>
+      <c r="C977">
+        <v>5.474534575844489</v>
+      </c>
+      <c r="D977" t="s">
+        <v>464</v>
+      </c>
+      <c r="E977">
+        <v>5.4323182393381</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+      <c r="G977">
+        <v>0.005325465424155512</v>
+      </c>
+      <c r="H977">
+        <v>0.0052876817606619</v>
+      </c>
+      <c r="I977">
+        <v>-0.04221633650638879</v>
+      </c>
+      <c r="J977">
+        <v>-0.00164173074547332</v>
+      </c>
+      <c r="K977">
+        <v>45.4</v>
+      </c>
+      <c r="L977">
+        <v>5.4</v>
+      </c>
+      <c r="M977">
+        <v>44.05</v>
+      </c>
+      <c r="N977">
+        <v>5.36</v>
+      </c>
+      <c r="O977">
+        <v>0</v>
+      </c>
+      <c r="P977" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="978" spans="1:16">
+      <c r="A978" s="1">
+        <v>1</v>
+      </c>
+      <c r="B978" t="s">
+        <v>223</v>
+      </c>
+      <c r="C978">
+        <v>5.492400325875374</v>
+      </c>
+      <c r="D978" t="s">
+        <v>464</v>
+      </c>
+      <c r="E978">
+        <v>5.4323182393381</v>
+      </c>
+      <c r="F978">
+        <v>1</v>
+      </c>
+      <c r="G978">
+        <v>0.005347599674124627</v>
+      </c>
+      <c r="H978">
+        <v>0.0052876817606619</v>
+      </c>
+      <c r="I978">
+        <v>-0.06008208653727376</v>
+      </c>
+      <c r="J978">
+        <v>-0.00164173074547332</v>
+      </c>
+      <c r="K978">
+        <v>44.1</v>
+      </c>
+      <c r="L978">
+        <v>5.42</v>
+      </c>
+      <c r="M978">
+        <v>44.05</v>
+      </c>
+      <c r="N978">
+        <v>5.36</v>
+      </c>
+      <c r="O978">
+        <v>0</v>
+      </c>
+      <c r="P978" t="s">
         <v>795</v>
       </c>
     </row>

--- a/s60_signal/position-2319-151-800.xlsx
+++ b/s60_signal/position-2319-151-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="797">
   <si>
     <t>trade_time</t>
   </si>
@@ -1411,7 +1411,7 @@
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-03-23</t>
@@ -2762,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P977"/>
+  <dimension ref="A1:P976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50307,7 +50307,7 @@
         <v>465</v>
       </c>
       <c r="E965">
-        <v>5.758969162875196</v>
+        <v>5.80045100595121</v>
       </c>
       <c r="F965">
         <v>1</v>
@@ -50316,10 +50316,10 @@
         <v>0.005063621621744733</v>
       </c>
       <c r="H965">
-        <v>0.005101030837124804</v>
+        <v>0.005139548994048789</v>
       </c>
       <c r="I965">
-        <v>0.02259078461992736</v>
+        <v>0.0640726276959418</v>
       </c>
       <c r="J965">
         <v>-0.007409215380071977</v>
@@ -50331,10 +50331,10 @@
         <v>5.4</v>
       </c>
       <c r="M965">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N965">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O965">
         <v>0</v>
@@ -50345,99 +50345,99 @@
     </row>
     <row r="966" spans="1:16">
       <c r="A966" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B966" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C966">
-        <v>6.991566556621656</v>
+        <v>5.746746398261174</v>
       </c>
       <c r="D966" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E966">
-        <v>6.562648710159545</v>
+        <v>5.80045100595121</v>
       </c>
       <c r="F966">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G966">
-        <v>0.005388433443378345</v>
+        <v>0.005093253601738826</v>
       </c>
       <c r="H966">
-        <v>0.005017351289840455</v>
+        <v>0.005139548994048789</v>
       </c>
       <c r="I966">
-        <v>0.4289178464621113</v>
+        <v>0.05370460769003582</v>
       </c>
       <c r="J966">
-        <v>-0.01807365403881975</v>
+        <v>-0.007409215380071977</v>
       </c>
       <c r="K966">
-        <v>44.35</v>
+        <v>44.1</v>
       </c>
       <c r="L966">
-        <v>6.19</v>
+        <v>5.42</v>
       </c>
       <c r="M966">
-        <v>42.75</v>
+        <v>44.6</v>
       </c>
       <c r="N966">
-        <v>5.79</v>
+        <v>5.47</v>
       </c>
       <c r="O966">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P966" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="967" spans="1:16">
       <c r="A967" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B967" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C967">
-        <v>6.220543893362417</v>
+        <v>6.991566556621656</v>
       </c>
       <c r="D967" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E967">
-        <v>6.232470239323597</v>
+        <v>6.562648710159545</v>
       </c>
       <c r="F967">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G967">
-        <v>0.004579456106637583</v>
+        <v>0.005388433443378345</v>
       </c>
       <c r="H967">
-        <v>0.004627529760676403</v>
+        <v>0.005017351289840455</v>
       </c>
       <c r="I967">
-        <v>0.01192634596117959</v>
+        <v>0.4289178464621113</v>
       </c>
       <c r="J967">
         <v>-0.01807365403881975</v>
       </c>
       <c r="K967">
-        <v>45.4</v>
+        <v>44.35</v>
       </c>
       <c r="L967">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="M967">
-        <v>44.4</v>
+        <v>42.75</v>
       </c>
       <c r="N967">
-        <v>5.43</v>
+        <v>5.79</v>
       </c>
       <c r="O967">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P967" t="s">
         <v>793</v>
@@ -50445,46 +50445,46 @@
     </row>
     <row r="968" spans="1:16">
       <c r="A968" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B968" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C968">
-        <v>6.217048143111951</v>
+        <v>6.220543893362417</v>
       </c>
       <c r="D968" t="s">
         <v>465</v>
       </c>
       <c r="E968">
-        <v>6.232470239323597</v>
+        <v>6.276084970131361</v>
       </c>
       <c r="F968">
         <v>1</v>
       </c>
       <c r="G968">
-        <v>0.004622951856888049</v>
+        <v>0.004579456106637583</v>
       </c>
       <c r="H968">
-        <v>0.004627529760676403</v>
+        <v>0.004663915029868638</v>
       </c>
       <c r="I968">
-        <v>0.01542209621164581</v>
+        <v>0.05554107676894393</v>
       </c>
       <c r="J968">
         <v>-0.01807365403881975</v>
       </c>
       <c r="K968">
-        <v>44.1</v>
+        <v>45.4</v>
       </c>
       <c r="L968">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="M968">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N968">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O968">
         <v>0</v>
@@ -50495,99 +50495,99 @@
     </row>
     <row r="969" spans="1:16">
       <c r="A969" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B969" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C969">
-        <v>7.158772656458988</v>
+        <v>6.217048143111951</v>
       </c>
       <c r="D969" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E969">
-        <v>6.72382257189677</v>
+        <v>6.276084970131361</v>
       </c>
       <c r="F969">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G969">
-        <v>0.005221227343541013</v>
+        <v>0.004622951856888049</v>
       </c>
       <c r="H969">
-        <v>0.00485617742810323</v>
+        <v>0.004663915029868638</v>
       </c>
       <c r="I969">
-        <v>0.4349500845622183</v>
+        <v>0.05903682701941015</v>
       </c>
       <c r="J969">
-        <v>-0.02184380285138643</v>
+        <v>-0.01807365403881975</v>
       </c>
       <c r="K969">
-        <v>44.35</v>
+        <v>44.1</v>
       </c>
       <c r="L969">
-        <v>6.19</v>
+        <v>5.42</v>
       </c>
       <c r="M969">
-        <v>42.75</v>
+        <v>44.6</v>
       </c>
       <c r="N969">
-        <v>5.79</v>
+        <v>5.47</v>
       </c>
       <c r="O969">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P969" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="970" spans="1:16">
       <c r="A970" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B970" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C970">
-        <v>6.391708649452944</v>
+        <v>7.158772656458988</v>
       </c>
       <c r="D970" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E970">
-        <v>6.399864846601558</v>
+        <v>6.72382257189677</v>
       </c>
       <c r="F970">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G970">
-        <v>0.004408291350547057</v>
+        <v>0.005221227343541013</v>
       </c>
       <c r="H970">
-        <v>0.004460135153398442</v>
+        <v>0.00485617742810323</v>
       </c>
       <c r="I970">
-        <v>0.008156197148613487</v>
+        <v>0.4349500845622183</v>
       </c>
       <c r="J970">
         <v>-0.02184380285138643</v>
       </c>
       <c r="K970">
-        <v>45.4</v>
+        <v>44.35</v>
       </c>
       <c r="L970">
-        <v>5.4</v>
+        <v>6.19</v>
       </c>
       <c r="M970">
-        <v>44.4</v>
+        <v>42.75</v>
       </c>
       <c r="N970">
-        <v>5.43</v>
+        <v>5.79</v>
       </c>
       <c r="O970">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P970" t="s">
         <v>794</v>
@@ -50595,7 +50595,7 @@
     </row>
     <row r="971" spans="1:16">
       <c r="A971" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B971" t="s">
         <v>223</v>
@@ -50607,7 +50607,7 @@
         <v>465</v>
       </c>
       <c r="E971">
-        <v>6.399864846601558</v>
+        <v>6.444233607171835</v>
       </c>
       <c r="F971">
         <v>1</v>
@@ -50616,10 +50616,10 @@
         <v>0.004456688294253859</v>
       </c>
       <c r="H971">
-        <v>0.004460135153398442</v>
+        <v>0.004495766392828164</v>
       </c>
       <c r="I971">
-        <v>0.01655314085541626</v>
+        <v>0.06092190142569365</v>
       </c>
       <c r="J971">
         <v>-0.02184380285138643</v>
@@ -50631,10 +50631,10 @@
         <v>5.42</v>
       </c>
       <c r="M971">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N971">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O971">
         <v>0</v>
@@ -50648,43 +50648,43 @@
         <v>0</v>
       </c>
       <c r="B972" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C972">
-        <v>6.413210125506788</v>
+        <v>6.404197500767607</v>
       </c>
       <c r="D972" t="s">
         <v>465</v>
       </c>
       <c r="E972">
-        <v>6.420892721861263</v>
+        <v>6.465356202590368</v>
       </c>
       <c r="F972">
         <v>1</v>
       </c>
       <c r="G972">
-        <v>0.004386789874493213</v>
+        <v>0.004435802499232393</v>
       </c>
       <c r="H972">
-        <v>0.004439107278138736</v>
+        <v>0.004474643797409631</v>
       </c>
       <c r="I972">
-        <v>0.007682596354475102</v>
+        <v>0.06115870182276151</v>
       </c>
       <c r="J972">
         <v>-0.02231740364552396</v>
       </c>
       <c r="K972">
-        <v>45.4</v>
+        <v>44.1</v>
       </c>
       <c r="L972">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="M972">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N972">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O972">
         <v>0</v>
@@ -50695,96 +50695,96 @@
     </row>
     <row r="973" spans="1:16">
       <c r="A973" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B973" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C973">
-        <v>6.404197500767607</v>
+        <v>6.380716543730243</v>
       </c>
       <c r="D973" t="s">
         <v>465</v>
       </c>
       <c r="E973">
-        <v>6.420892721861263</v>
+        <v>6.433435194942044</v>
       </c>
       <c r="F973">
         <v>1</v>
       </c>
       <c r="G973">
-        <v>0.004435802499232393</v>
+        <v>0.004419283456269758</v>
       </c>
       <c r="H973">
-        <v>0.004439107278138736</v>
+        <v>0.004506564805057955</v>
       </c>
       <c r="I973">
-        <v>0.01669522109365662</v>
+        <v>0.05271865121180142</v>
       </c>
       <c r="J973">
-        <v>-0.02231740364552396</v>
+        <v>-0.02160168598524764</v>
       </c>
       <c r="K973">
-        <v>44.1</v>
+        <v>45.4</v>
       </c>
       <c r="L973">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="M973">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N973">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O973">
         <v>0</v>
       </c>
       <c r="P973" t="s">
-        <v>221</v>
+        <v>795</v>
       </c>
     </row>
     <row r="974" spans="1:16">
       <c r="A974" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B974" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C974">
-        <v>6.380716543730243</v>
+        <v>6.37263435194942</v>
       </c>
       <c r="D974" t="s">
         <v>465</v>
       </c>
       <c r="E974">
-        <v>6.389114857744994</v>
+        <v>6.433435194942044</v>
       </c>
       <c r="F974">
         <v>1</v>
       </c>
       <c r="G974">
-        <v>0.004419283456269758</v>
+        <v>0.004467365648050579</v>
       </c>
       <c r="H974">
-        <v>0.004470885142255005</v>
+        <v>0.004506564805057955</v>
       </c>
       <c r="I974">
-        <v>0.008398314014751662</v>
+        <v>0.06080084299262367</v>
       </c>
       <c r="J974">
         <v>-0.02160168598524764</v>
       </c>
       <c r="K974">
-        <v>45.4</v>
+        <v>44.1</v>
       </c>
       <c r="L974">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="M974">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N974">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O974">
         <v>0</v>
@@ -50795,151 +50795,101 @@
     </row>
     <row r="975" spans="1:16">
       <c r="A975" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B975" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C975">
-        <v>6.37263435194942</v>
+        <v>5.474534575844489</v>
       </c>
       <c r="D975" t="s">
         <v>465</v>
       </c>
       <c r="E975">
-        <v>6.389114857744994</v>
+        <v>5.54322119124811</v>
       </c>
       <c r="F975">
         <v>1</v>
       </c>
       <c r="G975">
-        <v>0.004467365648050579</v>
+        <v>0.005325465424155512</v>
       </c>
       <c r="H975">
-        <v>0.004470885142255005</v>
+        <v>0.00539677880875189</v>
       </c>
       <c r="I975">
-        <v>0.01648050579557392</v>
+        <v>0.06868661540362098</v>
       </c>
       <c r="J975">
-        <v>-0.02160168598524764</v>
+        <v>-0.00164173074547332</v>
       </c>
       <c r="K975">
-        <v>44.1</v>
+        <v>45.4</v>
       </c>
       <c r="L975">
-        <v>5.42</v>
+        <v>5.4</v>
       </c>
       <c r="M975">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N975">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O975">
         <v>0</v>
       </c>
       <c r="P975" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="976" spans="1:16">
       <c r="A976" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B976" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C976">
-        <v>5.474534575844489</v>
+        <v>5.463139104710836</v>
       </c>
       <c r="D976" t="s">
         <v>465</v>
       </c>
       <c r="E976">
-        <v>5.502892845099015</v>
+        <v>5.54322119124811</v>
       </c>
       <c r="F976">
         <v>1</v>
       </c>
       <c r="G976">
-        <v>0.005325465424155512</v>
+        <v>0.005316860895289163</v>
       </c>
       <c r="H976">
-        <v>0.005357107154900984</v>
+        <v>0.00539677880875189</v>
       </c>
       <c r="I976">
-        <v>0.02835826925452611</v>
+        <v>0.08008208653727333</v>
       </c>
       <c r="J976">
         <v>-0.00164173074547332</v>
       </c>
       <c r="K976">
-        <v>45.4</v>
+        <v>44.55</v>
       </c>
       <c r="L976">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="M976">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="N976">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="O976">
         <v>0</v>
       </c>
       <c r="P976" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="977" spans="1:16">
-      <c r="A977" s="1">
-        <v>1</v>
-      </c>
-      <c r="B977" t="s">
-        <v>224</v>
-      </c>
-      <c r="C977">
-        <v>5.463139104710836</v>
-      </c>
-      <c r="D977" t="s">
-        <v>465</v>
-      </c>
-      <c r="E977">
-        <v>5.502892845099015</v>
-      </c>
-      <c r="F977">
-        <v>1</v>
-      </c>
-      <c r="G977">
-        <v>0.005316860895289163</v>
-      </c>
-      <c r="H977">
-        <v>0.005357107154900984</v>
-      </c>
-      <c r="I977">
-        <v>0.03975374038817847</v>
-      </c>
-      <c r="J977">
-        <v>-0.00164173074547332</v>
-      </c>
-      <c r="K977">
-        <v>44.55</v>
-      </c>
-      <c r="L977">
-        <v>5.39</v>
-      </c>
-      <c r="M977">
-        <v>44.4</v>
-      </c>
-      <c r="N977">
-        <v>5.43</v>
-      </c>
-      <c r="O977">
-        <v>0</v>
-      </c>
-      <c r="P977" t="s">
         <v>796</v>
       </c>
     </row>

--- a/s60_signal/position-2319-151-800.xlsx
+++ b/s60_signal/position-2319-151-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="797">
   <si>
     <t>trade_time</t>
   </si>
@@ -1411,7 +1411,7 @@
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-03-23</t>
@@ -2762,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P976"/>
+  <dimension ref="A1:P973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50307,7 +50307,7 @@
         <v>465</v>
       </c>
       <c r="E965">
-        <v>5.80045100595121</v>
+        <v>5.807487319799182</v>
       </c>
       <c r="F965">
         <v>1</v>
@@ -50316,10 +50316,10 @@
         <v>0.005063621621744733</v>
       </c>
       <c r="H965">
-        <v>0.005139548994048789</v>
+        <v>0.005152512680200819</v>
       </c>
       <c r="I965">
-        <v>0.0640726276959418</v>
+        <v>0.07110894154391367</v>
       </c>
       <c r="J965">
         <v>-0.007409215380071977</v>
@@ -50331,10 +50331,10 @@
         <v>5.4</v>
       </c>
       <c r="M965">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N965">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O965">
         <v>0</v>
@@ -50357,7 +50357,7 @@
         <v>465</v>
       </c>
       <c r="E966">
-        <v>5.80045100595121</v>
+        <v>5.807487319799182</v>
       </c>
       <c r="F966">
         <v>1</v>
@@ -50366,10 +50366,10 @@
         <v>0.005093253601738826</v>
       </c>
       <c r="H966">
-        <v>0.005139548994048789</v>
+        <v>0.005152512680200819</v>
       </c>
       <c r="I966">
-        <v>0.05370460769003582</v>
+        <v>0.0607409215380077</v>
       </c>
       <c r="J966">
         <v>-0.007409215380071977</v>
@@ -50381,10 +50381,10 @@
         <v>5.42</v>
       </c>
       <c r="M966">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N966">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O966">
         <v>0</v>
@@ -50448,43 +50448,43 @@
         <v>1</v>
       </c>
       <c r="B968" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C968">
-        <v>6.220543893362417</v>
+        <v>6.19518128742942</v>
       </c>
       <c r="D968" t="s">
         <v>465</v>
       </c>
       <c r="E968">
-        <v>6.276084970131361</v>
+        <v>6.278855508515834</v>
       </c>
       <c r="F968">
         <v>1</v>
       </c>
       <c r="G968">
-        <v>0.004579456106637583</v>
+        <v>0.00458481871257058</v>
       </c>
       <c r="H968">
-        <v>0.004663915029868638</v>
+        <v>0.004681144491484167</v>
       </c>
       <c r="I968">
-        <v>0.05554107676894393</v>
+        <v>0.08367422108641431</v>
       </c>
       <c r="J968">
         <v>-0.01807365403881975</v>
       </c>
       <c r="K968">
-        <v>45.4</v>
+        <v>44.55</v>
       </c>
       <c r="L968">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="M968">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N968">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O968">
         <v>0</v>
@@ -50495,99 +50495,99 @@
     </row>
     <row r="969" spans="1:16">
       <c r="A969" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B969" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C969">
-        <v>6.217048143111951</v>
+        <v>7.158772656458988</v>
       </c>
       <c r="D969" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E969">
-        <v>6.276084970131361</v>
+        <v>6.72382257189677</v>
       </c>
       <c r="F969">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G969">
-        <v>0.004622951856888049</v>
+        <v>0.005221227343541013</v>
       </c>
       <c r="H969">
-        <v>0.004663915029868638</v>
+        <v>0.00485617742810323</v>
       </c>
       <c r="I969">
-        <v>0.05903682701941015</v>
+        <v>0.4349500845622183</v>
       </c>
       <c r="J969">
-        <v>-0.01807365403881975</v>
+        <v>-0.02184380285138643</v>
       </c>
       <c r="K969">
-        <v>44.1</v>
+        <v>44.35</v>
       </c>
       <c r="L969">
-        <v>5.42</v>
+        <v>6.19</v>
       </c>
       <c r="M969">
-        <v>44.6</v>
+        <v>42.75</v>
       </c>
       <c r="N969">
-        <v>5.47</v>
+        <v>5.79</v>
       </c>
       <c r="O969">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P969" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="970" spans="1:16">
       <c r="A970" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B970" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C970">
-        <v>7.158772656458988</v>
+        <v>6.363141417029265</v>
       </c>
       <c r="D970" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E970">
-        <v>6.72382257189677</v>
+        <v>6.445496086031281</v>
       </c>
       <c r="F970">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G970">
-        <v>0.005221227343541013</v>
+        <v>0.004416858582970734</v>
       </c>
       <c r="H970">
-        <v>0.00485617742810323</v>
+        <v>0.00451450391396872</v>
       </c>
       <c r="I970">
-        <v>0.4349500845622183</v>
+        <v>0.08235466900201605</v>
       </c>
       <c r="J970">
         <v>-0.02184380285138643</v>
       </c>
       <c r="K970">
-        <v>44.35</v>
+        <v>44.55</v>
       </c>
       <c r="L970">
-        <v>6.19</v>
+        <v>5.39</v>
       </c>
       <c r="M970">
-        <v>42.75</v>
+        <v>44.2</v>
       </c>
       <c r="N970">
-        <v>5.79</v>
+        <v>5.48</v>
       </c>
       <c r="O970">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P970" t="s">
         <v>794</v>
@@ -50595,52 +50595,52 @@
     </row>
     <row r="971" spans="1:16">
       <c r="A971" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B971" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C971">
-        <v>6.383311705746141</v>
+        <v>6.384240332408092</v>
       </c>
       <c r="D971" t="s">
         <v>465</v>
       </c>
       <c r="E971">
-        <v>6.444233607171835</v>
+        <v>6.466429241132159</v>
       </c>
       <c r="F971">
         <v>1</v>
       </c>
       <c r="G971">
-        <v>0.004456688294253859</v>
+        <v>0.004395759667591907</v>
       </c>
       <c r="H971">
-        <v>0.004495766392828164</v>
+        <v>0.004493570758867842</v>
       </c>
       <c r="I971">
-        <v>0.06092190142569365</v>
+        <v>0.08218890872406703</v>
       </c>
       <c r="J971">
-        <v>-0.02184380285138643</v>
+        <v>-0.02231740364552396</v>
       </c>
       <c r="K971">
-        <v>44.1</v>
+        <v>44.55</v>
       </c>
       <c r="L971">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="M971">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N971">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O971">
         <v>0</v>
       </c>
       <c r="P971" t="s">
-        <v>794</v>
+        <v>221</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -50651,28 +50651,28 @@
         <v>223</v>
       </c>
       <c r="C972">
-        <v>6.404197500767607</v>
+        <v>6.37263435194942</v>
       </c>
       <c r="D972" t="s">
         <v>465</v>
       </c>
       <c r="E972">
-        <v>6.465356202590368</v>
+        <v>6.434794520547946</v>
       </c>
       <c r="F972">
         <v>1</v>
       </c>
       <c r="G972">
-        <v>0.004435802499232393</v>
+        <v>0.004467365648050579</v>
       </c>
       <c r="H972">
-        <v>0.004474643797409631</v>
+        <v>0.004525205479452054</v>
       </c>
       <c r="I972">
-        <v>0.06115870182276151</v>
+        <v>0.0621601685985258</v>
       </c>
       <c r="J972">
-        <v>-0.02231740364552396</v>
+        <v>-0.02160168598524764</v>
       </c>
       <c r="K972">
         <v>44.1</v>
@@ -50681,16 +50681,16 @@
         <v>5.42</v>
       </c>
       <c r="M972">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N972">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O972">
         <v>0</v>
       </c>
       <c r="P972" t="s">
-        <v>221</v>
+        <v>795</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -50698,198 +50698,48 @@
         <v>0</v>
       </c>
       <c r="B973" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C973">
-        <v>6.380716543730243</v>
+        <v>5.463139104710836</v>
       </c>
       <c r="D973" t="s">
         <v>465</v>
       </c>
       <c r="E973">
-        <v>6.433435194942044</v>
+        <v>5.552564498949921</v>
       </c>
       <c r="F973">
         <v>1</v>
       </c>
       <c r="G973">
-        <v>0.004419283456269758</v>
+        <v>0.005316860895289163</v>
       </c>
       <c r="H973">
-        <v>0.004506564805057955</v>
+        <v>0.00540743550105008</v>
       </c>
       <c r="I973">
-        <v>0.05271865121180142</v>
+        <v>0.08942539423908435</v>
       </c>
       <c r="J973">
-        <v>-0.02160168598524764</v>
+        <v>-0.00164173074547332</v>
       </c>
       <c r="K973">
-        <v>45.4</v>
+        <v>44.55</v>
       </c>
       <c r="L973">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="M973">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="N973">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="O973">
         <v>0</v>
       </c>
       <c r="P973" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="974" spans="1:16">
-      <c r="A974" s="1">
-        <v>1</v>
-      </c>
-      <c r="B974" t="s">
-        <v>223</v>
-      </c>
-      <c r="C974">
-        <v>6.37263435194942</v>
-      </c>
-      <c r="D974" t="s">
-        <v>465</v>
-      </c>
-      <c r="E974">
-        <v>6.433435194942044</v>
-      </c>
-      <c r="F974">
-        <v>1</v>
-      </c>
-      <c r="G974">
-        <v>0.004467365648050579</v>
-      </c>
-      <c r="H974">
-        <v>0.004506564805057955</v>
-      </c>
-      <c r="I974">
-        <v>0.06080084299262367</v>
-      </c>
-      <c r="J974">
-        <v>-0.02160168598524764</v>
-      </c>
-      <c r="K974">
-        <v>44.1</v>
-      </c>
-      <c r="L974">
-        <v>5.42</v>
-      </c>
-      <c r="M974">
-        <v>44.6</v>
-      </c>
-      <c r="N974">
-        <v>5.47</v>
-      </c>
-      <c r="O974">
-        <v>0</v>
-      </c>
-      <c r="P974" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="975" spans="1:16">
-      <c r="A975" s="1">
-        <v>0</v>
-      </c>
-      <c r="B975" t="s">
-        <v>222</v>
-      </c>
-      <c r="C975">
-        <v>5.474534575844489</v>
-      </c>
-      <c r="D975" t="s">
-        <v>465</v>
-      </c>
-      <c r="E975">
-        <v>5.54322119124811</v>
-      </c>
-      <c r="F975">
-        <v>1</v>
-      </c>
-      <c r="G975">
-        <v>0.005325465424155512</v>
-      </c>
-      <c r="H975">
-        <v>0.00539677880875189</v>
-      </c>
-      <c r="I975">
-        <v>0.06868661540362098</v>
-      </c>
-      <c r="J975">
-        <v>-0.00164173074547332</v>
-      </c>
-      <c r="K975">
-        <v>45.4</v>
-      </c>
-      <c r="L975">
-        <v>5.4</v>
-      </c>
-      <c r="M975">
-        <v>44.6</v>
-      </c>
-      <c r="N975">
-        <v>5.47</v>
-      </c>
-      <c r="O975">
-        <v>0</v>
-      </c>
-      <c r="P975" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="976" spans="1:16">
-      <c r="A976" s="1">
-        <v>1</v>
-      </c>
-      <c r="B976" t="s">
-        <v>224</v>
-      </c>
-      <c r="C976">
-        <v>5.463139104710836</v>
-      </c>
-      <c r="D976" t="s">
-        <v>465</v>
-      </c>
-      <c r="E976">
-        <v>5.54322119124811</v>
-      </c>
-      <c r="F976">
-        <v>1</v>
-      </c>
-      <c r="G976">
-        <v>0.005316860895289163</v>
-      </c>
-      <c r="H976">
-        <v>0.00539677880875189</v>
-      </c>
-      <c r="I976">
-        <v>0.08008208653727333</v>
-      </c>
-      <c r="J976">
-        <v>-0.00164173074547332</v>
-      </c>
-      <c r="K976">
-        <v>44.55</v>
-      </c>
-      <c r="L976">
-        <v>5.39</v>
-      </c>
-      <c r="M976">
-        <v>44.6</v>
-      </c>
-      <c r="N976">
-        <v>5.47</v>
-      </c>
-      <c r="O976">
-        <v>0</v>
-      </c>
-      <c r="P976" t="s">
         <v>796</v>
       </c>
     </row>

--- a/s60_signal/position-2319-151-800.xlsx
+++ b/s60_signal/position-2319-151-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="798">
   <si>
     <t>trade_time</t>
   </si>
@@ -685,12 +685,12 @@
     <t>2021-07-06</t>
   </si>
   <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
     <t>2021-07-09</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2010-12-20</t>
   </si>
   <si>
@@ -1405,13 +1405,16 @@
     <t>2021-01-28</t>
   </si>
   <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
     <t>2021-03-26</t>
   </si>
   <si>
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-03-23</t>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2912,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3012,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3062,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3112,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3212,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3262,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3312,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3362,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3412,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3462,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3512,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3562,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3612,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3662,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3712,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3762,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -3812,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3862,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3912,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3962,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4012,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4062,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4112,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4162,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -4212,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -4262,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4312,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4362,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4412,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4462,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4512,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4562,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4612,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -4762,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -4862,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4912,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4962,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5012,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -5062,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5112,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5162,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5212,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -5262,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -5312,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5362,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -5412,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -5462,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5512,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5562,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -5612,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -5662,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5712,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5762,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -5812,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5862,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5912,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5962,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -6012,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -6062,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -6112,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -6162,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -6212,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -6262,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -6312,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -6362,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -6412,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6462,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6512,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6562,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6612,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6662,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6712,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -6762,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6812,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6862,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6912,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6962,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7012,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7062,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7112,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7162,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7362,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7412,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7462,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7512,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7562,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7612,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7662,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7712,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7762,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7812,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7862,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7912,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7962,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8012,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8062,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8112,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8162,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8212,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8262,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8291,7 +8294,7 @@
         <v>8</v>
       </c>
       <c r="P111" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8320,7 +8323,7 @@
         <v>7.75</v>
       </c>
       <c r="P112" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8349,7 +8352,7 @@
         <v>7.82</v>
       </c>
       <c r="P113" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8399,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8449,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8499,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="P116" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8549,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8599,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8649,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8699,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8749,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="P121" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8799,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="P122" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8849,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="P123" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8949,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8999,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9049,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="P127" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -9099,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9149,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="P129" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -9199,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -9249,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -9299,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9349,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="P133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9399,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="P134" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9449,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9499,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="P136" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9549,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9599,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="P138" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9649,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="P139" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9699,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="P140" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9749,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="P141" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9799,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="P142" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9849,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="P143" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9899,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="P144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9949,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="P145" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9999,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="P146" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -10049,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -10099,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="P148" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -10149,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="P149" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -10199,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="P150" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -10249,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="P151" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -10299,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="P152" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -10349,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="P153" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10399,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="P154" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -10449,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="P155" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -10499,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="P156" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10549,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="P157" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10599,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="P158" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10649,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="P159" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10699,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="P160" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10728,7 +10731,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="P161" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10757,7 +10760,7 @@
         <v>8.83</v>
       </c>
       <c r="P162" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10786,7 +10789,7 @@
         <v>9.27</v>
       </c>
       <c r="P163" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10836,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="P164" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10886,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="P165" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10936,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="P166" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10986,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -11036,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -11086,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -11136,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -11186,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="P171" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -11236,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="P172" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -11286,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="P173" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -11336,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="P174" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -11386,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="P175" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -11436,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="P176" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -11486,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="P177" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -11536,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11586,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="P179" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11636,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="P180" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11686,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="P181" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11736,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="P182" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11786,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="P183" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11836,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="P184" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11886,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="P185" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11936,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="P186" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11986,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -12036,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -12086,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -12136,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -12186,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -12236,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -12286,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -12486,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="P197" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -12536,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12586,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="P199" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -12636,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="P200" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -12686,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="P201" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -12736,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P202" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12786,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="P203" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12836,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="P204" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12886,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="P205" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -12936,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="P206" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -12986,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="P207" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -14136,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -14186,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="P231" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -14236,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="P232" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -14286,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="P233" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -14336,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -14386,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -14436,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -14486,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -14536,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -14586,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -14636,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="P240" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14686,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="P241" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14736,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="P242" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14786,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="P243" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14836,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14865,7 +14868,7 @@
         <v>10.56</v>
       </c>
       <c r="P245" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14894,7 +14897,7 @@
         <v>10.44</v>
       </c>
       <c r="P246" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14923,7 +14926,7 @@
         <v>10.38</v>
       </c>
       <c r="P247" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14952,7 +14955,7 @@
         <v>10.74</v>
       </c>
       <c r="P248" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -15002,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="P249" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -15052,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="P250" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -15102,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="P251" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -15152,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -15202,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -15252,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -15302,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -15352,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -15402,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -15452,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -15502,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -15552,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -15602,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -15652,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -15702,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="P263" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -15752,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="P264" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -15802,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15852,7 +15855,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15902,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15952,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="P268" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -16002,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="P269" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -16031,7 +16034,7 @@
         <v>11.5</v>
       </c>
       <c r="P270" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -16060,7 +16063,7 @@
         <v>11.36</v>
       </c>
       <c r="P271" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -16089,7 +16092,7 @@
         <v>11.22</v>
       </c>
       <c r="P272" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -16118,7 +16121,7 @@
         <v>11.08</v>
       </c>
       <c r="P273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -16168,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="P274" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -16218,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="P275" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -16268,7 +16271,7 @@
         <v>0</v>
       </c>
       <c r="P276" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -16468,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="P280" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -16518,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="P281" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -16568,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -16718,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16768,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="P286" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -16818,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -16868,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16918,7 +16921,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16968,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -17018,7 +17021,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -17068,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -17118,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -17168,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -17218,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -17268,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -17318,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -17368,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -17418,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -17468,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -17518,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -17568,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -17618,7 +17621,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -17668,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -17718,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -17768,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -17818,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17868,7 +17871,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17918,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17968,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -18018,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -18068,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -18118,7 +18121,7 @@
         <v>0</v>
       </c>
       <c r="P313" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -18168,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="P314" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -18218,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="P315" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -18268,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="P316" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -18318,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="P317" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -18368,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="P318" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -18418,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="P319" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -18468,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="P320" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -18518,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="P321" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -18568,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="P322" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -18768,7 +18771,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -18818,7 +18821,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -18868,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -19118,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -19168,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -19218,7 +19221,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -19268,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -19318,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -19368,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -19418,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -19468,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -19518,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -19568,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -19618,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19668,7 +19671,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19718,7 +19721,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19768,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19818,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19868,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19918,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19968,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -20018,7 +20021,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -20068,7 +20071,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -20118,7 +20121,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -20168,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -20218,7 +20221,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -20268,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -20318,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -20368,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -20418,7 +20421,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -20568,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="P362" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -20618,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="P363" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20668,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="P364" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20718,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="P365" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -20768,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="P366" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -20818,7 +20821,7 @@
         <v>0</v>
       </c>
       <c r="P367" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20868,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="P368" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20918,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="P369" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20968,7 +20971,7 @@
         <v>0</v>
       </c>
       <c r="P370" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -21018,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="P371" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -21468,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="P380" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -21518,7 +21521,7 @@
         <v>0</v>
       </c>
       <c r="P381" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -21568,7 +21571,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -21618,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="P383" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21668,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="P384" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -21718,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="P385" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -21768,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="P386" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -21818,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="P387" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -21868,7 +21871,7 @@
         <v>0</v>
       </c>
       <c r="P388" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21918,7 +21921,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21968,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="P390" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -22018,7 +22021,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -22068,7 +22071,7 @@
         <v>0</v>
       </c>
       <c r="P392" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -22118,7 +22121,7 @@
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -22168,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="P394" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -22218,7 +22221,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -22268,7 +22271,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -22318,7 +22321,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -22368,7 +22371,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -22418,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -22468,7 +22471,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -22518,7 +22521,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -22568,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -22618,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -22668,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22718,7 +22721,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22768,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22818,7 +22821,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -22868,7 +22871,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22968,7 +22971,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -23018,7 +23021,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -23068,7 +23071,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -23118,7 +23121,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -23168,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -23218,7 +23221,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -23268,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -23318,7 +23321,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -23368,7 +23371,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -23418,7 +23421,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -23468,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -23518,7 +23521,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -23568,7 +23571,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -23618,7 +23621,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -23668,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -23718,7 +23721,7 @@
         <v>1</v>
       </c>
       <c r="P425" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23768,7 +23771,7 @@
         <v>1</v>
       </c>
       <c r="P426" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23818,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="P427" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -23847,7 +23850,7 @@
         <v>5.49</v>
       </c>
       <c r="P428" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -23897,7 +23900,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -23947,7 +23950,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -23997,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -24047,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="P432" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -24097,7 +24100,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -24147,7 +24150,7 @@
         <v>1</v>
       </c>
       <c r="P434" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -24197,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="P435" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -24247,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="P436" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -24297,7 +24300,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -24347,7 +24350,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -24397,7 +24400,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -24447,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="P440" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -24497,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -24547,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -24597,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="P443" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -24647,7 +24650,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24697,7 +24700,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24747,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="P446" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24797,7 +24800,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24847,7 +24850,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24897,7 +24900,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24947,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24997,7 +25000,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -25047,7 +25050,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -25097,7 +25100,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -25147,7 +25150,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -25197,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -25247,7 +25250,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -25297,7 +25300,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -25347,7 +25350,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -25397,7 +25400,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -25447,7 +25450,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -25497,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="P461" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -25547,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="P462" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -25597,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="P463" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -25647,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="P464" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -25947,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25997,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="P471" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -26047,7 +26050,7 @@
         <v>0</v>
       </c>
       <c r="P472" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -26097,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="P473" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -26147,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="P474" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -26197,7 +26200,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -26247,7 +26250,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -26297,7 +26300,7 @@
         <v>0</v>
       </c>
       <c r="P477" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -26347,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="P478" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -26397,7 +26400,7 @@
         <v>0</v>
       </c>
       <c r="P479" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -26647,7 +26650,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26697,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="P485" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26747,7 +26750,7 @@
         <v>0</v>
       </c>
       <c r="P486" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26797,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="P487" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26847,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26897,7 +26900,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -26947,7 +26950,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -26997,7 +27000,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -27047,7 +27050,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -27097,7 +27100,7 @@
         <v>0</v>
       </c>
       <c r="P493" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -27147,7 +27150,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -27197,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="P495" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -27397,7 +27400,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -27447,7 +27450,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -27497,7 +27500,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -27547,7 +27550,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -27597,7 +27600,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -27647,7 +27650,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27697,7 +27700,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27747,7 +27750,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27797,7 +27800,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27847,7 +27850,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27897,7 +27900,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27947,7 +27950,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27997,7 +28000,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -28047,7 +28050,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -28097,7 +28100,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -28147,7 +28150,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -28197,7 +28200,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -28247,7 +28250,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -28297,7 +28300,7 @@
         <v>0</v>
       </c>
       <c r="P517" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -28326,7 +28329,7 @@
         <v>5.37</v>
       </c>
       <c r="P518" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -28355,7 +28358,7 @@
         <v>5.6</v>
       </c>
       <c r="P519" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -28405,7 +28408,7 @@
         <v>0</v>
       </c>
       <c r="P520" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -28455,7 +28458,7 @@
         <v>0</v>
       </c>
       <c r="P521" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -28484,7 +28487,7 @@
         <v>5.37</v>
       </c>
       <c r="P522" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -28513,7 +28516,7 @@
         <v>5.6</v>
       </c>
       <c r="P523" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -28542,7 +28545,7 @@
         <v>5.77</v>
       </c>
       <c r="P524" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -28592,7 +28595,7 @@
         <v>0</v>
       </c>
       <c r="P525" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28642,7 +28645,7 @@
         <v>0</v>
       </c>
       <c r="P526" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28692,7 +28695,7 @@
         <v>0</v>
       </c>
       <c r="P527" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -28742,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="P528" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -28792,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="P529" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -28842,7 +28845,7 @@
         <v>0</v>
       </c>
       <c r="P530" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -29042,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="P534" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -29092,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="P535" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -29142,7 +29145,7 @@
         <v>0</v>
       </c>
       <c r="P536" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -29192,7 +29195,7 @@
         <v>0</v>
       </c>
       <c r="P537" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -29242,7 +29245,7 @@
         <v>0</v>
       </c>
       <c r="P538" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -29292,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="P539" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -29342,7 +29345,7 @@
         <v>0</v>
       </c>
       <c r="P540" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -29392,7 +29395,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -29442,7 +29445,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -29492,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="P543" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -29542,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="P544" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -29592,7 +29595,7 @@
         <v>0</v>
       </c>
       <c r="P545" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -29642,7 +29645,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -29692,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -29742,7 +29745,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -29792,7 +29795,7 @@
         <v>0</v>
       </c>
       <c r="P549" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -29842,7 +29845,7 @@
         <v>0</v>
       </c>
       <c r="P550" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -29892,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="P551" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -29921,7 +29924,7 @@
         <v>6.55</v>
       </c>
       <c r="P552" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29950,7 +29953,7 @@
         <v>6.7</v>
       </c>
       <c r="P553" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -30000,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="P554" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -30050,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="P555" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -30100,7 +30103,7 @@
         <v>0</v>
       </c>
       <c r="P556" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -30150,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="P557" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -30200,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="P558" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -30300,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="P560" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -30350,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="P561" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -30400,7 +30403,7 @@
         <v>0</v>
       </c>
       <c r="P562" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -30550,7 +30553,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30600,7 +30603,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30650,7 +30653,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30700,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="P568" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30750,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="P569" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30800,7 +30803,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30850,7 +30853,7 @@
         <v>0</v>
       </c>
       <c r="P571" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -30900,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="P572" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30950,7 +30953,7 @@
         <v>0</v>
       </c>
       <c r="P573" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -31000,7 +31003,7 @@
         <v>0</v>
       </c>
       <c r="P574" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -31100,7 +31103,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -31150,7 +31153,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -31200,7 +31203,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -31250,7 +31253,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -31300,7 +31303,7 @@
         <v>0</v>
       </c>
       <c r="P580" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -31350,7 +31353,7 @@
         <v>0</v>
       </c>
       <c r="P581" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -31400,7 +31403,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31450,7 +31453,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -31500,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="P584" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -31550,7 +31553,7 @@
         <v>0</v>
       </c>
       <c r="P585" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31600,7 +31603,7 @@
         <v>0</v>
       </c>
       <c r="P586" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31650,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="P587" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31700,7 +31703,7 @@
         <v>0</v>
       </c>
       <c r="P588" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -31750,7 +31753,7 @@
         <v>0</v>
       </c>
       <c r="P589" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31800,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="P590" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31850,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="P591" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31900,7 +31903,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31950,7 +31953,7 @@
         <v>0</v>
       </c>
       <c r="P593" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -32000,7 +32003,7 @@
         <v>0</v>
       </c>
       <c r="P594" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -32050,7 +32053,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -32100,7 +32103,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -32150,7 +32153,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -32200,7 +32203,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -32250,7 +32253,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -32300,7 +32303,7 @@
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -32350,7 +32353,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -32400,7 +32403,7 @@
         <v>1</v>
       </c>
       <c r="P602" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -32450,7 +32453,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -32500,7 +32503,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -32550,7 +32553,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32600,7 +32603,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32650,7 +32653,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32700,7 +32703,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32750,7 +32753,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32800,7 +32803,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32850,7 +32853,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32900,7 +32903,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32950,7 +32953,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -33750,7 +33753,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33800,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="P630" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33850,7 +33853,7 @@
         <v>0</v>
       </c>
       <c r="P631" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33900,7 +33903,7 @@
         <v>0</v>
       </c>
       <c r="P632" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33950,7 +33953,7 @@
         <v>0</v>
       </c>
       <c r="P633" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -34000,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="P634" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -34050,7 +34053,7 @@
         <v>0</v>
       </c>
       <c r="P635" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -34100,7 +34103,7 @@
         <v>0</v>
       </c>
       <c r="P636" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -34150,7 +34153,7 @@
         <v>0</v>
       </c>
       <c r="P637" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -34200,7 +34203,7 @@
         <v>0</v>
       </c>
       <c r="P638" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -34250,7 +34253,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -34300,7 +34303,7 @@
         <v>0</v>
       </c>
       <c r="P640" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -34350,7 +34353,7 @@
         <v>0</v>
       </c>
       <c r="P641" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -34400,7 +34403,7 @@
         <v>0</v>
       </c>
       <c r="P642" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -34450,7 +34453,7 @@
         <v>0</v>
       </c>
       <c r="P643" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -34500,7 +34503,7 @@
         <v>0</v>
       </c>
       <c r="P644" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -34550,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="P645" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -34600,7 +34603,7 @@
         <v>0</v>
       </c>
       <c r="P646" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34650,7 +34653,7 @@
         <v>0</v>
       </c>
       <c r="P647" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34700,7 +34703,7 @@
         <v>0</v>
       </c>
       <c r="P648" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -34750,7 +34753,7 @@
         <v>1</v>
       </c>
       <c r="P649" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="650" spans="1:16">
@@ -34800,7 +34803,7 @@
         <v>1</v>
       </c>
       <c r="P650" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="651" spans="1:16">
@@ -34850,7 +34853,7 @@
         <v>1</v>
       </c>
       <c r="P651" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="652" spans="1:16">
@@ -35050,7 +35053,7 @@
         <v>1</v>
       </c>
       <c r="P655" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -35100,7 +35103,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -35150,7 +35153,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -35300,7 +35303,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -35350,7 +35353,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -35450,7 +35453,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -35550,7 +35553,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -35600,7 +35603,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -35629,7 +35632,7 @@
         <v>6.64</v>
       </c>
       <c r="P667" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -35679,7 +35682,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -35729,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="P669" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35779,7 +35782,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35829,7 +35832,7 @@
         <v>0</v>
       </c>
       <c r="P671" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35879,7 +35882,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35908,7 +35911,7 @@
         <v>6.64</v>
       </c>
       <c r="P673" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35937,7 +35940,7 @@
         <v>6.38</v>
       </c>
       <c r="P674" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35987,7 +35990,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -36037,7 +36040,7 @@
         <v>0</v>
       </c>
       <c r="P676" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -36087,7 +36090,7 @@
         <v>0</v>
       </c>
       <c r="P677" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -36137,7 +36140,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -36187,7 +36190,7 @@
         <v>0</v>
       </c>
       <c r="P679" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -36237,7 +36240,7 @@
         <v>0</v>
       </c>
       <c r="P680" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -36287,7 +36290,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -36337,7 +36340,7 @@
         <v>0</v>
       </c>
       <c r="P682" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -36387,7 +36390,7 @@
         <v>0</v>
       </c>
       <c r="P683" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -36437,7 +36440,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -36466,7 +36469,7 @@
         <v>6.64</v>
       </c>
       <c r="P685" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -36495,7 +36498,7 @@
         <v>6.38</v>
       </c>
       <c r="P686" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -36524,7 +36527,7 @@
         <v>6.21</v>
       </c>
       <c r="P687" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36574,7 +36577,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36624,7 +36627,7 @@
         <v>0</v>
       </c>
       <c r="P689" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36674,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="P690" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36724,7 +36727,7 @@
         <v>0</v>
       </c>
       <c r="P691" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -36774,7 +36777,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36824,7 +36827,7 @@
         <v>0</v>
       </c>
       <c r="P693" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36874,7 +36877,7 @@
         <v>0</v>
       </c>
       <c r="P694" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36924,7 +36927,7 @@
         <v>0</v>
       </c>
       <c r="P695" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36974,7 +36977,7 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -37024,7 +37027,7 @@
         <v>0</v>
       </c>
       <c r="P697" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -37074,7 +37077,7 @@
         <v>0</v>
       </c>
       <c r="P698" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -37124,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="P699" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -37174,7 +37177,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -37224,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="P701" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -37274,7 +37277,7 @@
         <v>0</v>
       </c>
       <c r="P702" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -37324,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="P703" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -37374,7 +37377,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -37424,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="P705" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -37474,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="P706" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -37524,7 +37527,7 @@
         <v>1</v>
       </c>
       <c r="P707" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -37574,7 +37577,7 @@
         <v>0</v>
       </c>
       <c r="P708" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -37624,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="P709" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -37674,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="P710" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -37724,7 +37727,7 @@
         <v>1</v>
       </c>
       <c r="P711" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -37774,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="P712" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -37824,7 +37827,7 @@
         <v>0</v>
       </c>
       <c r="P713" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="714" spans="1:16">
@@ -37874,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="P714" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -37924,7 +37927,7 @@
         <v>1</v>
       </c>
       <c r="P715" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -37974,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="P716" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -38024,7 +38027,7 @@
         <v>0</v>
       </c>
       <c r="P717" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -38074,7 +38077,7 @@
         <v>1</v>
       </c>
       <c r="P718" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -38124,7 +38127,7 @@
         <v>0</v>
       </c>
       <c r="P719" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -38174,7 +38177,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -38224,7 +38227,7 @@
         <v>0</v>
       </c>
       <c r="P721" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -38274,7 +38277,7 @@
         <v>1</v>
       </c>
       <c r="P722" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -38324,7 +38327,7 @@
         <v>0</v>
       </c>
       <c r="P723" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38374,7 +38377,7 @@
         <v>0</v>
       </c>
       <c r="P724" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -38424,7 +38427,7 @@
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -38474,7 +38477,7 @@
         <v>0</v>
       </c>
       <c r="P726" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -38524,7 +38527,7 @@
         <v>0</v>
       </c>
       <c r="P727" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -38574,7 +38577,7 @@
         <v>1</v>
       </c>
       <c r="P728" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -38603,7 +38606,7 @@
         <v>6.3</v>
       </c>
       <c r="P729" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38632,7 +38635,7 @@
         <v>6.17</v>
       </c>
       <c r="P730" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38832,7 +38835,7 @@
         <v>1</v>
       </c>
       <c r="P734" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -38882,7 +38885,7 @@
         <v>0</v>
       </c>
       <c r="P735" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -38932,7 +38935,7 @@
         <v>0</v>
       </c>
       <c r="P736" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -38982,7 +38985,7 @@
         <v>0</v>
       </c>
       <c r="P737" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -39382,7 +39385,7 @@
         <v>1</v>
       </c>
       <c r="P745" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -39432,7 +39435,7 @@
         <v>0</v>
       </c>
       <c r="P746" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39482,7 +39485,7 @@
         <v>0</v>
       </c>
       <c r="P747" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -39532,7 +39535,7 @@
         <v>1</v>
       </c>
       <c r="P748" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39582,7 +39585,7 @@
         <v>0</v>
       </c>
       <c r="P749" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39632,7 +39635,7 @@
         <v>0</v>
       </c>
       <c r="P750" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39682,7 +39685,7 @@
         <v>1</v>
       </c>
       <c r="P751" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39732,7 +39735,7 @@
         <v>0</v>
       </c>
       <c r="P752" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39782,7 +39785,7 @@
         <v>0</v>
       </c>
       <c r="P753" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -39832,7 +39835,7 @@
         <v>1</v>
       </c>
       <c r="P754" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -39882,7 +39885,7 @@
         <v>0</v>
       </c>
       <c r="P755" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -39932,7 +39935,7 @@
         <v>0</v>
       </c>
       <c r="P756" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -39982,7 +39985,7 @@
         <v>0</v>
       </c>
       <c r="P757" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -40032,7 +40035,7 @@
         <v>1</v>
       </c>
       <c r="P758" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -40082,7 +40085,7 @@
         <v>0</v>
       </c>
       <c r="P759" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -40132,7 +40135,7 @@
         <v>0</v>
       </c>
       <c r="P760" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -40182,7 +40185,7 @@
         <v>1</v>
       </c>
       <c r="P761" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -40232,7 +40235,7 @@
         <v>0</v>
       </c>
       <c r="P762" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -40282,7 +40285,7 @@
         <v>0</v>
       </c>
       <c r="P763" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -40332,7 +40335,7 @@
         <v>1</v>
       </c>
       <c r="P764" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -40382,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="P765" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -40432,7 +40435,7 @@
         <v>0</v>
       </c>
       <c r="P766" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -40482,7 +40485,7 @@
         <v>0</v>
       </c>
       <c r="P767" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40532,7 +40535,7 @@
         <v>0</v>
       </c>
       <c r="P768" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40582,7 +40585,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40632,7 +40635,7 @@
         <v>0</v>
       </c>
       <c r="P770" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40682,7 +40685,7 @@
         <v>0</v>
       </c>
       <c r="P771" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40732,7 +40735,7 @@
         <v>0</v>
       </c>
       <c r="P772" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40782,7 +40785,7 @@
         <v>0</v>
       </c>
       <c r="P773" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -40832,7 +40835,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -40882,7 +40885,7 @@
         <v>0</v>
       </c>
       <c r="P775" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -40932,7 +40935,7 @@
         <v>0</v>
       </c>
       <c r="P776" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -40982,7 +40985,7 @@
         <v>0</v>
       </c>
       <c r="P777" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -41032,7 +41035,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -41082,7 +41085,7 @@
         <v>0</v>
       </c>
       <c r="P779" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -41132,7 +41135,7 @@
         <v>0</v>
       </c>
       <c r="P780" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -41182,7 +41185,7 @@
         <v>0</v>
       </c>
       <c r="P781" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -41232,7 +41235,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -41282,7 +41285,7 @@
         <v>0</v>
       </c>
       <c r="P783" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -41332,7 +41335,7 @@
         <v>1</v>
       </c>
       <c r="P784" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -41382,7 +41385,7 @@
         <v>0</v>
       </c>
       <c r="P785" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -41432,7 +41435,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -41482,7 +41485,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -41532,7 +41535,7 @@
         <v>1</v>
       </c>
       <c r="P788" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="789" spans="1:16">
@@ -41582,7 +41585,7 @@
         <v>1</v>
       </c>
       <c r="P789" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="790" spans="1:16">
@@ -41632,7 +41635,7 @@
         <v>1</v>
       </c>
       <c r="P790" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="791" spans="1:16">
@@ -41682,7 +41685,7 @@
         <v>1</v>
       </c>
       <c r="P791" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="792" spans="1:16">
@@ -41732,7 +41735,7 @@
         <v>1</v>
       </c>
       <c r="P792" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -41782,7 +41785,7 @@
         <v>1</v>
       </c>
       <c r="P793" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -41832,7 +41835,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -41882,7 +41885,7 @@
         <v>1</v>
       </c>
       <c r="P795" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -41932,7 +41935,7 @@
         <v>1</v>
       </c>
       <c r="P796" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -41982,7 +41985,7 @@
         <v>1</v>
       </c>
       <c r="P797" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -42032,7 +42035,7 @@
         <v>1</v>
       </c>
       <c r="P798" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -42082,7 +42085,7 @@
         <v>1</v>
       </c>
       <c r="P799" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="800" spans="1:16">
@@ -42132,7 +42135,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -42182,7 +42185,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -42232,7 +42235,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -42282,7 +42285,7 @@
         <v>1</v>
       </c>
       <c r="P803" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="804" spans="1:16">
@@ -42332,7 +42335,7 @@
         <v>1</v>
       </c>
       <c r="P804" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -42382,7 +42385,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -42432,7 +42435,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -42482,7 +42485,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42532,7 +42535,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42582,7 +42585,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42632,7 +42635,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42682,7 +42685,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42732,7 +42735,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42932,7 +42935,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -42982,7 +42985,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -43032,7 +43035,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -43082,7 +43085,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -43132,7 +43135,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -43182,7 +43185,7 @@
         <v>0</v>
       </c>
       <c r="P821" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -43232,7 +43235,7 @@
         <v>0</v>
       </c>
       <c r="P822" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -43682,7 +43685,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43732,7 +43735,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43782,7 +43785,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -43832,7 +43835,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -43861,7 +43864,7 @@
         <v>5.63</v>
       </c>
       <c r="P835" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -43911,7 +43914,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -43961,7 +43964,7 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -44011,7 +44014,7 @@
         <v>1</v>
       </c>
       <c r="P838" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -44061,7 +44064,7 @@
         <v>1</v>
       </c>
       <c r="P839" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -44111,7 +44114,7 @@
         <v>0</v>
       </c>
       <c r="P840" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -44311,7 +44314,7 @@
         <v>1</v>
       </c>
       <c r="P844" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="845" spans="1:16">
@@ -44361,7 +44364,7 @@
         <v>1</v>
       </c>
       <c r="P845" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -44411,7 +44414,7 @@
         <v>0</v>
       </c>
       <c r="P846" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -44461,7 +44464,7 @@
         <v>1</v>
       </c>
       <c r="P847" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -44511,7 +44514,7 @@
         <v>1</v>
       </c>
       <c r="P848" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -44561,7 +44564,7 @@
         <v>0</v>
       </c>
       <c r="P849" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -44611,7 +44614,7 @@
         <v>1</v>
       </c>
       <c r="P850" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -44661,7 +44664,7 @@
         <v>1</v>
       </c>
       <c r="P851" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -44711,7 +44714,7 @@
         <v>0</v>
       </c>
       <c r="P852" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -44761,7 +44764,7 @@
         <v>1</v>
       </c>
       <c r="P853" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -44811,7 +44814,7 @@
         <v>1</v>
       </c>
       <c r="P854" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -44861,7 +44864,7 @@
         <v>1</v>
       </c>
       <c r="P855" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -44911,7 +44914,7 @@
         <v>0</v>
       </c>
       <c r="P856" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -44961,7 +44964,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -45011,7 +45014,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -45061,7 +45064,7 @@
         <v>1</v>
       </c>
       <c r="P859" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -45111,7 +45114,7 @@
         <v>0</v>
       </c>
       <c r="P860" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -45311,7 +45314,7 @@
         <v>1</v>
       </c>
       <c r="P864" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -45361,7 +45364,7 @@
         <v>1</v>
       </c>
       <c r="P865" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="866" spans="1:16">
@@ -45411,7 +45414,7 @@
         <v>1</v>
       </c>
       <c r="P866" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -45461,7 +45464,7 @@
         <v>1</v>
       </c>
       <c r="P867" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -45511,7 +45514,7 @@
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -45561,7 +45564,7 @@
         <v>1</v>
       </c>
       <c r="P869" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -45611,7 +45614,7 @@
         <v>1</v>
       </c>
       <c r="P870" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="871" spans="1:16">
@@ -45661,7 +45664,7 @@
         <v>1</v>
       </c>
       <c r="P871" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="872" spans="1:16">
@@ -45711,7 +45714,7 @@
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -45761,7 +45764,7 @@
         <v>1</v>
       </c>
       <c r="P873" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -45811,7 +45814,7 @@
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -45861,7 +45864,7 @@
         <v>0</v>
       </c>
       <c r="P875" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -45911,7 +45914,7 @@
         <v>0</v>
       </c>
       <c r="P876" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -45961,7 +45964,7 @@
         <v>0</v>
       </c>
       <c r="P877" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -46111,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="P880" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -46161,7 +46164,7 @@
         <v>0</v>
       </c>
       <c r="P881" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -46211,7 +46214,7 @@
         <v>0</v>
       </c>
       <c r="P882" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -46261,7 +46264,7 @@
         <v>0</v>
       </c>
       <c r="P883" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -46311,7 +46314,7 @@
         <v>0</v>
       </c>
       <c r="P884" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -46340,7 +46343,7 @@
         <v>5.6</v>
       </c>
       <c r="P885" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46390,7 +46393,7 @@
         <v>0</v>
       </c>
       <c r="P886" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46590,7 +46593,7 @@
         <v>1</v>
       </c>
       <c r="P890" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="891" spans="1:16">
@@ -46640,7 +46643,7 @@
         <v>1</v>
       </c>
       <c r="P891" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="892" spans="1:16">
@@ -46690,7 +46693,7 @@
         <v>1</v>
       </c>
       <c r="P892" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="893" spans="1:16">
@@ -46740,7 +46743,7 @@
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -46790,7 +46793,7 @@
         <v>1</v>
       </c>
       <c r="P894" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="895" spans="1:16">
@@ -46840,7 +46843,7 @@
         <v>1</v>
       </c>
       <c r="P895" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="896" spans="1:16">
@@ -46890,7 +46893,7 @@
         <v>1</v>
       </c>
       <c r="P896" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -46940,7 +46943,7 @@
         <v>1</v>
       </c>
       <c r="P897" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="898" spans="1:16">
@@ -46990,7 +46993,7 @@
         <v>1</v>
       </c>
       <c r="P898" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="899" spans="1:16">
@@ -47040,7 +47043,7 @@
         <v>1</v>
       </c>
       <c r="P899" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -47090,7 +47093,7 @@
         <v>1</v>
       </c>
       <c r="P900" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -47140,7 +47143,7 @@
         <v>1</v>
       </c>
       <c r="P901" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -47290,7 +47293,7 @@
         <v>1</v>
       </c>
       <c r="P904" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -47340,7 +47343,7 @@
         <v>1</v>
       </c>
       <c r="P905" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="906" spans="1:16">
@@ -47390,7 +47393,7 @@
         <v>1</v>
       </c>
       <c r="P906" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -47440,7 +47443,7 @@
         <v>1</v>
       </c>
       <c r="P907" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -47490,7 +47493,7 @@
         <v>1</v>
       </c>
       <c r="P908" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -47540,7 +47543,7 @@
         <v>1</v>
       </c>
       <c r="P909" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="910" spans="1:16">
@@ -47590,7 +47593,7 @@
         <v>1</v>
       </c>
       <c r="P910" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="911" spans="1:16">
@@ -47640,7 +47643,7 @@
         <v>1</v>
       </c>
       <c r="P911" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="912" spans="1:16">
@@ -47690,7 +47693,7 @@
         <v>1</v>
       </c>
       <c r="P912" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="913" spans="1:16">
@@ -47740,7 +47743,7 @@
         <v>1</v>
       </c>
       <c r="P913" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="914" spans="1:16">
@@ -47790,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="P914" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -47840,7 +47843,7 @@
         <v>1</v>
       </c>
       <c r="P915" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -47890,7 +47893,7 @@
         <v>1</v>
       </c>
       <c r="P916" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -47940,7 +47943,7 @@
         <v>1</v>
       </c>
       <c r="P917" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -47990,7 +47993,7 @@
         <v>1</v>
       </c>
       <c r="P918" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -48040,7 +48043,7 @@
         <v>1</v>
       </c>
       <c r="P919" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="920" spans="1:16">
@@ -48090,7 +48093,7 @@
         <v>1</v>
       </c>
       <c r="P920" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="921" spans="1:16">
@@ -48140,7 +48143,7 @@
         <v>1</v>
       </c>
       <c r="P921" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="922" spans="1:16">
@@ -48190,7 +48193,7 @@
         <v>1</v>
       </c>
       <c r="P922" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -48240,7 +48243,7 @@
         <v>1</v>
       </c>
       <c r="P923" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -48290,7 +48293,7 @@
         <v>1</v>
       </c>
       <c r="P924" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -48340,7 +48343,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -48390,7 +48393,7 @@
         <v>1</v>
       </c>
       <c r="P926" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -48440,7 +48443,7 @@
         <v>1</v>
       </c>
       <c r="P927" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -48490,7 +48493,7 @@
         <v>1</v>
       </c>
       <c r="P928" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -48540,7 +48543,7 @@
         <v>1</v>
       </c>
       <c r="P929" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -48590,7 +48593,7 @@
         <v>1</v>
       </c>
       <c r="P930" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="931" spans="1:16">
@@ -48640,7 +48643,7 @@
         <v>1</v>
       </c>
       <c r="P931" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="932" spans="1:16">
@@ -48690,7 +48693,7 @@
         <v>1</v>
       </c>
       <c r="P932" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="933" spans="1:16">
@@ -48740,7 +48743,7 @@
         <v>1</v>
       </c>
       <c r="P933" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="934" spans="1:16">
@@ -48790,7 +48793,7 @@
         <v>1</v>
       </c>
       <c r="P934" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -48840,7 +48843,7 @@
         <v>1</v>
       </c>
       <c r="P935" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -48890,7 +48893,7 @@
         <v>1</v>
       </c>
       <c r="P936" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -48940,7 +48943,7 @@
         <v>1</v>
       </c>
       <c r="P937" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -48990,7 +48993,7 @@
         <v>1</v>
       </c>
       <c r="P938" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="939" spans="1:16">
@@ -49040,7 +49043,7 @@
         <v>1</v>
       </c>
       <c r="P939" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="940" spans="1:16">
@@ -49090,7 +49093,7 @@
         <v>1</v>
       </c>
       <c r="P940" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -49140,7 +49143,7 @@
         <v>1</v>
       </c>
       <c r="P941" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -49190,7 +49193,7 @@
         <v>1</v>
       </c>
       <c r="P942" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -49240,7 +49243,7 @@
         <v>1</v>
       </c>
       <c r="P943" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -49290,7 +49293,7 @@
         <v>1</v>
       </c>
       <c r="P944" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -49340,7 +49343,7 @@
         <v>1</v>
       </c>
       <c r="P945" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="946" spans="1:16">
@@ -49390,7 +49393,7 @@
         <v>1</v>
       </c>
       <c r="P946" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="947" spans="1:16">
@@ -49440,7 +49443,7 @@
         <v>1</v>
       </c>
       <c r="P947" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -49490,7 +49493,7 @@
         <v>1</v>
       </c>
       <c r="P948" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -49540,7 +49543,7 @@
         <v>1</v>
       </c>
       <c r="P949" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -49590,7 +49593,7 @@
         <v>1</v>
       </c>
       <c r="P950" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="951" spans="1:16">
@@ -49640,7 +49643,7 @@
         <v>1</v>
       </c>
       <c r="P951" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="952" spans="1:16">
@@ -49690,7 +49693,7 @@
         <v>1</v>
       </c>
       <c r="P952" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -49740,7 +49743,7 @@
         <v>1</v>
       </c>
       <c r="P953" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -49790,7 +49793,7 @@
         <v>1</v>
       </c>
       <c r="P954" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -49840,7 +49843,7 @@
         <v>1</v>
       </c>
       <c r="P955" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -49857,7 +49860,7 @@
         <v>463</v>
       </c>
       <c r="E956">
-        <v>2.949488516354915</v>
+        <v>2.843355524083167</v>
       </c>
       <c r="F956">
         <v>-1</v>
@@ -49866,10 +49869,10 @@
         <v>0.00842706391642723</v>
       </c>
       <c r="H956">
-        <v>0.008530511483645085</v>
+        <v>0.008436644475916832</v>
       </c>
       <c r="I956">
-        <v>0.5834475672178567</v>
+        <v>0.6895805594896047</v>
       </c>
       <c r="J956">
         <v>0.06132992271747439</v>
@@ -49881,16 +49884,16 @@
         <v>5.98</v>
       </c>
       <c r="M956">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="N956">
-        <v>5.74</v>
+        <v>5.64</v>
       </c>
       <c r="O956">
         <v>1</v>
       </c>
       <c r="P956" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -49907,7 +49910,7 @@
         <v>463</v>
       </c>
       <c r="E957">
-        <v>2.949488516354915</v>
+        <v>2.843355524083167</v>
       </c>
       <c r="F957">
         <v>-1</v>
@@ -49916,10 +49919,10 @@
         <v>0.00890998207251999</v>
       </c>
       <c r="H957">
-        <v>0.008530511483645085</v>
+        <v>0.008436644475916832</v>
       </c>
       <c r="I957">
-        <v>0.5205294111250955</v>
+        <v>0.6266624033968435</v>
       </c>
       <c r="J957">
         <v>0.06132992271747439</v>
@@ -49931,16 +49934,16 @@
         <v>6.19</v>
       </c>
       <c r="M957">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="N957">
-        <v>5.74</v>
+        <v>5.64</v>
       </c>
       <c r="O957">
         <v>1</v>
       </c>
       <c r="P957" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -49990,7 +49993,7 @@
         <v>1</v>
       </c>
       <c r="P958" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -50004,7 +50007,7 @@
         <v>3.234426378814169</v>
       </c>
       <c r="D959" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E959">
         <v>2.609082712682824</v>
@@ -50040,7 +50043,7 @@
         <v>1</v>
       </c>
       <c r="P959" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="960" spans="1:16">
@@ -50090,7 +50093,7 @@
         <v>1</v>
       </c>
       <c r="P960" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -50104,7 +50107,7 @@
         <v>3.218116050648887</v>
       </c>
       <c r="D961" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E961">
         <v>2.590483215652239</v>
@@ -50140,7 +50143,7 @@
         <v>1</v>
       </c>
       <c r="P961" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -50190,7 +50193,7 @@
         <v>1</v>
       </c>
       <c r="P962" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -50204,7 +50207,7 @@
         <v>3.235589072759032</v>
       </c>
       <c r="D963" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E963">
         <v>2.610408591742756</v>
@@ -50240,7 +50243,7 @@
         <v>1</v>
       </c>
       <c r="P963" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="964" spans="1:16">
@@ -50254,7 +50257,7 @@
         <v>6.518598702106193</v>
       </c>
       <c r="D964" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E964">
         <v>6.082300869033131</v>
@@ -50290,7 +50293,7 @@
         <v>1</v>
       </c>
       <c r="P964" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -50304,10 +50307,10 @@
         <v>5.736378378255268</v>
       </c>
       <c r="D965" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E965">
-        <v>5.807487319799182</v>
+        <v>5.805635015954164</v>
       </c>
       <c r="F965">
         <v>1</v>
@@ -50316,10 +50319,10 @@
         <v>0.005063621621744733</v>
       </c>
       <c r="H965">
-        <v>0.005152512680200819</v>
+        <v>0.005154364984045837</v>
       </c>
       <c r="I965">
-        <v>0.07110894154391367</v>
+        <v>0.06925663769889567</v>
       </c>
       <c r="J965">
         <v>-0.007409215380071977</v>
@@ -50331,7 +50334,7 @@
         <v>5.4</v>
       </c>
       <c r="M965">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N965">
         <v>5.48</v>
@@ -50340,7 +50343,7 @@
         <v>0</v>
       </c>
       <c r="P965" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -50351,37 +50354,37 @@
         <v>223</v>
       </c>
       <c r="C966">
-        <v>5.746746398261174</v>
+        <v>5.720080545182206</v>
       </c>
       <c r="D966" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E966">
-        <v>5.807487319799182</v>
+        <v>5.805635015954164</v>
       </c>
       <c r="F966">
         <v>1</v>
       </c>
       <c r="G966">
-        <v>0.005093253601738826</v>
+        <v>0.005059919454817793</v>
       </c>
       <c r="H966">
-        <v>0.005152512680200819</v>
+        <v>0.005154364984045837</v>
       </c>
       <c r="I966">
-        <v>0.0607409215380077</v>
+        <v>0.08555447077195755</v>
       </c>
       <c r="J966">
         <v>-0.007409215380071977</v>
       </c>
       <c r="K966">
-        <v>44.1</v>
+        <v>44.55</v>
       </c>
       <c r="L966">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="M966">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N966">
         <v>5.48</v>
@@ -50390,7 +50393,7 @@
         <v>0</v>
       </c>
       <c r="P966" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -50404,10 +50407,10 @@
         <v>6.991566556621656</v>
       </c>
       <c r="D967" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E967">
-        <v>6.562648710159545</v>
+        <v>6.546203950688659</v>
       </c>
       <c r="F967">
         <v>-1</v>
@@ -50416,10 +50419,10 @@
         <v>0.005388433443378345</v>
       </c>
       <c r="H967">
-        <v>0.005017351289840455</v>
+        <v>0.004973796049311341</v>
       </c>
       <c r="I967">
-        <v>0.4289178464621113</v>
+        <v>0.4453626059329974</v>
       </c>
       <c r="J967">
         <v>-0.01807365403881975</v>
@@ -50431,16 +50434,16 @@
         <v>6.19</v>
       </c>
       <c r="M967">
-        <v>42.75</v>
+        <v>43.5</v>
       </c>
       <c r="N967">
-        <v>5.79</v>
+        <v>5.76</v>
       </c>
       <c r="O967">
         <v>1</v>
       </c>
       <c r="P967" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -50448,16 +50451,16 @@
         <v>1</v>
       </c>
       <c r="B968" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C968">
         <v>6.19518128742942</v>
       </c>
       <c r="D968" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E968">
-        <v>6.278855508515834</v>
+        <v>6.274337095006128</v>
       </c>
       <c r="F968">
         <v>1</v>
@@ -50466,10 +50469,10 @@
         <v>0.00458481871257058</v>
       </c>
       <c r="H968">
-        <v>0.004681144491484167</v>
+        <v>0.004685662904993873</v>
       </c>
       <c r="I968">
-        <v>0.08367422108641431</v>
+        <v>0.0791558075767087</v>
       </c>
       <c r="J968">
         <v>-0.01807365403881975</v>
@@ -50481,7 +50484,7 @@
         <v>5.39</v>
       </c>
       <c r="M968">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N968">
         <v>5.48</v>
@@ -50490,7 +50493,7 @@
         <v>0</v>
       </c>
       <c r="P968" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -50504,7 +50507,7 @@
         <v>7.158772656458988</v>
       </c>
       <c r="D969" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E969">
         <v>6.72382257189677</v>
@@ -50540,7 +50543,7 @@
         <v>1</v>
       </c>
       <c r="P969" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -50548,16 +50551,16 @@
         <v>1</v>
       </c>
       <c r="B970" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C970">
         <v>6.363141417029265</v>
       </c>
       <c r="D970" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E970">
-        <v>6.445496086031281</v>
+        <v>6.440035135318434</v>
       </c>
       <c r="F970">
         <v>1</v>
@@ -50566,10 +50569,10 @@
         <v>0.004416858582970734</v>
       </c>
       <c r="H970">
-        <v>0.00451450391396872</v>
+        <v>0.004519964864681567</v>
       </c>
       <c r="I970">
-        <v>0.08235466900201605</v>
+        <v>0.07689371828916869</v>
       </c>
       <c r="J970">
         <v>-0.02184380285138643</v>
@@ -50581,7 +50584,7 @@
         <v>5.39</v>
       </c>
       <c r="M970">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N970">
         <v>5.48</v>
@@ -50590,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="P970" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="971" spans="1:16">
@@ -50598,16 +50601,16 @@
         <v>0</v>
       </c>
       <c r="B971" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C971">
         <v>6.384240332408092</v>
       </c>
       <c r="D971" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E971">
-        <v>6.466429241132159</v>
+        <v>6.460849890220778</v>
       </c>
       <c r="F971">
         <v>1</v>
@@ -50616,10 +50619,10 @@
         <v>0.004395759667591907</v>
       </c>
       <c r="H971">
-        <v>0.004493570758867842</v>
+        <v>0.004499150109779223</v>
       </c>
       <c r="I971">
-        <v>0.08218890872406703</v>
+        <v>0.07660955781268619</v>
       </c>
       <c r="J971">
         <v>-0.02231740364552396</v>
@@ -50631,7 +50634,7 @@
         <v>5.39</v>
       </c>
       <c r="M971">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N971">
         <v>5.48</v>
@@ -50651,37 +50654,37 @@
         <v>223</v>
       </c>
       <c r="C972">
-        <v>6.37263435194942</v>
+        <v>6.352355110642781</v>
       </c>
       <c r="D972" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E972">
-        <v>6.434794520547946</v>
+        <v>6.429394099051634</v>
       </c>
       <c r="F972">
         <v>1</v>
       </c>
       <c r="G972">
-        <v>0.004467365648050579</v>
+        <v>0.004427644889357218</v>
       </c>
       <c r="H972">
-        <v>0.004525205479452054</v>
+        <v>0.004530605900948367</v>
       </c>
       <c r="I972">
-        <v>0.0621601685985258</v>
+        <v>0.07703898840885248</v>
       </c>
       <c r="J972">
         <v>-0.02160168598524764</v>
       </c>
       <c r="K972">
-        <v>44.1</v>
+        <v>44.55</v>
       </c>
       <c r="L972">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="M972">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N972">
         <v>5.48</v>
@@ -50690,7 +50693,7 @@
         <v>0</v>
       </c>
       <c r="P972" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -50701,37 +50704,37 @@
         <v>224</v>
       </c>
       <c r="C973">
-        <v>5.463139104710836</v>
+        <v>5.4323182393381</v>
       </c>
       <c r="D973" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E973">
-        <v>5.552564498949921</v>
+        <v>5.552154066263553</v>
       </c>
       <c r="F973">
         <v>1</v>
       </c>
       <c r="G973">
-        <v>0.005316860895289163</v>
+        <v>0.0052876817606619</v>
       </c>
       <c r="H973">
-        <v>0.00540743550105008</v>
+        <v>0.005407845933736448</v>
       </c>
       <c r="I973">
-        <v>0.08942539423908435</v>
+        <v>0.1198358269254527</v>
       </c>
       <c r="J973">
         <v>-0.00164173074547332</v>
       </c>
       <c r="K973">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="L973">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="M973">
-        <v>44.2</v>
+        <v>43.95</v>
       </c>
       <c r="N973">
         <v>5.48</v>
@@ -50740,7 +50743,7 @@
         <v>0</v>
       </c>
       <c r="P973" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2319-151-800.xlsx
+++ b/s60_signal/position-2319-151-800.xlsx
@@ -1411,7 +1411,7 @@
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2021-07-19</t>
+    <t>2021-07-20</t>
   </si>
   <si>
     <t>2010-03-04</t>
@@ -50001,10 +50001,10 @@
         <v>3.234426378814169</v>
       </c>
       <c r="D959" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E959">
-        <v>2.609082712682824</v>
+        <v>2.502201575787621</v>
       </c>
       <c r="F959">
         <v>-1</v>
@@ -50013,10 +50013,10 @@
         <v>0.008725573621185832</v>
       </c>
       <c r="H959">
-        <v>0.008870917287317176</v>
+        <v>0.008777798424212379</v>
       </c>
       <c r="I959">
-        <v>0.6253436661313452</v>
+        <v>0.7322248030265484</v>
       </c>
       <c r="J959">
         <v>0.06881136895202586</v>
@@ -50028,10 +50028,10 @@
         <v>5.98</v>
       </c>
       <c r="M959">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="N959">
-        <v>5.74</v>
+        <v>5.64</v>
       </c>
       <c r="O959">
         <v>1</v>
@@ -50304,7 +50304,7 @@
         <v>465</v>
       </c>
       <c r="E965">
-        <v>5.742671329802135</v>
+        <v>5.76526455518516</v>
       </c>
       <c r="F965">
         <v>1</v>
@@ -50313,10 +50313,10 @@
         <v>0.005059919454817793</v>
       </c>
       <c r="H965">
-        <v>0.005097328670197865</v>
+        <v>0.005114735444814841</v>
       </c>
       <c r="I965">
-        <v>0.02259078461992825</v>
+        <v>0.04518401000295391</v>
       </c>
       <c r="J965">
         <v>-0.007409215380071977</v>
@@ -50328,10 +50328,10 @@
         <v>5.39</v>
       </c>
       <c r="M965">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N965">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O965">
         <v>0</v>
@@ -50395,43 +50395,43 @@
         <v>1</v>
       </c>
       <c r="B967" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C967">
-        <v>6.19518128742942</v>
+        <v>6.15614446041001</v>
       </c>
       <c r="D967" t="s">
         <v>465</v>
       </c>
       <c r="E967">
-        <v>6.2071076333906</v>
+        <v>6.233433412304188</v>
       </c>
       <c r="F967">
         <v>1</v>
       </c>
       <c r="G967">
-        <v>0.00458481871257058</v>
+        <v>0.004563855539589991</v>
       </c>
       <c r="H967">
-        <v>0.0046328923666094</v>
+        <v>0.004646566587695813</v>
       </c>
       <c r="I967">
-        <v>0.01192634596118047</v>
+        <v>0.07728895189417795</v>
       </c>
       <c r="J967">
         <v>-0.01807365403881975</v>
       </c>
       <c r="K967">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="L967">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="M967">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N967">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O967">
         <v>0</v>
@@ -50495,43 +50495,43 @@
         <v>1</v>
       </c>
       <c r="B969" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C969">
-        <v>6.363141417029265</v>
+        <v>6.322219515603573</v>
       </c>
       <c r="D969" t="s">
         <v>465</v>
       </c>
       <c r="E969">
-        <v>6.371297614177879</v>
+        <v>6.398942945175865</v>
       </c>
       <c r="F969">
         <v>1</v>
       </c>
       <c r="G969">
-        <v>0.004416858582970734</v>
+        <v>0.004397780484396428</v>
       </c>
       <c r="H969">
-        <v>0.004468702385822121</v>
+        <v>0.004481057054824137</v>
       </c>
       <c r="I969">
-        <v>0.008156197148613487</v>
+        <v>0.07672342957229183</v>
       </c>
       <c r="J969">
         <v>-0.02184380285138643</v>
       </c>
       <c r="K969">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="L969">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="M969">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N969">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O969">
         <v>0</v>
@@ -50554,7 +50554,7 @@
         <v>465</v>
       </c>
       <c r="E970">
-        <v>6.391922928762568</v>
+        <v>6.419734020038502</v>
       </c>
       <c r="F970">
         <v>1</v>
@@ -50563,10 +50563,10 @@
         <v>0.00437691836941467</v>
       </c>
       <c r="H970">
-        <v>0.004448077071237432</v>
+        <v>0.004460265979961499</v>
       </c>
       <c r="I970">
-        <v>0.04884129817723792</v>
+        <v>0.0766523894531721</v>
       </c>
       <c r="J970">
         <v>-0.02231740364552396</v>
@@ -50578,10 +50578,10 @@
         <v>5.36</v>
       </c>
       <c r="M970">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N970">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O970">
         <v>0</v>
@@ -50595,43 +50595,43 @@
         <v>0</v>
       </c>
       <c r="B971" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C971">
-        <v>6.352355110642781</v>
+        <v>6.311554267650159</v>
       </c>
       <c r="D971" t="s">
         <v>465</v>
       </c>
       <c r="E971">
-        <v>6.360753424657535</v>
+        <v>6.388314014752371</v>
       </c>
       <c r="F971">
         <v>1</v>
       </c>
       <c r="G971">
-        <v>0.004427644889357218</v>
+        <v>0.004408445732349842</v>
       </c>
       <c r="H971">
-        <v>0.004479246575342465</v>
+        <v>0.00449168598524763</v>
       </c>
       <c r="I971">
-        <v>0.008398314014753439</v>
+        <v>0.07675974710221212</v>
       </c>
       <c r="J971">
         <v>-0.02160168598524764</v>
       </c>
       <c r="K971">
-        <v>44.55</v>
+        <v>44.05</v>
       </c>
       <c r="L971">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="M971">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N971">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O971">
         <v>0</v>
@@ -50654,7 +50654,7 @@
         <v>465</v>
       </c>
       <c r="E972">
-        <v>5.491497373965363</v>
+        <v>5.512071979726279</v>
       </c>
       <c r="F972">
         <v>1</v>
@@ -50663,10 +50663,10 @@
         <v>0.0052876817606619</v>
       </c>
       <c r="H972">
-        <v>0.005348502626034636</v>
+        <v>0.005367928020273721</v>
       </c>
       <c r="I972">
-        <v>0.05917913462726343</v>
+        <v>0.07975374038817939</v>
       </c>
       <c r="J972">
         <v>-0.00164173074547332</v>
@@ -50678,10 +50678,10 @@
         <v>5.36</v>
       </c>
       <c r="M972">
-        <v>43.55</v>
+        <v>43.9</v>
       </c>
       <c r="N972">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="O972">
         <v>0</v>
